--- a/Dragonfall/gameData/shared/Soldiers.xlsx
+++ b/Dragonfall/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="0" windowWidth="33380" windowHeight="16060" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1100">
+  <cellStyleXfs count="1184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,90 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1744,7 +1828,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1100">
+  <cellStyles count="1184">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2297,6 +2381,48 @@
     <cellStyle name="超链接" xfId="1094" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1096" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1182" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2842,6 +2968,48 @@
     <cellStyle name="访问过的超链接" xfId="1095" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1097" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1183" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3293,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3304,7 +3472,9 @@
     <col min="15" max="21" width="20.6640625" style="1"/>
     <col min="22" max="22" width="14.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="20.6640625" style="1"/>
+    <col min="24" max="25" width="20.6640625" style="1"/>
+    <col min="26" max="26" width="30.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="20" customHeight="1">
@@ -3407,28 +3577,28 @@
         <v>2</v>
       </c>
       <c r="F2" s="3">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3">
         <v>60</v>
       </c>
-      <c r="G2" s="3">
-        <v>30</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>72</v>
       </c>
-      <c r="I2" s="3">
-        <v>90</v>
-      </c>
       <c r="J2" s="3">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3">
         <v>160</v>
       </c>
       <c r="L2" s="3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="N2" s="6">
         <v>0.5</v>
@@ -3490,28 +3660,28 @@
         <v>4</v>
       </c>
       <c r="F3" s="3">
+        <v>96</v>
+      </c>
+      <c r="G3" s="3">
+        <v>72</v>
+      </c>
+      <c r="H3" s="3">
         <v>120</v>
       </c>
-      <c r="G3" s="3">
-        <v>60</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>144</v>
       </c>
-      <c r="I3" s="3">
-        <v>180</v>
-      </c>
       <c r="J3" s="3">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K3" s="3">
         <v>320</v>
       </c>
       <c r="L3" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="N3" s="6">
         <v>1</v>
@@ -3544,10 +3714,10 @@
         <v>2</v>
       </c>
       <c r="X3" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y3" s="5">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="Z3" s="5">
         <v>43200</v>
@@ -3573,28 +3743,28 @@
         <v>6</v>
       </c>
       <c r="F4" s="3">
+        <v>144</v>
+      </c>
+      <c r="G4" s="3">
+        <v>108</v>
+      </c>
+      <c r="H4" s="3">
         <v>180</v>
       </c>
-      <c r="G4" s="3">
-        <v>90</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>216</v>
       </c>
-      <c r="I4" s="3">
-        <v>270</v>
-      </c>
       <c r="J4" s="3">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="K4" s="3">
         <v>480</v>
       </c>
       <c r="L4" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M4" s="1">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="N4" s="6">
         <v>1.5</v>
@@ -3627,10 +3797,10 @@
         <v>2</v>
       </c>
       <c r="X4" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y4" s="5">
-        <v>5000</v>
+        <v>17500</v>
       </c>
       <c r="Z4" s="1">
         <v>86400</v>
@@ -3656,28 +3826,28 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3">
         <v>80</v>
-      </c>
-      <c r="G5" s="3">
-        <v>64</v>
-      </c>
-      <c r="H5" s="3">
-        <v>120</v>
       </c>
       <c r="I5" s="3">
         <v>96</v>
       </c>
       <c r="J5" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K5" s="3">
         <v>120</v>
       </c>
       <c r="L5" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M5" s="1">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="N5" s="6">
         <v>0.5</v>
@@ -3739,28 +3909,28 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
+        <v>128</v>
+      </c>
+      <c r="G6" s="3">
+        <v>96</v>
+      </c>
+      <c r="H6" s="3">
         <v>160</v>
-      </c>
-      <c r="G6" s="3">
-        <v>128</v>
-      </c>
-      <c r="H6" s="3">
-        <v>240</v>
       </c>
       <c r="I6" s="3">
         <v>192</v>
       </c>
       <c r="J6" s="3">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="K6" s="3">
         <v>240</v>
       </c>
       <c r="L6" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="N6" s="6">
         <v>1</v>
@@ -3793,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="X6" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y6" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z6" s="5">
         <v>43200</v>
@@ -3822,28 +3992,28 @@
         <v>6</v>
       </c>
       <c r="F7" s="3">
+        <v>192</v>
+      </c>
+      <c r="G7" s="3">
+        <v>144</v>
+      </c>
+      <c r="H7" s="3">
         <v>240</v>
-      </c>
-      <c r="G7" s="3">
-        <v>192</v>
-      </c>
-      <c r="H7" s="3">
-        <v>360</v>
       </c>
       <c r="I7" s="3">
         <v>288</v>
       </c>
       <c r="J7" s="3">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="K7" s="3">
         <v>360</v>
       </c>
       <c r="L7" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M7" s="1">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="N7" s="6">
         <v>1.5</v>
@@ -3876,10 +4046,10 @@
         <v>2</v>
       </c>
       <c r="X7" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y7" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z7" s="1">
         <v>86400</v>
@@ -3905,28 +4075,28 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G8" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H8" s="3">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J8" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K8" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="L8" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M8" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N8" s="6">
         <v>0.5</v>
@@ -3988,28 +4158,28 @@
         <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="G9" s="3">
+        <v>128</v>
+      </c>
+      <c r="H9" s="3">
+        <v>96</v>
+      </c>
+      <c r="I9" s="3">
+        <v>160</v>
+      </c>
+      <c r="J9" s="3">
+        <v>80</v>
+      </c>
+      <c r="K9" s="3">
+        <v>240</v>
+      </c>
+      <c r="L9" s="3">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1">
         <v>120</v>
-      </c>
-      <c r="H9" s="3">
-        <v>60</v>
-      </c>
-      <c r="I9" s="3">
-        <v>96</v>
-      </c>
-      <c r="J9" s="3">
-        <v>180</v>
-      </c>
-      <c r="K9" s="3">
-        <v>320</v>
-      </c>
-      <c r="L9" s="3">
-        <v>40</v>
-      </c>
-      <c r="M9" s="1">
-        <v>160</v>
       </c>
       <c r="N9" s="6">
         <v>1</v>
@@ -4042,10 +4212,10 @@
         <v>2</v>
       </c>
       <c r="X9" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y9" s="5">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="Z9" s="5">
         <v>43200</v>
@@ -4071,28 +4241,28 @@
         <v>6</v>
       </c>
       <c r="F10" s="3">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G10" s="3">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H10" s="3">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="I10" s="3">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="J10" s="3">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K10" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="L10" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M10" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N10" s="6">
         <v>1.5</v>
@@ -4125,10 +4295,10 @@
         <v>2</v>
       </c>
       <c r="X10" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y10" s="5">
-        <v>5000</v>
+        <v>17500</v>
       </c>
       <c r="Z10" s="1">
         <v>86400</v>
@@ -4160,22 +4330,22 @@
         <v>80</v>
       </c>
       <c r="H11" s="3">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J11" s="3">
+        <v>50</v>
+      </c>
+      <c r="K11" s="3">
         <v>96</v>
       </c>
-      <c r="K11" s="3">
-        <v>120</v>
-      </c>
       <c r="L11" s="3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="N11" s="6">
         <v>0.5</v>
@@ -4243,22 +4413,22 @@
         <v>160</v>
       </c>
       <c r="H12" s="3">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I12" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>192</v>
       </c>
-      <c r="K12" s="3">
-        <v>240</v>
-      </c>
       <c r="L12" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="N12" s="6">
         <v>1</v>
@@ -4291,10 +4461,10 @@
         <v>2</v>
       </c>
       <c r="X12" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y12" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z12" s="5">
         <v>43200</v>
@@ -4326,22 +4496,22 @@
         <v>240</v>
       </c>
       <c r="H13" s="3">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I13" s="3">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="J13" s="3">
+        <v>150</v>
+      </c>
+      <c r="K13" s="3">
         <v>288</v>
       </c>
-      <c r="K13" s="3">
-        <v>360</v>
-      </c>
       <c r="L13" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M13" s="1">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="N13" s="6">
         <v>1.5</v>
@@ -4374,10 +4544,10 @@
         <v>2</v>
       </c>
       <c r="X13" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y13" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z13" s="1">
         <v>86400</v>
@@ -4403,28 +4573,28 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>160</v>
+      </c>
+      <c r="G14" s="3">
+        <v>192</v>
+      </c>
+      <c r="H14" s="3">
+        <v>128</v>
+      </c>
+      <c r="I14" s="3">
         <v>96</v>
       </c>
-      <c r="G14" s="3">
-        <v>144</v>
-      </c>
-      <c r="H14" s="3">
-        <v>120</v>
-      </c>
-      <c r="I14" s="3">
-        <v>180</v>
-      </c>
       <c r="J14" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K14" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="L14" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M14" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N14" s="6">
         <v>1</v>
@@ -4486,28 +4656,28 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
+        <v>320</v>
+      </c>
+      <c r="G15" s="3">
+        <v>384</v>
+      </c>
+      <c r="H15" s="3">
+        <v>256</v>
+      </c>
+      <c r="I15" s="3">
         <v>192</v>
       </c>
-      <c r="G15" s="3">
-        <v>288</v>
-      </c>
-      <c r="H15" s="3">
-        <v>240</v>
-      </c>
-      <c r="I15" s="3">
-        <v>360</v>
-      </c>
       <c r="J15" s="3">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="K15" s="3">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M15" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N15" s="6">
         <v>2</v>
@@ -4540,10 +4710,10 @@
         <v>4</v>
       </c>
       <c r="X15" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y15" s="5">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="Z15" s="5">
         <v>43200</v>
@@ -4569,28 +4739,28 @@
         <v>12</v>
       </c>
       <c r="F16" s="3">
+        <v>480</v>
+      </c>
+      <c r="G16" s="3">
+        <v>576</v>
+      </c>
+      <c r="H16" s="3">
+        <v>384</v>
+      </c>
+      <c r="I16" s="3">
         <v>288</v>
       </c>
-      <c r="G16" s="3">
-        <v>432</v>
-      </c>
-      <c r="H16" s="3">
-        <v>360</v>
-      </c>
-      <c r="I16" s="3">
-        <v>540</v>
-      </c>
       <c r="J16" s="3">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="K16" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="L16" s="3">
+        <v>75</v>
+      </c>
+      <c r="M16" s="1">
         <v>150</v>
-      </c>
-      <c r="M16" s="1">
-        <v>200</v>
       </c>
       <c r="N16" s="6">
         <v>3</v>
@@ -4623,10 +4793,10 @@
         <v>4</v>
       </c>
       <c r="X16" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y16" s="5">
-        <v>5000</v>
+        <v>17500</v>
       </c>
       <c r="Z16" s="1">
         <v>86400</v>
@@ -4652,28 +4822,28 @@
         <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="G17" s="3">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H17" s="3">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I17" s="3">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="J17" s="3">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K17" s="3">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N17" s="6">
         <v>1</v>
@@ -4735,28 +4905,28 @@
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="G18" s="3">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="H18" s="3">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I18" s="3">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="J18" s="3">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="K18" s="3">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="L18" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M18" s="1">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N18" s="6">
         <v>2</v>
@@ -4789,10 +4959,10 @@
         <v>4</v>
       </c>
       <c r="X18" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y18" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z18" s="5">
         <v>43200</v>
@@ -4818,28 +4988,28 @@
         <v>12</v>
       </c>
       <c r="F19" s="3">
-        <v>240</v>
+        <v>576</v>
       </c>
       <c r="G19" s="3">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="H19" s="3">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I19" s="3">
-        <v>576</v>
+        <v>346</v>
       </c>
       <c r="J19" s="3">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="K19" s="3">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="L19" s="3">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="M19" s="1">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N19" s="6">
         <v>3</v>
@@ -4872,10 +5042,10 @@
         <v>4</v>
       </c>
       <c r="X19" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y19" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z19" s="1">
         <v>86400</v>
@@ -4901,28 +5071,28 @@
         <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="G20" s="3">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="H20" s="3">
-        <v>120</v>
+        <v>307</v>
       </c>
       <c r="I20" s="3">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="J20" s="3">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="K20" s="3">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M20" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N20" s="6">
         <v>2</v>
@@ -4984,28 +5154,28 @@
         <v>16</v>
       </c>
       <c r="F21" s="3">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="G21" s="3">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="H21" s="3">
-        <v>240</v>
-      </c>
-      <c r="I21" s="3">
-        <v>480</v>
+        <v>614</v>
+      </c>
+      <c r="I21" s="1">
+        <v>410</v>
       </c>
       <c r="J21" s="3">
-        <v>720</v>
+        <v>410</v>
       </c>
       <c r="K21" s="3">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="L21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M21" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N21" s="6">
         <v>4</v>
@@ -5038,10 +5208,10 @@
         <v>8</v>
       </c>
       <c r="X21" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y21" s="5">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="Z21" s="5">
         <v>43200</v>
@@ -5067,28 +5237,28 @@
         <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>576</v>
-      </c>
-      <c r="G22" s="3">
-        <v>864</v>
+        <v>461</v>
+      </c>
+      <c r="G22" s="4">
+        <v>768</v>
       </c>
       <c r="H22" s="3">
-        <v>360</v>
+        <v>922</v>
       </c>
       <c r="I22" s="1">
-        <v>720</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1080</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1920</v>
+        <v>614</v>
+      </c>
+      <c r="J22" s="1">
+        <v>614</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1800</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M22" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N22" s="6">
         <v>6</v>
@@ -5121,10 +5291,10 @@
         <v>8</v>
       </c>
       <c r="X22" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y22" s="5">
-        <v>5000</v>
+        <v>17500</v>
       </c>
       <c r="Z22" s="1">
         <v>86400</v>
@@ -5149,29 +5319,29 @@
       <c r="E23" s="4">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
-        <v>160</v>
+      <c r="F23" s="4">
+        <v>192</v>
       </c>
       <c r="G23" s="4">
-        <v>480</v>
-      </c>
-      <c r="H23" s="3">
+        <v>320</v>
+      </c>
+      <c r="H23" s="1">
+        <v>384</v>
+      </c>
+      <c r="I23" s="1">
         <v>256</v>
       </c>
-      <c r="I23" s="1">
-        <v>320</v>
-      </c>
       <c r="J23" s="1">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="K23" s="1">
         <v>480</v>
       </c>
       <c r="L23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M23" s="1">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="N23" s="6">
         <v>2</v>
@@ -5233,28 +5403,28 @@
         <v>16</v>
       </c>
       <c r="F24" s="4">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="G24" s="4">
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="H24" s="1">
+        <v>768</v>
+      </c>
+      <c r="I24" s="1">
         <v>512</v>
       </c>
-      <c r="I24" s="1">
-        <v>640</v>
-      </c>
       <c r="J24" s="1">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="K24" s="1">
         <v>960</v>
       </c>
       <c r="L24" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M24" s="1">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="N24" s="6">
         <v>4</v>
@@ -5287,10 +5457,10 @@
         <v>8</v>
       </c>
       <c r="X24" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y24" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z24" s="5">
         <v>43200</v>
@@ -5315,29 +5485,29 @@
       <c r="E25" s="4">
         <v>24</v>
       </c>
-      <c r="F25" s="4">
-        <v>480</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1440</v>
+      <c r="F25" s="1">
+        <v>576</v>
+      </c>
+      <c r="G25" s="1">
+        <v>960</v>
       </c>
       <c r="H25" s="1">
+        <v>1152</v>
+      </c>
+      <c r="I25" s="1">
         <v>768</v>
       </c>
-      <c r="I25" s="1">
-        <v>960</v>
-      </c>
       <c r="J25" s="1">
-        <v>1152</v>
+        <v>768</v>
       </c>
       <c r="K25" s="1">
         <v>1440</v>
       </c>
       <c r="L25" s="1">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="M25" s="1">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="N25" s="1">
         <v>6</v>
@@ -5370,10 +5540,10 @@
         <v>8</v>
       </c>
       <c r="X25" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y25" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z25" s="1">
         <v>86400</v>
@@ -5460,8 +5630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5557,28 +5727,28 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1">
         <v>150</v>
       </c>
-      <c r="G2" s="1">
-        <v>75</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>180</v>
       </c>
-      <c r="I2" s="1">
-        <v>225</v>
-      </c>
       <c r="J2" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K2" s="1">
         <v>400</v>
       </c>
       <c r="L2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -5619,28 +5789,28 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
+        <v>288</v>
+      </c>
+      <c r="G3" s="1">
+        <v>192</v>
+      </c>
+      <c r="H3" s="1">
+        <v>144</v>
+      </c>
+      <c r="I3" s="1">
         <v>240</v>
       </c>
-      <c r="G3" s="1">
-        <v>200</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>160</v>
-      </c>
       <c r="J3" s="1">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K3" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -5681,28 +5851,28 @@
         <v>9</v>
       </c>
       <c r="F4" s="1">
+        <v>360</v>
+      </c>
+      <c r="G4" s="1">
+        <v>432</v>
+      </c>
+      <c r="H4" s="1">
+        <v>288</v>
+      </c>
+      <c r="I4" s="1">
         <v>216</v>
       </c>
-      <c r="G4" s="1">
-        <v>324</v>
-      </c>
-      <c r="H4" s="1">
-        <v>270</v>
-      </c>
-      <c r="I4" s="1">
-        <v>405</v>
-      </c>
       <c r="J4" s="1">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="K4" s="1">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="L4" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M4" s="1">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -5743,28 +5913,28 @@
         <v>18</v>
       </c>
       <c r="F5" s="1">
+        <v>346</v>
+      </c>
+      <c r="G5" s="1">
         <v>576</v>
       </c>
-      <c r="G5" s="1">
-        <v>864</v>
-      </c>
       <c r="H5" s="1">
-        <v>360</v>
+        <v>691</v>
       </c>
       <c r="I5" s="1">
-        <v>720</v>
+        <v>461</v>
       </c>
       <c r="J5" s="1">
-        <v>1080</v>
+        <v>461</v>
       </c>
       <c r="K5" s="1">
-        <v>1080</v>
+        <v>1350</v>
       </c>
       <c r="L5" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="M5" s="1">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -5805,28 +5975,28 @@
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="G6" s="1">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H6" s="1">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="I6" s="1">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J6" s="1">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K6" s="1">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="L6" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M6" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -5867,28 +6037,28 @@
         <v>7</v>
       </c>
       <c r="F7" s="1">
+        <v>525</v>
+      </c>
+      <c r="G7" s="1">
+        <v>350</v>
+      </c>
+      <c r="H7" s="1">
+        <v>280</v>
+      </c>
+      <c r="I7" s="1">
+        <v>175</v>
+      </c>
+      <c r="J7" s="1">
         <v>420</v>
       </c>
-      <c r="G7" s="1">
-        <v>280</v>
-      </c>
-      <c r="H7" s="1">
-        <v>224</v>
-      </c>
-      <c r="I7" s="1">
-        <v>140</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>336</v>
       </c>
-      <c r="K7" s="1">
-        <v>420</v>
-      </c>
       <c r="L7" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
@@ -5947,10 +6117,10 @@
         <v>1040</v>
       </c>
       <c r="L8" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M8" s="1">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
@@ -6009,10 +6179,10 @@
         <v>1500</v>
       </c>
       <c r="L9" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="M9" s="1">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>

--- a/Dragonfall/gameData/shared/Soldiers.xlsx
+++ b/Dragonfall/gameData/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37460" windowHeight="21140" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="140">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -49,47 +49,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>INT_hp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_load</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_march</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_wood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_stone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_iron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_food</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_star</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_hp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_load</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_march</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_wood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_stone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_iron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_food</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_star</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -155,311 +143,454 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>STR_key</t>
+    <t>INT_upgradeCoinNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeTimeSecondsNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeTechPointNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_killScore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_techBuildingName</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingGround</t>
+  </si>
+  <si>
+    <t>hunterHall</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>skeletonWarrior</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonHunter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_specialMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_load</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>priest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>paladin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamTank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soulStone_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>holyBook_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBox_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightAlloy_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_1_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_3_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_3_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_3_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_name</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>sentinel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_upgradeCoinNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_upgradeTimeSecondsNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_upgradeTechPointNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_killScore</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_techBuildingName</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>trainingGround</t>
-  </si>
-  <si>
-    <t>hunterHall</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>workshop</t>
-  </si>
-  <si>
-    <t>ranger_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeletonWarrior</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>demonHunter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_specialMaterials</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_load</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_citizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeletonArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>priest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>paladin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>steamTank</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatCoin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatCoin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_index</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicBox_16</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soulStone_6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>holyBook_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightAlloy_6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing_16</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroBones_2</t>
+    <t>INT_needBarracksLevel</t>
+  </si>
+  <si>
+    <t>sentinel_l_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_l_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_3_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_3_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_3_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_1_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_3_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_3_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_3_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_3_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_3_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_3_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_1_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_2_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_1_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_1_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_2_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +748,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1184">
+  <cellStyleXfs count="1326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1806,8 +1937,150 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1818,17 +2091,26 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1184">
+  <cellStyles count="1326">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2423,6 +2705,77 @@
     <cellStyle name="超链接" xfId="1178" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1180" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1324" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3010,6 +3363,77 @@
     <cellStyle name="访问过的超链接" xfId="1179" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1181" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1325" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3459,72 +3883,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="13" width="20.6640625" style="1"/>
-    <col min="14" max="14" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="20.6640625" style="1"/>
-    <col min="22" max="22" width="14.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
-    <col min="24" max="25" width="20.6640625" style="1"/>
-    <col min="26" max="26" width="30.33203125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="8" width="20.6640625" style="5"/>
+    <col min="9" max="12" width="20.6640625" style="1"/>
+    <col min="13" max="13" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="20.6640625" style="1"/>
+    <col min="21" max="21" width="14.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="20.6640625" style="1"/>
+    <col min="25" max="25" width="30.33203125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
@@ -3536,2083 +3961,5819 @@
         <v>8</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+    <row r="2" spans="1:26" ht="20" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
-        <v>48</v>
-      </c>
-      <c r="G2" s="3">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3">
-        <v>60</v>
+      <c r="E2" s="7">
+        <v>120</v>
+      </c>
+      <c r="F2" s="7">
+        <v>120</v>
+      </c>
+      <c r="G2" s="7">
+        <v>120</v>
+      </c>
+      <c r="H2" s="7">
+        <v>72</v>
       </c>
       <c r="I2" s="3">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J2" s="3">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="K2" s="3">
-        <v>160</v>
-      </c>
-      <c r="L2" s="3">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="L2" s="1">
+        <v>170</v>
       </c>
       <c r="M2" s="1">
-        <v>125</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="R2" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="S2" s="3">
-        <v>120</v>
-      </c>
-      <c r="T2" s="3">
-        <v>200</v>
+        <v>160</v>
+      </c>
+      <c r="T2" s="1">
+        <v>10</v>
       </c>
       <c r="U2" s="1">
         <v>10</v>
       </c>
       <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="20" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>120</v>
+      </c>
+      <c r="F3" s="7">
+        <v>120</v>
+      </c>
+      <c r="G3" s="7">
+        <v>120</v>
+      </c>
+      <c r="H3" s="7">
+        <v>108</v>
+      </c>
+      <c r="I3" s="3">
+        <v>63</v>
+      </c>
+      <c r="J3" s="3">
+        <v>240</v>
+      </c>
+      <c r="K3" s="3">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1">
+        <v>187</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>120</v>
+      </c>
+      <c r="R3" s="3">
+        <v>120</v>
+      </c>
+      <c r="S3" s="3">
+        <v>160</v>
+      </c>
+      <c r="T3" s="1">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1">
+        <v>15</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="20" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>120</v>
+      </c>
+      <c r="F4" s="7">
+        <v>120</v>
+      </c>
+      <c r="G4" s="7">
+        <v>120</v>
+      </c>
+      <c r="H4" s="7">
+        <v>144</v>
+      </c>
+      <c r="I4" s="3">
+        <v>84</v>
+      </c>
+      <c r="J4" s="3">
+        <v>320</v>
+      </c>
+      <c r="K4" s="3">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1">
+        <v>204</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>120</v>
+      </c>
+      <c r="R4" s="3">
+        <v>120</v>
+      </c>
+      <c r="S4" s="3">
+        <v>160</v>
+      </c>
+      <c r="T4" s="1">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1">
         <v>20</v>
       </c>
-      <c r="W2" s="1">
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3400</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="20" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="X2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="E5" s="7">
+        <v>120</v>
+      </c>
+      <c r="F5" s="7">
+        <v>120</v>
+      </c>
+      <c r="G5" s="7">
+        <v>120</v>
+      </c>
+      <c r="H5" s="7">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="J5" s="3">
+        <v>160</v>
+      </c>
+      <c r="K5" s="3">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1">
+        <v>170</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>96</v>
-      </c>
-      <c r="G3" s="3">
-        <v>72</v>
-      </c>
-      <c r="H3" s="3">
-        <v>120</v>
-      </c>
-      <c r="I3" s="3">
-        <v>144</v>
-      </c>
-      <c r="J3" s="3">
-        <v>84</v>
-      </c>
-      <c r="K3" s="3">
-        <v>320</v>
-      </c>
-      <c r="L3" s="3">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1">
-        <v>125</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>240</v>
-      </c>
-      <c r="S3" s="3">
-        <v>360</v>
-      </c>
-      <c r="T3" s="3">
-        <v>600</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>120</v>
+      </c>
+      <c r="R5" s="3">
+        <v>120</v>
+      </c>
+      <c r="S5" s="3">
+        <v>160</v>
+      </c>
+      <c r="T5" s="1">
         <v>10</v>
-      </c>
-      <c r="V3" s="1">
-        <v>60</v>
-      </c>
-      <c r="W3" s="1">
-        <v>2</v>
-      </c>
-      <c r="X3" s="5">
-        <v>500000</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>7500</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>43200</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3">
-        <v>144</v>
-      </c>
-      <c r="G4" s="3">
-        <v>108</v>
-      </c>
-      <c r="H4" s="3">
-        <v>180</v>
-      </c>
-      <c r="I4" s="3">
-        <v>216</v>
-      </c>
-      <c r="J4" s="3">
-        <v>126</v>
-      </c>
-      <c r="K4" s="3">
-        <v>480</v>
-      </c>
-      <c r="L4" s="3">
-        <v>50</v>
-      </c>
-      <c r="M4" s="1">
-        <v>125</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="O4" s="1">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>480</v>
-      </c>
-      <c r="S4" s="3">
-        <v>720</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U4" s="1">
-        <v>10</v>
-      </c>
-      <c r="V4" s="1">
-        <v>120</v>
-      </c>
-      <c r="W4" s="1">
-        <v>2</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>17500</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>64</v>
-      </c>
-      <c r="G5" s="3">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3">
-        <v>80</v>
-      </c>
-      <c r="I5" s="3">
-        <v>96</v>
-      </c>
-      <c r="J5" s="3">
-        <v>56</v>
-      </c>
-      <c r="K5" s="3">
-        <v>120</v>
-      </c>
-      <c r="L5" s="3">
-        <v>15</v>
-      </c>
-      <c r="M5" s="1">
-        <v>105</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="1">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>40</v>
-      </c>
-      <c r="S5" s="3">
-        <v>160</v>
-      </c>
-      <c r="T5" s="3">
-        <v>200</v>
       </c>
       <c r="U5" s="1">
         <v>10</v>
       </c>
       <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="20" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>120</v>
+      </c>
+      <c r="F6" s="7">
+        <v>120</v>
+      </c>
+      <c r="G6" s="7">
+        <v>120</v>
+      </c>
+      <c r="H6" s="7">
+        <v>108</v>
+      </c>
+      <c r="I6" s="3">
+        <v>63</v>
+      </c>
+      <c r="J6" s="3">
+        <v>240</v>
+      </c>
+      <c r="K6" s="3">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1">
+        <v>187</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>120</v>
+      </c>
+      <c r="R6" s="3">
+        <v>120</v>
+      </c>
+      <c r="S6" s="3">
+        <v>160</v>
+      </c>
+      <c r="T6" s="1">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1">
+        <v>15</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="20" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>120</v>
+      </c>
+      <c r="F7" s="7">
+        <v>120</v>
+      </c>
+      <c r="G7" s="7">
+        <v>120</v>
+      </c>
+      <c r="H7" s="7">
+        <v>144</v>
+      </c>
+      <c r="I7" s="3">
+        <v>84</v>
+      </c>
+      <c r="J7" s="3">
+        <v>320</v>
+      </c>
+      <c r="K7" s="3">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1">
+        <v>204</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>120</v>
+      </c>
+      <c r="R7" s="3">
+        <v>120</v>
+      </c>
+      <c r="S7" s="3">
+        <v>160</v>
+      </c>
+      <c r="T7" s="1">
+        <v>10</v>
+      </c>
+      <c r="U7" s="1">
         <v>20</v>
       </c>
-      <c r="W5" s="1">
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X7" s="1">
+        <v>3400</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="20" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+      <c r="E8" s="7">
+        <v>120</v>
+      </c>
+      <c r="F8" s="7">
+        <v>120</v>
+      </c>
+      <c r="G8" s="7">
+        <v>120</v>
+      </c>
+      <c r="H8" s="7">
+        <v>72</v>
+      </c>
+      <c r="I8" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="J8" s="3">
+        <v>160</v>
+      </c>
+      <c r="K8" s="3">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1">
+        <v>170</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>128</v>
-      </c>
-      <c r="G6" s="3">
-        <v>96</v>
-      </c>
-      <c r="H6" s="3">
-        <v>160</v>
-      </c>
-      <c r="I6" s="3">
-        <v>192</v>
-      </c>
-      <c r="J6" s="3">
-        <v>112</v>
-      </c>
-      <c r="K6" s="3">
-        <v>240</v>
-      </c>
-      <c r="L6" s="3">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1">
-        <v>105</v>
-      </c>
-      <c r="N6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>4</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>120</v>
-      </c>
-      <c r="S6" s="3">
-        <v>480</v>
-      </c>
-      <c r="T6" s="3">
-        <v>600</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>120</v>
+      </c>
+      <c r="R8" s="3">
+        <v>120</v>
+      </c>
+      <c r="S8" s="3">
+        <v>160</v>
+      </c>
+      <c r="T8" s="1">
         <v>10</v>
-      </c>
-      <c r="V6" s="1">
-        <v>60</v>
-      </c>
-      <c r="W6" s="1">
-        <v>2</v>
-      </c>
-      <c r="X6" s="5">
-        <v>500000</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>10000</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>43200</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3">
-        <v>192</v>
-      </c>
-      <c r="G7" s="3">
-        <v>144</v>
-      </c>
-      <c r="H7" s="3">
-        <v>240</v>
-      </c>
-      <c r="I7" s="3">
-        <v>288</v>
-      </c>
-      <c r="J7" s="3">
-        <v>168</v>
-      </c>
-      <c r="K7" s="3">
-        <v>360</v>
-      </c>
-      <c r="L7" s="3">
-        <v>60</v>
-      </c>
-      <c r="M7" s="1">
-        <v>105</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="O7" s="1">
-        <v>6</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>240</v>
-      </c>
-      <c r="S7" s="3">
-        <v>960</v>
-      </c>
-      <c r="T7" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U7" s="1">
-        <v>10</v>
-      </c>
-      <c r="V7" s="1">
-        <v>120</v>
-      </c>
-      <c r="W7" s="1">
-        <v>2</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>20000</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="20" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>96</v>
-      </c>
-      <c r="G8" s="3">
-        <v>64</v>
-      </c>
-      <c r="H8" s="3">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3">
-        <v>80</v>
-      </c>
-      <c r="J8" s="3">
-        <v>40</v>
-      </c>
-      <c r="K8" s="3">
-        <v>120</v>
-      </c>
-      <c r="L8" s="3">
-        <v>10</v>
-      </c>
-      <c r="M8" s="1">
-        <v>120</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>120</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>80</v>
-      </c>
-      <c r="T8" s="3">
-        <v>200</v>
       </c>
       <c r="U8" s="1">
         <v>10</v>
       </c>
       <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="20" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>120</v>
+      </c>
+      <c r="F9" s="7">
+        <v>120</v>
+      </c>
+      <c r="G9" s="7">
+        <v>120</v>
+      </c>
+      <c r="H9" s="7">
+        <v>108</v>
+      </c>
+      <c r="I9" s="3">
+        <v>63</v>
+      </c>
+      <c r="J9" s="3">
+        <v>240</v>
+      </c>
+      <c r="K9" s="3">
+        <v>32</v>
+      </c>
+      <c r="L9" s="1">
+        <v>187</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>120</v>
+      </c>
+      <c r="R9" s="3">
+        <v>120</v>
+      </c>
+      <c r="S9" s="3">
+        <v>160</v>
+      </c>
+      <c r="T9" s="1">
+        <v>10</v>
+      </c>
+      <c r="U9" s="1">
+        <v>15</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="20" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7">
+        <v>120</v>
+      </c>
+      <c r="F10" s="7">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7">
+        <v>120</v>
+      </c>
+      <c r="H10" s="7">
+        <v>144</v>
+      </c>
+      <c r="I10" s="3">
+        <v>84</v>
+      </c>
+      <c r="J10" s="3">
+        <v>320</v>
+      </c>
+      <c r="K10" s="3">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1">
+        <v>204</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>120</v>
+      </c>
+      <c r="R10" s="3">
+        <v>120</v>
+      </c>
+      <c r="S10" s="3">
+        <v>160</v>
+      </c>
+      <c r="T10" s="1">
+        <v>10</v>
+      </c>
+      <c r="U10" s="1">
         <v>20</v>
       </c>
-      <c r="W8" s="1">
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3400</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="20" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="X8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="E11" s="7">
+        <v>120</v>
+      </c>
+      <c r="F11" s="7">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7">
+        <v>200</v>
+      </c>
+      <c r="H11" s="7">
+        <v>96</v>
+      </c>
+      <c r="I11" s="3">
+        <v>56</v>
+      </c>
+      <c r="J11" s="3">
+        <v>120</v>
+      </c>
+      <c r="K11" s="3">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1">
+        <v>140</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N11" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>192</v>
-      </c>
-      <c r="G9" s="3">
-        <v>128</v>
-      </c>
-      <c r="H9" s="3">
-        <v>96</v>
-      </c>
-      <c r="I9" s="3">
-        <v>160</v>
-      </c>
-      <c r="J9" s="3">
-        <v>80</v>
-      </c>
-      <c r="K9" s="3">
-        <v>240</v>
-      </c>
-      <c r="L9" s="3">
-        <v>20</v>
-      </c>
-      <c r="M9" s="1">
-        <v>120</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>4</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>360</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>240</v>
-      </c>
-      <c r="T9" s="3">
-        <v>600</v>
-      </c>
-      <c r="U9" s="1">
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>40</v>
+      </c>
+      <c r="R11" s="3">
+        <v>200</v>
+      </c>
+      <c r="S11" s="3">
+        <v>160</v>
+      </c>
+      <c r="T11" s="1">
         <v>10</v>
-      </c>
-      <c r="V9" s="1">
-        <v>60</v>
-      </c>
-      <c r="W9" s="1">
-        <v>2</v>
-      </c>
-      <c r="X9" s="5">
-        <v>500000</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>7500</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>43200</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="20" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3">
-        <v>288</v>
-      </c>
-      <c r="G10" s="3">
-        <v>192</v>
-      </c>
-      <c r="H10" s="3">
-        <v>144</v>
-      </c>
-      <c r="I10" s="3">
-        <v>240</v>
-      </c>
-      <c r="J10" s="3">
-        <v>120</v>
-      </c>
-      <c r="K10" s="3">
-        <v>360</v>
-      </c>
-      <c r="L10" s="3">
-        <v>40</v>
-      </c>
-      <c r="M10" s="1">
-        <v>120</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="O10" s="1">
-        <v>6</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>720</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>480</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U10" s="1">
-        <v>10</v>
-      </c>
-      <c r="V10" s="1">
-        <v>120</v>
-      </c>
-      <c r="W10" s="1">
-        <v>2</v>
-      </c>
-      <c r="X10" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>17500</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="20" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>120</v>
-      </c>
-      <c r="G11" s="3">
-        <v>80</v>
-      </c>
-      <c r="H11" s="3">
-        <v>60</v>
-      </c>
-      <c r="I11" s="3">
-        <v>100</v>
-      </c>
-      <c r="J11" s="3">
-        <v>50</v>
-      </c>
-      <c r="K11" s="3">
-        <v>96</v>
-      </c>
-      <c r="L11" s="3">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1">
-        <v>112</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>80</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>120</v>
-      </c>
-      <c r="T11" s="3">
-        <v>200</v>
       </c>
       <c r="U11" s="1">
         <v>10</v>
       </c>
       <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="20" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>120</v>
+      </c>
+      <c r="F12" s="7">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7">
+        <v>200</v>
+      </c>
+      <c r="H12" s="7">
+        <v>144</v>
+      </c>
+      <c r="I12" s="3">
+        <v>84</v>
+      </c>
+      <c r="J12" s="3">
+        <v>180</v>
+      </c>
+      <c r="K12" s="3">
+        <v>39</v>
+      </c>
+      <c r="L12" s="1">
+        <v>154</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>40</v>
+      </c>
+      <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
+        <v>160</v>
+      </c>
+      <c r="T12" s="1">
+        <v>10</v>
+      </c>
+      <c r="U12" s="1">
+        <v>15</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1600</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="20" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>120</v>
+      </c>
+      <c r="F13" s="7">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7">
+        <v>200</v>
+      </c>
+      <c r="H13" s="7">
+        <v>192</v>
+      </c>
+      <c r="I13" s="3">
+        <v>112</v>
+      </c>
+      <c r="J13" s="3">
+        <v>240</v>
+      </c>
+      <c r="K13" s="3">
+        <v>48</v>
+      </c>
+      <c r="L13" s="1">
+        <v>168</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>40</v>
+      </c>
+      <c r="R13" s="3">
+        <v>200</v>
+      </c>
+      <c r="S13" s="3">
+        <v>160</v>
+      </c>
+      <c r="T13" s="1">
+        <v>10</v>
+      </c>
+      <c r="U13" s="1">
         <v>20</v>
       </c>
-      <c r="W11" s="1">
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="20" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="X11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>43</v>
+      <c r="E14" s="7">
+        <v>120</v>
+      </c>
+      <c r="F14" s="7">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7">
+        <v>200</v>
+      </c>
+      <c r="H14" s="7">
+        <v>96</v>
+      </c>
+      <c r="I14" s="3">
+        <v>56</v>
+      </c>
+      <c r="J14" s="3">
+        <v>120</v>
+      </c>
+      <c r="K14" s="3">
+        <v>30</v>
+      </c>
+      <c r="L14" s="1">
+        <v>140</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>40</v>
+      </c>
+      <c r="R14" s="3">
+        <v>200</v>
+      </c>
+      <c r="S14" s="3">
+        <v>160</v>
+      </c>
+      <c r="T14" s="1">
+        <v>10</v>
+      </c>
+      <c r="U14" s="1">
+        <v>10</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="20" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
+    <row r="15" spans="1:26" ht="20" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>120</v>
+      </c>
+      <c r="F15" s="7">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7">
+        <v>200</v>
+      </c>
+      <c r="H15" s="7">
+        <v>144</v>
+      </c>
+      <c r="I15" s="3">
+        <v>84</v>
+      </c>
+      <c r="J15" s="3">
+        <v>180</v>
+      </c>
+      <c r="K15" s="3">
+        <v>39</v>
+      </c>
+      <c r="L15" s="1">
+        <v>154</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>40</v>
+      </c>
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
+        <v>160</v>
+      </c>
+      <c r="T15" s="1">
+        <v>10</v>
+      </c>
+      <c r="U15" s="1">
+        <v>15</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1600</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="20" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="E16" s="7">
+        <v>120</v>
+      </c>
+      <c r="F16" s="7">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7">
+        <v>200</v>
+      </c>
+      <c r="H16" s="7">
+        <v>192</v>
+      </c>
+      <c r="I16" s="3">
+        <v>112</v>
+      </c>
+      <c r="J16" s="3">
         <v>240</v>
       </c>
-      <c r="G12" s="3">
-        <v>160</v>
-      </c>
-      <c r="H12" s="3">
-        <v>120</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K16" s="3">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>168</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>40</v>
+      </c>
+      <c r="R16" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>192</v>
-      </c>
-      <c r="L12" s="3">
-        <v>22</v>
-      </c>
-      <c r="M12" s="1">
-        <v>112</v>
-      </c>
-      <c r="N12" s="6">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>4</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>240</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>360</v>
-      </c>
-      <c r="T12" s="3">
-        <v>600</v>
-      </c>
-      <c r="U12" s="1">
+      <c r="S16" s="3">
+        <v>160</v>
+      </c>
+      <c r="T16" s="1">
         <v>10</v>
-      </c>
-      <c r="V12" s="1">
-        <v>60</v>
-      </c>
-      <c r="W12" s="1">
-        <v>2</v>
-      </c>
-      <c r="X12" s="5">
-        <v>500000</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>10000</v>
-      </c>
-      <c r="Z12" s="5">
-        <v>43200</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3">
-        <v>360</v>
-      </c>
-      <c r="G13" s="3">
-        <v>240</v>
-      </c>
-      <c r="H13" s="3">
-        <v>180</v>
-      </c>
-      <c r="I13" s="3">
-        <v>300</v>
-      </c>
-      <c r="J13" s="3">
-        <v>150</v>
-      </c>
-      <c r="K13" s="3">
-        <v>288</v>
-      </c>
-      <c r="L13" s="3">
-        <v>45</v>
-      </c>
-      <c r="M13" s="1">
-        <v>112</v>
-      </c>
-      <c r="N13" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="O13" s="1">
-        <v>6</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>480</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>720</v>
-      </c>
-      <c r="T13" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U13" s="1">
-        <v>10</v>
-      </c>
-      <c r="V13" s="1">
-        <v>120</v>
-      </c>
-      <c r="W13" s="1">
-        <v>2</v>
-      </c>
-      <c r="X13" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>20000</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="20" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>160</v>
-      </c>
-      <c r="G14" s="3">
-        <v>192</v>
-      </c>
-      <c r="H14" s="3">
-        <v>128</v>
-      </c>
-      <c r="I14" s="3">
-        <v>96</v>
-      </c>
-      <c r="J14" s="3">
-        <v>96</v>
-      </c>
-      <c r="K14" s="3">
-        <v>240</v>
-      </c>
-      <c r="L14" s="3">
-        <v>25</v>
-      </c>
-      <c r="M14" s="1">
-        <v>150</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>4</v>
-      </c>
-      <c r="P14" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>120</v>
-      </c>
-      <c r="R14" s="3">
-        <v>120</v>
-      </c>
-      <c r="S14" s="3">
-        <v>360</v>
-      </c>
-      <c r="T14" s="3">
-        <v>600</v>
-      </c>
-      <c r="U14" s="1">
-        <v>20</v>
-      </c>
-      <c r="V14" s="1">
-        <v>40</v>
-      </c>
-      <c r="W14" s="1">
-        <v>4</v>
-      </c>
-      <c r="X14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3">
-        <v>320</v>
-      </c>
-      <c r="G15" s="3">
-        <v>384</v>
-      </c>
-      <c r="H15" s="3">
-        <v>256</v>
-      </c>
-      <c r="I15" s="3">
-        <v>192</v>
-      </c>
-      <c r="J15" s="3">
-        <v>192</v>
-      </c>
-      <c r="K15" s="3">
-        <v>480</v>
-      </c>
-      <c r="L15" s="3">
-        <v>50</v>
-      </c>
-      <c r="M15" s="1">
-        <v>150</v>
-      </c>
-      <c r="N15" s="6">
-        <v>2</v>
-      </c>
-      <c r="O15" s="1">
-        <v>8</v>
-      </c>
-      <c r="P15" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>360</v>
-      </c>
-      <c r="R15" s="3">
-        <v>360</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1080</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1800</v>
-      </c>
-      <c r="U15" s="1">
-        <v>20</v>
-      </c>
-      <c r="V15" s="1">
-        <v>120</v>
-      </c>
-      <c r="W15" s="1">
-        <v>4</v>
-      </c>
-      <c r="X15" s="5">
-        <v>500000</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>7500</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>43200</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="20" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3">
-        <v>480</v>
-      </c>
-      <c r="G16" s="3">
-        <v>576</v>
-      </c>
-      <c r="H16" s="3">
-        <v>384</v>
-      </c>
-      <c r="I16" s="3">
-        <v>288</v>
-      </c>
-      <c r="J16" s="3">
-        <v>288</v>
-      </c>
-      <c r="K16" s="3">
-        <v>720</v>
-      </c>
-      <c r="L16" s="3">
-        <v>75</v>
-      </c>
-      <c r="M16" s="1">
-        <v>150</v>
-      </c>
-      <c r="N16" s="6">
-        <v>3</v>
-      </c>
-      <c r="O16" s="1">
-        <v>12</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>720</v>
-      </c>
-      <c r="R16" s="3">
-        <v>720</v>
-      </c>
-      <c r="S16" s="3">
-        <v>2160</v>
-      </c>
-      <c r="T16" s="3">
-        <v>3600</v>
       </c>
       <c r="U16" s="1">
         <v>20</v>
       </c>
       <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X16" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="20" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>120</v>
+      </c>
+      <c r="F17" s="7">
+        <v>40</v>
+      </c>
+      <c r="G17" s="7">
+        <v>200</v>
+      </c>
+      <c r="H17" s="7">
+        <v>96</v>
+      </c>
+      <c r="I17" s="3">
+        <v>56</v>
+      </c>
+      <c r="J17" s="3">
+        <v>120</v>
+      </c>
+      <c r="K17" s="3">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1">
+        <v>140</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>40</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>160</v>
+      </c>
+      <c r="T17" s="1">
+        <v>10</v>
+      </c>
+      <c r="U17" s="1">
+        <v>10</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="20" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7">
+        <v>40</v>
+      </c>
+      <c r="G18" s="7">
+        <v>200</v>
+      </c>
+      <c r="H18" s="7">
+        <v>144</v>
+      </c>
+      <c r="I18" s="3">
+        <v>84</v>
+      </c>
+      <c r="J18" s="3">
+        <v>180</v>
+      </c>
+      <c r="K18" s="3">
+        <v>39</v>
+      </c>
+      <c r="L18" s="1">
+        <v>154</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>40</v>
+      </c>
+      <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>160</v>
+      </c>
+      <c r="T18" s="1">
+        <v>10</v>
+      </c>
+      <c r="U18" s="1">
+        <v>15</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X18" s="4">
+        <v>1600</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="20" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7">
+        <v>200</v>
+      </c>
+      <c r="H19" s="7">
+        <v>192</v>
+      </c>
+      <c r="I19" s="3">
+        <v>112</v>
+      </c>
+      <c r="J19" s="3">
         <v>240</v>
       </c>
-      <c r="W16" s="1">
+      <c r="K19" s="3">
+        <v>48</v>
+      </c>
+      <c r="L19" s="1">
+        <v>168</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N19" s="1">
         <v>4</v>
       </c>
-      <c r="X16" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>17500</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>192</v>
-      </c>
-      <c r="G17" s="3">
-        <v>230</v>
-      </c>
-      <c r="H17" s="3">
-        <v>154</v>
-      </c>
-      <c r="I17" s="3">
-        <v>115</v>
-      </c>
-      <c r="J17" s="3">
-        <v>115</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>40</v>
+      </c>
+      <c r="R19" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>22</v>
-      </c>
-      <c r="M17" s="1">
-        <v>180</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1">
-        <v>4</v>
-      </c>
-      <c r="P17" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>240</v>
-      </c>
-      <c r="R17" s="3">
-        <v>120</v>
-      </c>
-      <c r="S17" s="3">
-        <v>240</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
-      </c>
-      <c r="U17" s="1">
-        <v>20</v>
-      </c>
-      <c r="V17" s="1">
-        <v>40</v>
-      </c>
-      <c r="W17" s="1">
-        <v>4</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="20" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>384</v>
-      </c>
-      <c r="G18" s="3">
-        <v>461</v>
-      </c>
-      <c r="H18" s="3">
-        <v>307</v>
-      </c>
-      <c r="I18" s="3">
-        <v>230</v>
-      </c>
-      <c r="J18" s="3">
-        <v>230</v>
-      </c>
-      <c r="K18" s="3">
-        <v>400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>45</v>
-      </c>
-      <c r="M18" s="1">
-        <v>180</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1">
-        <v>8</v>
-      </c>
-      <c r="P18" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>720</v>
-      </c>
-      <c r="R18" s="3">
-        <v>360</v>
-      </c>
-      <c r="S18" s="3">
-        <v>720</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1800</v>
-      </c>
-      <c r="U18" s="1">
-        <v>20</v>
-      </c>
-      <c r="V18" s="1">
-        <v>120</v>
-      </c>
-      <c r="W18" s="1">
-        <v>4</v>
-      </c>
-      <c r="X18" s="5">
-        <v>500000</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>10000</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>43200</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3">
-        <v>576</v>
-      </c>
-      <c r="G19" s="3">
-        <v>691</v>
-      </c>
-      <c r="H19" s="3">
-        <v>461</v>
-      </c>
-      <c r="I19" s="3">
-        <v>346</v>
-      </c>
-      <c r="J19" s="3">
-        <v>346</v>
-      </c>
-      <c r="K19" s="3">
-        <v>600</v>
-      </c>
-      <c r="L19" s="3">
-        <v>67</v>
-      </c>
-      <c r="M19" s="1">
-        <v>180</v>
-      </c>
-      <c r="N19" s="6">
-        <v>3</v>
-      </c>
-      <c r="O19" s="1">
-        <v>12</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1440</v>
-      </c>
-      <c r="R19" s="3">
-        <v>720</v>
-      </c>
       <c r="S19" s="3">
-        <v>1440</v>
-      </c>
-      <c r="T19" s="3">
-        <v>3600</v>
+        <v>160</v>
+      </c>
+      <c r="T19" s="1">
+        <v>10</v>
       </c>
       <c r="U19" s="1">
         <v>20</v>
       </c>
       <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X19" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="20" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7">
+        <v>120</v>
+      </c>
+      <c r="G20" s="7">
+        <v>120</v>
+      </c>
+      <c r="H20" s="7">
+        <v>80</v>
+      </c>
+      <c r="I20" s="3">
+        <v>40</v>
+      </c>
+      <c r="J20" s="3">
+        <v>120</v>
+      </c>
+      <c r="K20" s="3">
+        <v>20</v>
+      </c>
+      <c r="L20" s="1">
+        <v>160</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>80</v>
+      </c>
+      <c r="S20" s="3">
+        <v>160</v>
+      </c>
+      <c r="T20" s="1">
+        <v>10</v>
+      </c>
+      <c r="U20" s="1">
+        <v>10</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="20" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>120</v>
+      </c>
+      <c r="F21" s="9">
+        <v>120</v>
+      </c>
+      <c r="G21" s="7">
+        <v>120</v>
+      </c>
+      <c r="H21" s="7">
+        <v>120</v>
+      </c>
+      <c r="I21" s="3">
+        <v>60</v>
+      </c>
+      <c r="J21" s="3">
+        <v>180</v>
+      </c>
+      <c r="K21" s="3">
+        <v>26</v>
+      </c>
+      <c r="L21" s="1">
+        <v>176</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>80</v>
+      </c>
+      <c r="S21" s="3">
+        <v>160</v>
+      </c>
+      <c r="T21" s="1">
+        <v>10</v>
+      </c>
+      <c r="U21" s="1">
+        <v>15</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X21" s="4">
+        <v>1300</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="20" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7">
+        <v>120</v>
+      </c>
+      <c r="F22" s="9">
+        <v>120</v>
+      </c>
+      <c r="G22" s="7">
+        <v>120</v>
+      </c>
+      <c r="H22" s="7">
+        <v>160</v>
+      </c>
+      <c r="I22" s="3">
+        <v>80</v>
+      </c>
+      <c r="J22" s="3">
         <v>240</v>
       </c>
-      <c r="W19" s="1">
+      <c r="K22" s="3">
+        <v>32</v>
+      </c>
+      <c r="L22" s="1">
+        <v>192</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N22" s="1">
         <v>4</v>
       </c>
-      <c r="X19" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>20000</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>44</v>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>80</v>
+      </c>
+      <c r="S22" s="3">
+        <v>160</v>
+      </c>
+      <c r="T22" s="1">
+        <v>10</v>
+      </c>
+      <c r="U22" s="1">
+        <v>20</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X22" s="1">
+        <v>3700</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="20" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="23" spans="1:26" ht="20" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>120</v>
+      </c>
+      <c r="F23" s="9">
+        <v>120</v>
+      </c>
+      <c r="G23" s="7">
+        <v>120</v>
+      </c>
+      <c r="H23" s="7">
+        <v>80</v>
+      </c>
+      <c r="I23" s="3">
+        <v>40</v>
+      </c>
+      <c r="J23" s="3">
+        <v>120</v>
+      </c>
+      <c r="K23" s="3">
+        <v>20</v>
+      </c>
+      <c r="L23" s="1">
+        <v>160</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>80</v>
+      </c>
+      <c r="S23" s="3">
+        <v>160</v>
+      </c>
+      <c r="T23" s="1">
+        <v>10</v>
+      </c>
+      <c r="U23" s="1">
+        <v>10</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="20" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>120</v>
+      </c>
+      <c r="F24" s="9">
+        <v>120</v>
+      </c>
+      <c r="G24" s="7">
+        <v>120</v>
+      </c>
+      <c r="H24" s="7">
+        <v>120</v>
+      </c>
+      <c r="I24" s="3">
+        <v>60</v>
+      </c>
+      <c r="J24" s="3">
+        <v>180</v>
+      </c>
+      <c r="K24" s="3">
+        <v>26</v>
+      </c>
+      <c r="L24" s="1">
+        <v>176</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N24" s="1">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>80</v>
+      </c>
+      <c r="S24" s="3">
+        <v>160</v>
+      </c>
+      <c r="T24" s="1">
+        <v>10</v>
+      </c>
+      <c r="U24" s="1">
+        <v>15</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X24" s="4">
+        <v>1300</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="20" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7">
+        <v>120</v>
+      </c>
+      <c r="F25" s="9">
+        <v>120</v>
+      </c>
+      <c r="G25" s="7">
+        <v>120</v>
+      </c>
+      <c r="H25" s="7">
+        <v>160</v>
+      </c>
+      <c r="I25" s="3">
+        <v>80</v>
+      </c>
+      <c r="J25" s="3">
+        <v>240</v>
+      </c>
+      <c r="K25" s="3">
+        <v>32</v>
+      </c>
+      <c r="L25" s="1">
+        <v>192</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>80</v>
+      </c>
+      <c r="S25" s="3">
+        <v>160</v>
+      </c>
+      <c r="T25" s="1">
+        <v>10</v>
+      </c>
+      <c r="U25" s="1">
+        <v>20</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X25" s="1">
+        <v>3700</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="20" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>120</v>
+      </c>
+      <c r="F26" s="9">
+        <v>120</v>
+      </c>
+      <c r="G26" s="7">
+        <v>120</v>
+      </c>
+      <c r="H26" s="7">
+        <v>80</v>
+      </c>
+      <c r="I26" s="3">
+        <v>40</v>
+      </c>
+      <c r="J26" s="3">
+        <v>120</v>
+      </c>
+      <c r="K26" s="3">
+        <v>20</v>
+      </c>
+      <c r="L26" s="1">
+        <v>160</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>80</v>
+      </c>
+      <c r="S26" s="3">
+        <v>160</v>
+      </c>
+      <c r="T26" s="1">
+        <v>10</v>
+      </c>
+      <c r="U26" s="1">
+        <v>10</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="20" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>120</v>
+      </c>
+      <c r="F27" s="9">
+        <v>120</v>
+      </c>
+      <c r="G27" s="7">
+        <v>120</v>
+      </c>
+      <c r="H27" s="7">
+        <v>120</v>
+      </c>
+      <c r="I27" s="3">
+        <v>60</v>
+      </c>
+      <c r="J27" s="3">
+        <v>180</v>
+      </c>
+      <c r="K27" s="3">
+        <v>26</v>
+      </c>
+      <c r="L27" s="1">
+        <v>176</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>80</v>
+      </c>
+      <c r="S27" s="3">
+        <v>160</v>
+      </c>
+      <c r="T27" s="1">
+        <v>10</v>
+      </c>
+      <c r="U27" s="1">
+        <v>15</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X27" s="4">
+        <v>1300</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="20" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7">
+        <v>120</v>
+      </c>
+      <c r="F28" s="9">
+        <v>120</v>
+      </c>
+      <c r="G28" s="7">
+        <v>120</v>
+      </c>
+      <c r="H28" s="7">
+        <v>160</v>
+      </c>
+      <c r="I28" s="3">
+        <v>80</v>
+      </c>
+      <c r="J28" s="3">
+        <v>240</v>
+      </c>
+      <c r="K28" s="3">
+        <v>32</v>
+      </c>
+      <c r="L28" s="1">
+        <v>192</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>80</v>
+      </c>
+      <c r="S28" s="3">
+        <v>160</v>
+      </c>
+      <c r="T28" s="1">
+        <v>10</v>
+      </c>
+      <c r="U28" s="1">
+        <v>20</v>
+      </c>
+      <c r="V28" s="1">
+        <v>1</v>
+      </c>
+      <c r="W28" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X28" s="1">
+        <v>3700</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="20" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>80</v>
+      </c>
+      <c r="F29" s="7">
+        <v>120</v>
+      </c>
+      <c r="G29" s="7">
+        <v>160</v>
+      </c>
+      <c r="H29" s="7">
+        <v>100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>50</v>
+      </c>
+      <c r="J29" s="3">
+        <v>96</v>
+      </c>
+      <c r="K29" s="3">
+        <v>22</v>
+      </c>
+      <c r="L29" s="1">
+        <v>150</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>160</v>
+      </c>
+      <c r="S29" s="3">
+        <v>160</v>
+      </c>
+      <c r="T29" s="1">
+        <v>10</v>
+      </c>
+      <c r="U29" s="1">
+        <v>10</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="20" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>80</v>
+      </c>
+      <c r="F30" s="9">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7">
+        <v>160</v>
+      </c>
+      <c r="H30" s="7">
+        <v>150</v>
+      </c>
+      <c r="I30" s="3">
         <v>75</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="J30" s="3">
+        <v>144</v>
+      </c>
+      <c r="K30" s="3">
+        <v>28</v>
+      </c>
+      <c r="L30" s="1">
+        <v>165</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>160</v>
+      </c>
+      <c r="S30" s="3">
+        <v>160</v>
+      </c>
+      <c r="T30" s="1">
+        <v>10</v>
+      </c>
+      <c r="U30" s="1">
+        <v>15</v>
+      </c>
+      <c r="V30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X30" s="4">
+        <v>1900</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="20" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7">
+        <v>80</v>
+      </c>
+      <c r="F31" s="9">
+        <v>120</v>
+      </c>
+      <c r="G31" s="7">
+        <v>160</v>
+      </c>
+      <c r="H31" s="7">
+        <v>200</v>
+      </c>
+      <c r="I31" s="3">
+        <v>100</v>
+      </c>
+      <c r="J31" s="3">
+        <v>192</v>
+      </c>
+      <c r="K31" s="3">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="L31" s="1">
+        <v>180</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N31" s="1">
+        <v>4</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>160</v>
+      </c>
+      <c r="S31" s="3">
+        <v>160</v>
+      </c>
+      <c r="T31" s="1">
+        <v>10</v>
+      </c>
+      <c r="U31" s="1">
+        <v>20</v>
+      </c>
+      <c r="V31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X31" s="1">
+        <v>4300</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="20" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>80</v>
+      </c>
+      <c r="F32" s="9">
+        <v>120</v>
+      </c>
+      <c r="G32" s="7">
+        <v>160</v>
+      </c>
+      <c r="H32" s="7">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>50</v>
+      </c>
+      <c r="J32" s="3">
+        <v>96</v>
+      </c>
+      <c r="K32" s="3">
+        <v>22</v>
+      </c>
+      <c r="L32" s="1">
+        <v>150</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>160</v>
+      </c>
+      <c r="S32" s="3">
+        <v>160</v>
+      </c>
+      <c r="T32" s="1">
+        <v>10</v>
+      </c>
+      <c r="U32" s="1">
+        <v>10</v>
+      </c>
+      <c r="V32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="20" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>80</v>
+      </c>
+      <c r="F33" s="9">
+        <v>120</v>
+      </c>
+      <c r="G33" s="7">
+        <v>160</v>
+      </c>
+      <c r="H33" s="7">
+        <v>150</v>
+      </c>
+      <c r="I33" s="3">
+        <v>75</v>
+      </c>
+      <c r="J33" s="3">
+        <v>144</v>
+      </c>
+      <c r="K33" s="3">
+        <v>28</v>
+      </c>
+      <c r="L33" s="1">
+        <v>165</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>160</v>
+      </c>
+      <c r="S33" s="3">
+        <v>160</v>
+      </c>
+      <c r="T33" s="1">
+        <v>10</v>
+      </c>
+      <c r="U33" s="1">
+        <v>15</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X33" s="4">
+        <v>1900</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="20" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="7">
+        <v>80</v>
+      </c>
+      <c r="F34" s="9">
+        <v>120</v>
+      </c>
+      <c r="G34" s="7">
+        <v>160</v>
+      </c>
+      <c r="H34" s="7">
+        <v>200</v>
+      </c>
+      <c r="I34" s="3">
+        <v>100</v>
+      </c>
+      <c r="J34" s="3">
+        <v>192</v>
+      </c>
+      <c r="K34" s="3">
+        <v>35</v>
+      </c>
+      <c r="L34" s="1">
+        <v>180</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N34" s="1">
+        <v>4</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>160</v>
+      </c>
+      <c r="S34" s="3">
+        <v>160</v>
+      </c>
+      <c r="T34" s="1">
+        <v>10</v>
+      </c>
+      <c r="U34" s="1">
+        <v>20</v>
+      </c>
+      <c r="V34" s="1">
+        <v>1</v>
+      </c>
+      <c r="W34" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X34" s="1">
+        <v>4300</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="20" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>80</v>
+      </c>
+      <c r="F35" s="9">
+        <v>120</v>
+      </c>
+      <c r="G35" s="7">
+        <v>160</v>
+      </c>
+      <c r="H35" s="7">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>50</v>
+      </c>
+      <c r="J35" s="3">
+        <v>96</v>
+      </c>
+      <c r="K35" s="3">
+        <v>22</v>
+      </c>
+      <c r="L35" s="1">
+        <v>150</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>160</v>
+      </c>
+      <c r="S35" s="3">
+        <v>160</v>
+      </c>
+      <c r="T35" s="1">
+        <v>10</v>
+      </c>
+      <c r="U35" s="1">
+        <v>10</v>
+      </c>
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="20" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7">
+        <v>80</v>
+      </c>
+      <c r="F36" s="9">
+        <v>120</v>
+      </c>
+      <c r="G36" s="7">
+        <v>160</v>
+      </c>
+      <c r="H36" s="7">
+        <v>150</v>
+      </c>
+      <c r="I36" s="3">
+        <v>75</v>
+      </c>
+      <c r="J36" s="3">
+        <v>144</v>
+      </c>
+      <c r="K36" s="3">
+        <v>28</v>
+      </c>
+      <c r="L36" s="1">
+        <v>165</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>160</v>
+      </c>
+      <c r="S36" s="3">
+        <v>160</v>
+      </c>
+      <c r="T36" s="1">
+        <v>10</v>
+      </c>
+      <c r="U36" s="1">
+        <v>15</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X36" s="4">
+        <v>1900</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="20" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7">
+        <v>80</v>
+      </c>
+      <c r="F37" s="9">
+        <v>120</v>
+      </c>
+      <c r="G37" s="7">
+        <v>160</v>
+      </c>
+      <c r="H37" s="7">
+        <v>200</v>
+      </c>
+      <c r="I37" s="3">
+        <v>100</v>
+      </c>
+      <c r="J37" s="3">
+        <v>192</v>
+      </c>
+      <c r="K37" s="3">
+        <v>35</v>
+      </c>
+      <c r="L37" s="1">
+        <v>180</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N37" s="1">
+        <v>4</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>160</v>
+      </c>
+      <c r="S37" s="3">
+        <v>160</v>
+      </c>
+      <c r="T37" s="1">
+        <v>10</v>
+      </c>
+      <c r="U37" s="1">
+        <v>20</v>
+      </c>
+      <c r="V37" s="1">
+        <v>1</v>
+      </c>
+      <c r="W37" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X37" s="1">
+        <v>4300</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="20" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7">
+        <v>120</v>
+      </c>
+      <c r="F38" s="7">
+        <v>240</v>
+      </c>
+      <c r="G38" s="7">
+        <v>240</v>
+      </c>
+      <c r="H38" s="7">
+        <v>96</v>
+      </c>
+      <c r="I38" s="3">
+        <v>96</v>
+      </c>
+      <c r="J38" s="3">
+        <v>240</v>
+      </c>
+      <c r="K38" s="3">
+        <v>50</v>
+      </c>
+      <c r="L38" s="1">
+        <v>200</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N38" s="1">
+        <v>4</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>240</v>
+      </c>
+      <c r="R38" s="3">
+        <v>240</v>
+      </c>
+      <c r="S38" s="3">
+        <v>320</v>
+      </c>
+      <c r="T38" s="1">
+        <v>20</v>
+      </c>
+      <c r="U38" s="1">
+        <v>20</v>
+      </c>
+      <c r="V38" s="1">
+        <v>2</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="20" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>6</v>
+      </c>
+      <c r="E39" s="9">
+        <v>120</v>
+      </c>
+      <c r="F39" s="7">
+        <v>240</v>
+      </c>
+      <c r="G39" s="7">
+        <v>240</v>
+      </c>
+      <c r="H39" s="7">
+        <v>144</v>
+      </c>
+      <c r="I39" s="3">
+        <v>144</v>
+      </c>
+      <c r="J39" s="3">
+        <v>360</v>
+      </c>
+      <c r="K39" s="3">
+        <v>65</v>
+      </c>
+      <c r="L39" s="1">
+        <v>220</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N39" s="1">
+        <v>6</v>
+      </c>
+      <c r="O39" s="1">
+        <v>2</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>240</v>
+      </c>
+      <c r="R39" s="3">
+        <v>240</v>
+      </c>
+      <c r="S39" s="3">
+        <v>320</v>
+      </c>
+      <c r="T39" s="1">
+        <v>20</v>
+      </c>
+      <c r="U39" s="1">
+        <v>30</v>
+      </c>
+      <c r="V39" s="1">
+        <v>2</v>
+      </c>
+      <c r="W39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X39" s="4">
+        <v>2200</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="20" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
+      <c r="E40" s="9">
+        <v>120</v>
+      </c>
+      <c r="F40" s="7">
+        <v>240</v>
+      </c>
+      <c r="G40" s="7">
+        <v>240</v>
+      </c>
+      <c r="H40" s="7">
+        <v>192</v>
+      </c>
+      <c r="I40" s="3">
+        <v>192</v>
+      </c>
+      <c r="J40" s="3">
+        <v>480</v>
+      </c>
+      <c r="K40" s="3">
+        <v>80</v>
+      </c>
+      <c r="L40" s="1">
+        <v>240</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N40" s="1">
+        <v>8</v>
+      </c>
+      <c r="O40" s="1">
+        <v>2</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>240</v>
+      </c>
+      <c r="R40" s="3">
+        <v>240</v>
+      </c>
+      <c r="S40" s="3">
+        <v>320</v>
+      </c>
+      <c r="T40" s="1">
+        <v>20</v>
+      </c>
+      <c r="U40" s="1">
+        <v>40</v>
+      </c>
+      <c r="V40" s="1">
+        <v>2</v>
+      </c>
+      <c r="W40" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X40" s="1">
+        <v>4600</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="20" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9">
+        <v>120</v>
+      </c>
+      <c r="F41" s="7">
+        <v>240</v>
+      </c>
+      <c r="G41" s="7">
+        <v>240</v>
+      </c>
+      <c r="H41" s="7">
+        <v>96</v>
+      </c>
+      <c r="I41" s="3">
+        <v>96</v>
+      </c>
+      <c r="J41" s="3">
+        <v>240</v>
+      </c>
+      <c r="K41" s="3">
+        <v>50</v>
+      </c>
+      <c r="L41" s="1">
+        <v>200</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N41" s="1">
+        <v>4</v>
+      </c>
+      <c r="O41" s="1">
+        <v>2</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>240</v>
+      </c>
+      <c r="R41" s="3">
+        <v>240</v>
+      </c>
+      <c r="S41" s="3">
+        <v>320</v>
+      </c>
+      <c r="T41" s="1">
+        <v>20</v>
+      </c>
+      <c r="U41" s="1">
+        <v>20</v>
+      </c>
+      <c r="V41" s="1">
+        <v>2</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0</v>
+      </c>
+      <c r="X41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="20" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7">
+        <v>6</v>
+      </c>
+      <c r="E42" s="9">
+        <v>120</v>
+      </c>
+      <c r="F42" s="7">
+        <v>240</v>
+      </c>
+      <c r="G42" s="7">
+        <v>240</v>
+      </c>
+      <c r="H42" s="7">
+        <v>144</v>
+      </c>
+      <c r="I42" s="3">
+        <v>144</v>
+      </c>
+      <c r="J42" s="3">
+        <v>360</v>
+      </c>
+      <c r="K42" s="3">
+        <v>65</v>
+      </c>
+      <c r="L42" s="1">
+        <v>220</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N42" s="1">
+        <v>6</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>240</v>
+      </c>
+      <c r="R42" s="3">
+        <v>240</v>
+      </c>
+      <c r="S42" s="3">
+        <v>320</v>
+      </c>
+      <c r="T42" s="1">
+        <v>20</v>
+      </c>
+      <c r="U42" s="1">
+        <v>30</v>
+      </c>
+      <c r="V42" s="1">
+        <v>2</v>
+      </c>
+      <c r="W42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X42" s="4">
+        <v>2200</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="20" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>8</v>
+      </c>
+      <c r="E43" s="9">
+        <v>120</v>
+      </c>
+      <c r="F43" s="7">
+        <v>240</v>
+      </c>
+      <c r="G43" s="7">
+        <v>240</v>
+      </c>
+      <c r="H43" s="7">
+        <v>192</v>
+      </c>
+      <c r="I43" s="3">
+        <v>192</v>
+      </c>
+      <c r="J43" s="3">
+        <v>480</v>
+      </c>
+      <c r="K43" s="3">
+        <v>80</v>
+      </c>
+      <c r="L43" s="1">
+        <v>240</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N43" s="1">
+        <v>8</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>240</v>
+      </c>
+      <c r="R43" s="3">
+        <v>240</v>
+      </c>
+      <c r="S43" s="3">
+        <v>320</v>
+      </c>
+      <c r="T43" s="1">
+        <v>20</v>
+      </c>
+      <c r="U43" s="1">
+        <v>40</v>
+      </c>
+      <c r="V43" s="1">
+        <v>2</v>
+      </c>
+      <c r="W43" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X43" s="1">
+        <v>4600</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="20" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>4</v>
+      </c>
+      <c r="E44" s="9">
+        <v>120</v>
+      </c>
+      <c r="F44" s="7">
+        <v>240</v>
+      </c>
+      <c r="G44" s="7">
+        <v>240</v>
+      </c>
+      <c r="H44" s="7">
+        <v>96</v>
+      </c>
+      <c r="I44" s="3">
+        <v>96</v>
+      </c>
+      <c r="J44" s="3">
+        <v>240</v>
+      </c>
+      <c r="K44" s="3">
+        <v>50</v>
+      </c>
+      <c r="L44" s="1">
+        <v>200</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N44" s="1">
+        <v>4</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>240</v>
+      </c>
+      <c r="R44" s="3">
+        <v>240</v>
+      </c>
+      <c r="S44" s="3">
+        <v>320</v>
+      </c>
+      <c r="T44" s="1">
+        <v>20</v>
+      </c>
+      <c r="U44" s="1">
+        <v>20</v>
+      </c>
+      <c r="V44" s="1">
+        <v>2</v>
+      </c>
+      <c r="W44" s="4">
+        <v>0</v>
+      </c>
+      <c r="X44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="20" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>6</v>
+      </c>
+      <c r="E45" s="9">
+        <v>120</v>
+      </c>
+      <c r="F45" s="7">
+        <v>240</v>
+      </c>
+      <c r="G45" s="7">
+        <v>240</v>
+      </c>
+      <c r="H45" s="7">
+        <v>144</v>
+      </c>
+      <c r="I45" s="3">
+        <v>144</v>
+      </c>
+      <c r="J45" s="3">
+        <v>360</v>
+      </c>
+      <c r="K45" s="3">
+        <v>65</v>
+      </c>
+      <c r="L45" s="1">
+        <v>220</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N45" s="1">
+        <v>6</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>240</v>
+      </c>
+      <c r="R45" s="3">
+        <v>240</v>
+      </c>
+      <c r="S45" s="3">
+        <v>320</v>
+      </c>
+      <c r="T45" s="1">
+        <v>20</v>
+      </c>
+      <c r="U45" s="1">
+        <v>30</v>
+      </c>
+      <c r="V45" s="1">
+        <v>2</v>
+      </c>
+      <c r="W45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X45" s="4">
+        <v>2200</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="20" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7">
+        <v>8</v>
+      </c>
+      <c r="E46" s="9">
+        <v>120</v>
+      </c>
+      <c r="F46" s="7">
+        <v>240</v>
+      </c>
+      <c r="G46" s="7">
+        <v>240</v>
+      </c>
+      <c r="H46" s="7">
+        <v>192</v>
+      </c>
+      <c r="I46" s="3">
+        <v>192</v>
+      </c>
+      <c r="J46" s="3">
+        <v>480</v>
+      </c>
+      <c r="K46" s="3">
+        <v>80</v>
+      </c>
+      <c r="L46" s="1">
+        <v>240</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N46" s="1">
+        <v>8</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>240</v>
+      </c>
+      <c r="R46" s="3">
+        <v>240</v>
+      </c>
+      <c r="S46" s="3">
+        <v>320</v>
+      </c>
+      <c r="T46" s="1">
+        <v>20</v>
+      </c>
+      <c r="U46" s="1">
+        <v>40</v>
+      </c>
+      <c r="V46" s="1">
+        <v>2</v>
+      </c>
+      <c r="W46" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X46" s="1">
+        <v>4600</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="20" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7">
+        <v>240</v>
+      </c>
+      <c r="F47" s="7">
+        <v>120</v>
+      </c>
+      <c r="G47" s="7">
+        <v>240</v>
+      </c>
+      <c r="H47" s="7">
+        <v>115</v>
+      </c>
+      <c r="I47" s="3">
+        <v>115</v>
+      </c>
+      <c r="J47" s="3">
+        <v>200</v>
+      </c>
+      <c r="K47" s="3">
+        <v>45</v>
+      </c>
+      <c r="L47" s="1">
+        <v>240</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N47" s="1">
+        <v>4</v>
+      </c>
+      <c r="O47" s="1">
+        <v>2</v>
+      </c>
+      <c r="P47" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>240</v>
+      </c>
+      <c r="S47" s="3">
+        <v>320</v>
+      </c>
+      <c r="T47" s="1">
+        <v>20</v>
+      </c>
+      <c r="U47" s="1">
+        <v>20</v>
+      </c>
+      <c r="V47" s="1">
+        <v>2</v>
+      </c>
+      <c r="W47" s="4">
+        <v>0</v>
+      </c>
+      <c r="X47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="20" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7">
+        <v>6</v>
+      </c>
+      <c r="E48" s="7">
+        <v>240</v>
+      </c>
+      <c r="F48" s="9">
+        <v>120</v>
+      </c>
+      <c r="G48" s="7">
+        <v>240</v>
+      </c>
+      <c r="H48" s="7">
+        <v>173</v>
+      </c>
+      <c r="I48" s="3">
+        <v>173</v>
+      </c>
+      <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
+        <v>58</v>
+      </c>
+      <c r="L48" s="1">
+        <v>264</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N48" s="1">
+        <v>6</v>
+      </c>
+      <c r="O48" s="1">
+        <v>2</v>
+      </c>
+      <c r="P48" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>240</v>
+      </c>
+      <c r="S48" s="3">
+        <v>320</v>
+      </c>
+      <c r="T48" s="1">
+        <v>20</v>
+      </c>
+      <c r="U48" s="1">
+        <v>30</v>
+      </c>
+      <c r="V48" s="1">
+        <v>2</v>
+      </c>
+      <c r="W48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X48" s="4">
+        <v>2800</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="20" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7">
+        <v>240</v>
+      </c>
+      <c r="F49" s="9">
+        <v>120</v>
+      </c>
+      <c r="G49" s="7">
+        <v>240</v>
+      </c>
+      <c r="H49" s="5">
+        <v>230</v>
+      </c>
+      <c r="I49" s="3">
+        <v>230</v>
+      </c>
+      <c r="J49" s="3">
+        <v>400</v>
+      </c>
+      <c r="K49" s="3">
+        <v>72</v>
+      </c>
+      <c r="L49" s="1">
+        <v>288</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N49" s="1">
+        <v>8</v>
+      </c>
+      <c r="O49" s="1">
+        <v>2</v>
+      </c>
+      <c r="P49" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>240</v>
+      </c>
+      <c r="S49" s="3">
+        <v>320</v>
+      </c>
+      <c r="T49" s="1">
+        <v>20</v>
+      </c>
+      <c r="U49" s="1">
+        <v>40</v>
+      </c>
+      <c r="V49" s="1">
+        <v>2</v>
+      </c>
+      <c r="W49" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X49" s="1">
+        <v>5200</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="20" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7">
+        <v>4</v>
+      </c>
+      <c r="E50" s="7">
+        <v>240</v>
+      </c>
+      <c r="F50" s="9">
+        <v>120</v>
+      </c>
+      <c r="G50" s="7">
+        <v>240</v>
+      </c>
+      <c r="H50" s="7">
+        <v>115</v>
+      </c>
+      <c r="I50" s="3">
+        <v>115</v>
+      </c>
+      <c r="J50" s="3">
+        <v>200</v>
+      </c>
+      <c r="K50" s="3">
+        <v>45</v>
+      </c>
+      <c r="L50" s="1">
+        <v>240</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N50" s="1">
+        <v>4</v>
+      </c>
+      <c r="O50" s="1">
+        <v>2</v>
+      </c>
+      <c r="P50" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>240</v>
+      </c>
+      <c r="S50" s="3">
+        <v>320</v>
+      </c>
+      <c r="T50" s="1">
+        <v>20</v>
+      </c>
+      <c r="U50" s="1">
+        <v>20</v>
+      </c>
+      <c r="V50" s="1">
+        <v>2</v>
+      </c>
+      <c r="W50" s="4">
+        <v>0</v>
+      </c>
+      <c r="X50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="20" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
+        <v>6</v>
+      </c>
+      <c r="E51" s="7">
+        <v>240</v>
+      </c>
+      <c r="F51" s="9">
+        <v>120</v>
+      </c>
+      <c r="G51" s="7">
+        <v>240</v>
+      </c>
+      <c r="H51" s="7">
+        <v>173</v>
+      </c>
+      <c r="I51" s="3">
+        <v>173</v>
+      </c>
+      <c r="J51" s="3">
+        <v>300</v>
+      </c>
+      <c r="K51" s="3">
+        <v>58</v>
+      </c>
+      <c r="L51" s="1">
+        <v>264</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N51" s="1">
+        <v>6</v>
+      </c>
+      <c r="O51" s="1">
+        <v>2</v>
+      </c>
+      <c r="P51" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>240</v>
+      </c>
+      <c r="S51" s="3">
+        <v>320</v>
+      </c>
+      <c r="T51" s="1">
+        <v>20</v>
+      </c>
+      <c r="U51" s="1">
+        <v>30</v>
+      </c>
+      <c r="V51" s="1">
+        <v>2</v>
+      </c>
+      <c r="W51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X51" s="4">
+        <v>2800</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="20" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
+        <v>8</v>
+      </c>
+      <c r="E52" s="7">
+        <v>240</v>
+      </c>
+      <c r="F52" s="9">
+        <v>120</v>
+      </c>
+      <c r="G52" s="7">
+        <v>240</v>
+      </c>
+      <c r="H52" s="5">
+        <v>230</v>
+      </c>
+      <c r="I52" s="3">
+        <v>230</v>
+      </c>
+      <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
+        <v>72</v>
+      </c>
+      <c r="L52" s="1">
+        <v>288</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N52" s="1">
+        <v>8</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2</v>
+      </c>
+      <c r="P52" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>240</v>
+      </c>
+      <c r="S52" s="3">
+        <v>320</v>
+      </c>
+      <c r="T52" s="1">
+        <v>20</v>
+      </c>
+      <c r="U52" s="1">
+        <v>40</v>
+      </c>
+      <c r="V52" s="1">
+        <v>2</v>
+      </c>
+      <c r="W52" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X52" s="1">
+        <v>5200</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="20" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>4</v>
+      </c>
+      <c r="E53" s="7">
+        <v>240</v>
+      </c>
+      <c r="F53" s="9">
+        <v>120</v>
+      </c>
+      <c r="G53" s="7">
+        <v>240</v>
+      </c>
+      <c r="H53" s="7">
+        <v>115</v>
+      </c>
+      <c r="I53" s="3">
+        <v>115</v>
+      </c>
+      <c r="J53" s="3">
+        <v>200</v>
+      </c>
+      <c r="K53" s="3">
+        <v>45</v>
+      </c>
+      <c r="L53" s="1">
+        <v>240</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N53" s="1">
+        <v>4</v>
+      </c>
+      <c r="O53" s="1">
+        <v>2</v>
+      </c>
+      <c r="P53" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>240</v>
+      </c>
+      <c r="S53" s="3">
+        <v>320</v>
+      </c>
+      <c r="T53" s="1">
+        <v>20</v>
+      </c>
+      <c r="U53" s="1">
+        <v>20</v>
+      </c>
+      <c r="V53" s="1">
+        <v>2</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0</v>
+      </c>
+      <c r="X53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="20" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7">
+        <v>6</v>
+      </c>
+      <c r="E54" s="7">
+        <v>240</v>
+      </c>
+      <c r="F54" s="9">
+        <v>120</v>
+      </c>
+      <c r="G54" s="7">
+        <v>240</v>
+      </c>
+      <c r="H54" s="7">
+        <v>173</v>
+      </c>
+      <c r="I54" s="3">
+        <v>173</v>
+      </c>
+      <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
+        <v>58</v>
+      </c>
+      <c r="L54" s="1">
+        <v>264</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N54" s="1">
+        <v>6</v>
+      </c>
+      <c r="O54" s="1">
+        <v>2</v>
+      </c>
+      <c r="P54" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>240</v>
+      </c>
+      <c r="S54" s="3">
+        <v>320</v>
+      </c>
+      <c r="T54" s="1">
+        <v>20</v>
+      </c>
+      <c r="U54" s="1">
+        <v>30</v>
+      </c>
+      <c r="V54" s="1">
+        <v>2</v>
+      </c>
+      <c r="W54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X54" s="4">
+        <v>2800</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="20" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7">
+        <v>8</v>
+      </c>
+      <c r="E55" s="7">
+        <v>240</v>
+      </c>
+      <c r="F55" s="9">
+        <v>120</v>
+      </c>
+      <c r="G55" s="7">
+        <v>240</v>
+      </c>
+      <c r="H55" s="5">
+        <v>230</v>
+      </c>
+      <c r="I55" s="3">
+        <v>230</v>
+      </c>
+      <c r="J55" s="3">
+        <v>400</v>
+      </c>
+      <c r="K55" s="3">
+        <v>72</v>
+      </c>
+      <c r="L55" s="1">
+        <v>288</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="1">
+        <v>8</v>
+      </c>
+      <c r="O55" s="1">
+        <v>2</v>
+      </c>
+      <c r="P55" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <v>240</v>
+      </c>
+      <c r="S55" s="3">
+        <v>320</v>
+      </c>
+      <c r="T55" s="1">
+        <v>20</v>
+      </c>
+      <c r="U55" s="1">
+        <v>40</v>
+      </c>
+      <c r="V55" s="1">
+        <v>2</v>
+      </c>
+      <c r="W55" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X55" s="1">
+        <v>5200</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="20" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7">
+        <v>4</v>
+      </c>
+      <c r="E56" s="7">
+        <v>80</v>
+      </c>
+      <c r="F56" s="8">
+        <v>320</v>
+      </c>
+      <c r="G56" s="7">
+        <v>80</v>
+      </c>
+      <c r="H56" s="5">
+        <v>102</v>
+      </c>
+      <c r="I56" s="1">
+        <v>102</v>
+      </c>
+      <c r="J56" s="3">
+        <v>300</v>
+      </c>
+      <c r="K56" s="3">
+        <v>100</v>
+      </c>
+      <c r="L56" s="1">
+        <v>120</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N56" s="1">
+        <v>4</v>
+      </c>
+      <c r="O56" s="1">
+        <v>2</v>
+      </c>
+      <c r="P56" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>320</v>
+      </c>
+      <c r="R56" s="3">
+        <v>80</v>
+      </c>
+      <c r="S56" s="3">
+        <v>320</v>
+      </c>
+      <c r="T56" s="1">
+        <v>20</v>
+      </c>
+      <c r="U56" s="1">
+        <v>20</v>
+      </c>
+      <c r="V56" s="1">
+        <v>2</v>
+      </c>
+      <c r="W56" s="4">
+        <v>0</v>
+      </c>
+      <c r="X56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="20" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7">
+        <v>6</v>
+      </c>
+      <c r="E57" s="8">
+        <v>80</v>
+      </c>
+      <c r="F57" s="8">
+        <v>320</v>
+      </c>
+      <c r="G57" s="5">
+        <v>80</v>
+      </c>
+      <c r="H57" s="5">
         <v>154</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I57" s="1">
+        <v>154</v>
+      </c>
+      <c r="J57" s="1">
+        <v>450</v>
+      </c>
+      <c r="K57" s="3">
+        <v>130</v>
+      </c>
+      <c r="L57" s="1">
+        <v>132</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N57" s="1">
+        <v>6</v>
+      </c>
+      <c r="O57" s="1">
+        <v>2</v>
+      </c>
+      <c r="P57" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>320</v>
+      </c>
+      <c r="R57" s="3">
+        <v>80</v>
+      </c>
+      <c r="S57" s="3">
+        <v>320</v>
+      </c>
+      <c r="T57" s="1">
+        <v>20</v>
+      </c>
+      <c r="U57" s="1">
+        <v>30</v>
+      </c>
+      <c r="V57" s="1">
+        <v>2</v>
+      </c>
+      <c r="W57" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X57" s="4">
+        <v>2500</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="20" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <v>8</v>
+      </c>
+      <c r="E58" s="8">
+        <v>80</v>
+      </c>
+      <c r="F58" s="8">
+        <v>320</v>
+      </c>
+      <c r="G58" s="5">
+        <v>80</v>
+      </c>
+      <c r="H58" s="5">
+        <v>205</v>
+      </c>
+      <c r="I58" s="1">
+        <v>205</v>
+      </c>
+      <c r="J58" s="1">
+        <v>600</v>
+      </c>
+      <c r="K58" s="1">
+        <v>160</v>
+      </c>
+      <c r="L58" s="1">
+        <v>144</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N58" s="1">
+        <v>8</v>
+      </c>
+      <c r="O58" s="1">
+        <v>2</v>
+      </c>
+      <c r="P58" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>320</v>
+      </c>
+      <c r="R58" s="3">
+        <v>80</v>
+      </c>
+      <c r="S58" s="3">
+        <v>320</v>
+      </c>
+      <c r="T58" s="1">
+        <v>20</v>
+      </c>
+      <c r="U58" s="1">
+        <v>40</v>
+      </c>
+      <c r="V58" s="1">
+        <v>2</v>
+      </c>
+      <c r="W58" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X58" s="1">
+        <v>4900</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="20" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7">
+        <v>4</v>
+      </c>
+      <c r="E59" s="7">
+        <v>80</v>
+      </c>
+      <c r="F59" s="8">
+        <v>320</v>
+      </c>
+      <c r="G59" s="7">
+        <v>80</v>
+      </c>
+      <c r="H59" s="5">
+        <v>102</v>
+      </c>
+      <c r="I59" s="1">
+        <v>102</v>
+      </c>
+      <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="1">
+        <v>120</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N59" s="1">
+        <v>4</v>
+      </c>
+      <c r="O59" s="1">
+        <v>2</v>
+      </c>
+      <c r="P59" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>320</v>
+      </c>
+      <c r="R59" s="3">
+        <v>80</v>
+      </c>
+      <c r="S59" s="3">
+        <v>320</v>
+      </c>
+      <c r="T59" s="1">
+        <v>20</v>
+      </c>
+      <c r="U59" s="1">
+        <v>20</v>
+      </c>
+      <c r="V59" s="1">
+        <v>2</v>
+      </c>
+      <c r="W59" s="4">
+        <v>0</v>
+      </c>
+      <c r="X59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="20" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
+        <v>6</v>
+      </c>
+      <c r="E60" s="8">
+        <v>80</v>
+      </c>
+      <c r="F60" s="8">
+        <v>320</v>
+      </c>
+      <c r="G60" s="5">
+        <v>80</v>
+      </c>
+      <c r="H60" s="5">
+        <v>154</v>
+      </c>
+      <c r="I60" s="1">
+        <v>154</v>
+      </c>
+      <c r="J60" s="1">
+        <v>450</v>
+      </c>
+      <c r="K60" s="3">
+        <v>130</v>
+      </c>
+      <c r="L60" s="1">
+        <v>132</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N60" s="1">
+        <v>6</v>
+      </c>
+      <c r="O60" s="1">
+        <v>2</v>
+      </c>
+      <c r="P60" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>320</v>
+      </c>
+      <c r="R60" s="3">
+        <v>80</v>
+      </c>
+      <c r="S60" s="3">
+        <v>320</v>
+      </c>
+      <c r="T60" s="1">
+        <v>20</v>
+      </c>
+      <c r="U60" s="1">
+        <v>30</v>
+      </c>
+      <c r="V60" s="1">
+        <v>2</v>
+      </c>
+      <c r="W60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X60" s="4">
+        <v>2500</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="20" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <v>8</v>
+      </c>
+      <c r="E61" s="8">
+        <v>80</v>
+      </c>
+      <c r="F61" s="8">
+        <v>320</v>
+      </c>
+      <c r="G61" s="5">
+        <v>80</v>
+      </c>
+      <c r="H61" s="5">
+        <v>205</v>
+      </c>
+      <c r="I61" s="1">
+        <v>205</v>
+      </c>
+      <c r="J61" s="1">
+        <v>600</v>
+      </c>
+      <c r="K61" s="1">
+        <v>160</v>
+      </c>
+      <c r="L61" s="1">
+        <v>144</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N61" s="1">
+        <v>8</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2</v>
+      </c>
+      <c r="P61" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>320</v>
+      </c>
+      <c r="R61" s="3">
+        <v>80</v>
+      </c>
+      <c r="S61" s="3">
+        <v>320</v>
+      </c>
+      <c r="T61" s="1">
+        <v>20</v>
+      </c>
+      <c r="U61" s="1">
+        <v>40</v>
+      </c>
+      <c r="V61" s="1">
+        <v>2</v>
+      </c>
+      <c r="W61" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X61" s="1">
+        <v>4900</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z61" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="20" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
+        <v>4</v>
+      </c>
+      <c r="E62" s="7">
+        <v>80</v>
+      </c>
+      <c r="F62" s="8">
+        <v>320</v>
+      </c>
+      <c r="G62" s="7">
+        <v>80</v>
+      </c>
+      <c r="H62" s="5">
+        <v>102</v>
+      </c>
+      <c r="I62" s="1">
+        <v>102</v>
+      </c>
+      <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="1">
+        <v>120</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N62" s="1">
+        <v>4</v>
+      </c>
+      <c r="O62" s="1">
+        <v>2</v>
+      </c>
+      <c r="P62" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>320</v>
+      </c>
+      <c r="R62" s="3">
+        <v>80</v>
+      </c>
+      <c r="S62" s="3">
+        <v>320</v>
+      </c>
+      <c r="T62" s="1">
+        <v>20</v>
+      </c>
+      <c r="U62" s="1">
+        <v>20</v>
+      </c>
+      <c r="V62" s="1">
+        <v>2</v>
+      </c>
+      <c r="W62" s="4">
+        <v>0</v>
+      </c>
+      <c r="X62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="20" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7">
+        <v>6</v>
+      </c>
+      <c r="E63" s="8">
+        <v>80</v>
+      </c>
+      <c r="F63" s="8">
+        <v>320</v>
+      </c>
+      <c r="G63" s="5">
+        <v>80</v>
+      </c>
+      <c r="H63" s="5">
+        <v>154</v>
+      </c>
+      <c r="I63" s="1">
+        <v>154</v>
+      </c>
+      <c r="J63" s="1">
+        <v>450</v>
+      </c>
+      <c r="K63" s="3">
+        <v>130</v>
+      </c>
+      <c r="L63" s="1">
+        <v>132</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N63" s="1">
+        <v>6</v>
+      </c>
+      <c r="O63" s="1">
+        <v>2</v>
+      </c>
+      <c r="P63" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>320</v>
+      </c>
+      <c r="R63" s="3">
+        <v>80</v>
+      </c>
+      <c r="S63" s="3">
+        <v>320</v>
+      </c>
+      <c r="T63" s="1">
+        <v>20</v>
+      </c>
+      <c r="U63" s="1">
+        <v>30</v>
+      </c>
+      <c r="V63" s="1">
+        <v>2</v>
+      </c>
+      <c r="W63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X63" s="4">
+        <v>2500</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="20" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8">
+        <v>8</v>
+      </c>
+      <c r="E64" s="8">
+        <v>80</v>
+      </c>
+      <c r="F64" s="8">
+        <v>320</v>
+      </c>
+      <c r="G64" s="5">
+        <v>80</v>
+      </c>
+      <c r="H64" s="5">
+        <v>205</v>
+      </c>
+      <c r="I64" s="1">
+        <v>205</v>
+      </c>
+      <c r="J64" s="1">
+        <v>600</v>
+      </c>
+      <c r="K64" s="1">
+        <v>160</v>
+      </c>
+      <c r="L64" s="1">
+        <v>144</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N64" s="1">
+        <v>8</v>
+      </c>
+      <c r="O64" s="1">
+        <v>2</v>
+      </c>
+      <c r="P64" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>320</v>
+      </c>
+      <c r="R64" s="3">
+        <v>80</v>
+      </c>
+      <c r="S64" s="3">
+        <v>320</v>
+      </c>
+      <c r="T64" s="1">
+        <v>20</v>
+      </c>
+      <c r="U64" s="1">
+        <v>40</v>
+      </c>
+      <c r="V64" s="1">
+        <v>2</v>
+      </c>
+      <c r="W64" s="4">
+        <v>200000</v>
+      </c>
+      <c r="X64" s="1">
+        <v>4900</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>28800</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="20" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8">
+        <v>4</v>
+      </c>
+      <c r="E65" s="5">
+        <v>160</v>
+      </c>
+      <c r="F65" s="5">
+        <v>160</v>
+      </c>
+      <c r="G65" s="5">
+        <v>160</v>
+      </c>
+      <c r="H65" s="5">
+        <v>128</v>
+      </c>
+      <c r="I65" s="1">
+        <v>128</v>
+      </c>
+      <c r="J65" s="1">
+        <v>240</v>
+      </c>
+      <c r="K65" s="1">
+        <v>90</v>
+      </c>
+      <c r="L65" s="1">
+        <v>132</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N65" s="1">
+        <v>4</v>
+      </c>
+      <c r="O65" s="1">
+        <v>2</v>
+      </c>
+      <c r="P65" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>160</v>
+      </c>
+      <c r="R65" s="3">
+        <v>160</v>
+      </c>
+      <c r="S65" s="3">
+        <v>320</v>
+      </c>
+      <c r="T65" s="1">
+        <v>20</v>
+      </c>
+      <c r="U65" s="1">
+        <v>20</v>
+      </c>
+      <c r="V65" s="1">
+        <v>2</v>
+      </c>
+      <c r="W65" s="4">
+        <v>0</v>
+      </c>
+      <c r="X65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="20" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5">
+        <v>160</v>
+      </c>
+      <c r="F66" s="5">
+        <v>160</v>
+      </c>
+      <c r="G66" s="5">
+        <v>160</v>
+      </c>
+      <c r="H66" s="5">
+        <v>192</v>
+      </c>
+      <c r="I66" s="1">
+        <v>192</v>
+      </c>
+      <c r="J66" s="1">
+        <v>360</v>
+      </c>
+      <c r="K66" s="1">
+        <v>117</v>
+      </c>
+      <c r="L66" s="1">
+        <v>145</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N66" s="1">
+        <v>6</v>
+      </c>
+      <c r="O66" s="1">
+        <v>2</v>
+      </c>
+      <c r="P66" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>160</v>
+      </c>
+      <c r="R66" s="3">
+        <v>160</v>
+      </c>
+      <c r="S66" s="3">
+        <v>320</v>
+      </c>
+      <c r="T66" s="1">
+        <v>20</v>
+      </c>
+      <c r="U66" s="1">
+        <v>30</v>
+      </c>
+      <c r="V66" s="1">
+        <v>2</v>
+      </c>
+      <c r="W66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X66" s="4">
+        <v>3100</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="20" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8">
+        <v>8</v>
+      </c>
+      <c r="E67" s="8">
+        <v>160</v>
+      </c>
+      <c r="F67" s="8">
+        <v>160</v>
+      </c>
+      <c r="G67" s="5">
+        <v>160</v>
+      </c>
+      <c r="H67" s="5">
         <v>256</v>
       </c>
-      <c r="H20" s="3">
-        <v>307</v>
-      </c>
-      <c r="I20" s="3">
-        <v>205</v>
-      </c>
-      <c r="J20" s="3">
-        <v>205</v>
-      </c>
-      <c r="K20" s="3">
-        <v>600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>50</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="I67" s="1">
+        <v>256</v>
+      </c>
+      <c r="J67" s="1">
+        <v>480</v>
+      </c>
+      <c r="K67" s="1">
+        <v>144</v>
+      </c>
+      <c r="L67" s="1">
+        <v>158</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N67" s="1">
+        <v>8</v>
+      </c>
+      <c r="O67" s="1">
+        <v>2</v>
+      </c>
+      <c r="P67" s="1">
+        <v>160</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>160</v>
+      </c>
+      <c r="R67" s="1">
+        <v>160</v>
+      </c>
+      <c r="S67" s="1">
+        <v>320</v>
+      </c>
+      <c r="T67" s="1">
+        <v>20</v>
+      </c>
+      <c r="U67" s="1">
+        <v>40</v>
+      </c>
+      <c r="V67" s="1">
+        <v>2</v>
+      </c>
+      <c r="W67" s="1">
+        <v>200000</v>
+      </c>
+      <c r="X67" s="1">
+        <v>5500</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>28800</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="20" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8">
+        <v>4</v>
+      </c>
+      <c r="E68" s="5">
+        <v>160</v>
+      </c>
+      <c r="F68" s="5">
+        <v>160</v>
+      </c>
+      <c r="G68" s="5">
+        <v>160</v>
+      </c>
+      <c r="H68" s="5">
+        <v>128</v>
+      </c>
+      <c r="I68" s="1">
+        <v>128</v>
+      </c>
+      <c r="J68" s="1">
+        <v>240</v>
+      </c>
+      <c r="K68" s="1">
         <v>90</v>
       </c>
-      <c r="N20" s="6">
+      <c r="L68" s="1">
+        <v>132</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N68" s="1">
+        <v>4</v>
+      </c>
+      <c r="O68" s="1">
         <v>2</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P68" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>160</v>
+      </c>
+      <c r="R68" s="3">
+        <v>160</v>
+      </c>
+      <c r="S68" s="3">
+        <v>320</v>
+      </c>
+      <c r="T68" s="1">
+        <v>20</v>
+      </c>
+      <c r="U68" s="1">
+        <v>20</v>
+      </c>
+      <c r="V68" s="1">
+        <v>2</v>
+      </c>
+      <c r="W68" s="4">
+        <v>0</v>
+      </c>
+      <c r="X68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="20" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8">
+        <v>6</v>
+      </c>
+      <c r="E69" s="5">
+        <v>160</v>
+      </c>
+      <c r="F69" s="5">
+        <v>160</v>
+      </c>
+      <c r="G69" s="5">
+        <v>160</v>
+      </c>
+      <c r="H69" s="5">
+        <v>192</v>
+      </c>
+      <c r="I69" s="1">
+        <v>192</v>
+      </c>
+      <c r="J69" s="1">
+        <v>360</v>
+      </c>
+      <c r="K69" s="1">
+        <v>117</v>
+      </c>
+      <c r="L69" s="1">
+        <v>145</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N69" s="1">
+        <v>6</v>
+      </c>
+      <c r="O69" s="1">
+        <v>2</v>
+      </c>
+      <c r="P69" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>160</v>
+      </c>
+      <c r="R69" s="3">
+        <v>160</v>
+      </c>
+      <c r="S69" s="3">
+        <v>320</v>
+      </c>
+      <c r="T69" s="1">
+        <v>20</v>
+      </c>
+      <c r="U69" s="1">
+        <v>30</v>
+      </c>
+      <c r="V69" s="1">
+        <v>2</v>
+      </c>
+      <c r="W69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X69" s="4">
+        <v>3100</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="20" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8">
         <v>8</v>
       </c>
-      <c r="P20" s="1">
+      <c r="E70" s="8">
+        <v>160</v>
+      </c>
+      <c r="F70" s="8">
+        <v>160</v>
+      </c>
+      <c r="G70" s="5">
+        <v>160</v>
+      </c>
+      <c r="H70" s="5">
+        <v>256</v>
+      </c>
+      <c r="I70" s="1">
+        <v>256</v>
+      </c>
+      <c r="J70" s="1">
+        <v>480</v>
+      </c>
+      <c r="K70" s="1">
+        <v>144</v>
+      </c>
+      <c r="L70" s="1">
+        <v>158</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N70" s="1">
+        <v>8</v>
+      </c>
+      <c r="O70" s="1">
+        <v>2</v>
+      </c>
+      <c r="P70" s="1">
+        <v>160</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>160</v>
+      </c>
+      <c r="R70" s="1">
+        <v>160</v>
+      </c>
+      <c r="S70" s="1">
+        <v>320</v>
+      </c>
+      <c r="T70" s="1">
+        <v>20</v>
+      </c>
+      <c r="U70" s="1">
+        <v>40</v>
+      </c>
+      <c r="V70" s="1">
+        <v>2</v>
+      </c>
+      <c r="W70" s="1">
+        <v>200000</v>
+      </c>
+      <c r="X70" s="1">
+        <v>5500</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>28800</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="20" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="E71" s="5">
+        <v>160</v>
+      </c>
+      <c r="F71" s="5">
+        <v>160</v>
+      </c>
+      <c r="G71" s="5">
+        <v>160</v>
+      </c>
+      <c r="H71" s="5">
+        <v>128</v>
+      </c>
+      <c r="I71" s="1">
+        <v>128</v>
+      </c>
+      <c r="J71" s="1">
+        <v>240</v>
+      </c>
+      <c r="K71" s="1">
+        <v>90</v>
+      </c>
+      <c r="L71" s="1">
+        <v>132</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N71" s="1">
+        <v>4</v>
+      </c>
+      <c r="O71" s="1">
+        <v>2</v>
+      </c>
+      <c r="P71" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>160</v>
+      </c>
+      <c r="R71" s="3">
+        <v>160</v>
+      </c>
+      <c r="S71" s="3">
+        <v>320</v>
+      </c>
+      <c r="T71" s="1">
+        <v>20</v>
+      </c>
+      <c r="U71" s="1">
+        <v>20</v>
+      </c>
+      <c r="V71" s="1">
+        <v>2</v>
+      </c>
+      <c r="W71" s="4">
+        <v>0</v>
+      </c>
+      <c r="X71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="20" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>6</v>
+      </c>
+      <c r="E72" s="5">
+        <v>160</v>
+      </c>
+      <c r="F72" s="5">
+        <v>160</v>
+      </c>
+      <c r="G72" s="5">
+        <v>160</v>
+      </c>
+      <c r="H72" s="5">
+        <v>192</v>
+      </c>
+      <c r="I72" s="1">
+        <v>192</v>
+      </c>
+      <c r="J72" s="1">
+        <v>360</v>
+      </c>
+      <c r="K72" s="1">
+        <v>117</v>
+      </c>
+      <c r="L72" s="1">
+        <v>145</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N72" s="1">
+        <v>6</v>
+      </c>
+      <c r="O72" s="1">
+        <v>2</v>
+      </c>
+      <c r="P72" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>160</v>
+      </c>
+      <c r="R72" s="3">
+        <v>160</v>
+      </c>
+      <c r="S72" s="3">
+        <v>320</v>
+      </c>
+      <c r="T72" s="1">
+        <v>20</v>
+      </c>
+      <c r="U72" s="1">
+        <v>30</v>
+      </c>
+      <c r="V72" s="1">
+        <v>2</v>
+      </c>
+      <c r="W72" s="1">
+        <v>100000</v>
+      </c>
+      <c r="X72" s="4">
+        <v>3100</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>14400</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="20" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8">
+        <v>8</v>
+      </c>
+      <c r="E73" s="8">
+        <v>160</v>
+      </c>
+      <c r="F73" s="8">
+        <v>160</v>
+      </c>
+      <c r="G73" s="5">
+        <v>160</v>
+      </c>
+      <c r="H73" s="5">
+        <v>256</v>
+      </c>
+      <c r="I73" s="1">
+        <v>256</v>
+      </c>
+      <c r="J73" s="1">
         <v>480</v>
       </c>
-      <c r="R20" s="3">
-        <v>1440</v>
-      </c>
-      <c r="S20" s="3">
-        <v>480</v>
-      </c>
-      <c r="T20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U20" s="1">
+      <c r="K73" s="1">
+        <v>144</v>
+      </c>
+      <c r="L73" s="1">
+        <v>158</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N73" s="1">
+        <v>8</v>
+      </c>
+      <c r="O73" s="1">
+        <v>2</v>
+      </c>
+      <c r="P73" s="1">
+        <v>160</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>160</v>
+      </c>
+      <c r="R73" s="1">
+        <v>160</v>
+      </c>
+      <c r="S73" s="1">
+        <v>320</v>
+      </c>
+      <c r="T73" s="1">
+        <v>20</v>
+      </c>
+      <c r="U73" s="1">
         <v>40</v>
       </c>
-      <c r="V20" s="1">
-        <v>80</v>
-      </c>
-      <c r="W20" s="1">
-        <v>8</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>45</v>
+      <c r="V73" s="1">
+        <v>2</v>
+      </c>
+      <c r="W73" s="1">
+        <v>200000</v>
+      </c>
+      <c r="X73" s="1">
+        <v>5500</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>28800</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="20" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3">
-        <v>307</v>
-      </c>
-      <c r="G21" s="3">
-        <v>512</v>
-      </c>
-      <c r="H21" s="3">
-        <v>614</v>
-      </c>
-      <c r="I21" s="1">
-        <v>410</v>
-      </c>
-      <c r="J21" s="3">
-        <v>410</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="1">
-        <v>90</v>
-      </c>
-      <c r="N21" s="6">
-        <v>4</v>
-      </c>
-      <c r="O21" s="1">
-        <v>16</v>
-      </c>
-      <c r="P21" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1440</v>
-      </c>
-      <c r="R21" s="3">
-        <v>4320</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1440</v>
-      </c>
-      <c r="T21" s="3">
-        <v>7200</v>
-      </c>
-      <c r="U21" s="1">
-        <v>40</v>
-      </c>
-      <c r="V21" s="1">
-        <v>240</v>
-      </c>
-      <c r="W21" s="1">
-        <v>8</v>
-      </c>
-      <c r="X21" s="5">
-        <v>500000</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>7500</v>
-      </c>
-      <c r="Z21" s="5">
-        <v>43200</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="74" spans="1:26" ht="20" customHeight="1">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
     </row>
-    <row r="22" spans="1:27" ht="20" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>24</v>
-      </c>
-      <c r="F22" s="3">
-        <v>461</v>
-      </c>
-      <c r="G22" s="4">
-        <v>768</v>
-      </c>
-      <c r="H22" s="3">
-        <v>922</v>
-      </c>
-      <c r="I22" s="1">
-        <v>614</v>
-      </c>
-      <c r="J22" s="1">
-        <v>614</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>150</v>
-      </c>
-      <c r="M22" s="1">
-        <v>90</v>
-      </c>
-      <c r="N22" s="6">
-        <v>6</v>
-      </c>
-      <c r="O22" s="1">
-        <v>24</v>
-      </c>
-      <c r="P22" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2880</v>
-      </c>
-      <c r="R22" s="3">
-        <v>8640</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2880</v>
-      </c>
-      <c r="T22" s="3">
-        <v>14400</v>
-      </c>
-      <c r="U22" s="1">
-        <v>40</v>
-      </c>
-      <c r="V22" s="1">
-        <v>480</v>
-      </c>
-      <c r="W22" s="1">
-        <v>8</v>
-      </c>
-      <c r="X22" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>17500</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="75" spans="1:26" ht="20" customHeight="1">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
     </row>
-    <row r="23" spans="1:27" ht="20" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4">
-        <v>192</v>
-      </c>
-      <c r="G23" s="4">
-        <v>320</v>
-      </c>
-      <c r="H23" s="1">
-        <v>384</v>
-      </c>
-      <c r="I23" s="1">
-        <v>256</v>
-      </c>
-      <c r="J23" s="1">
-        <v>256</v>
-      </c>
-      <c r="K23" s="1">
-        <v>480</v>
-      </c>
-      <c r="L23" s="1">
-        <v>45</v>
-      </c>
-      <c r="M23" s="1">
-        <v>95</v>
-      </c>
-      <c r="N23" s="6">
-        <v>2</v>
-      </c>
-      <c r="O23" s="1">
-        <v>8</v>
-      </c>
-      <c r="P23" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1440</v>
-      </c>
-      <c r="R23" s="3">
-        <v>480</v>
-      </c>
-      <c r="S23" s="3">
-        <v>480</v>
-      </c>
-      <c r="T23" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U23" s="1">
-        <v>40</v>
-      </c>
-      <c r="V23" s="1">
-        <v>80</v>
-      </c>
-      <c r="W23" s="1">
-        <v>8</v>
-      </c>
-      <c r="X23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="76" spans="1:26" ht="20" customHeight="1">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
     </row>
-    <row r="24" spans="1:27" ht="20" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>16</v>
-      </c>
-      <c r="F24" s="4">
-        <v>384</v>
-      </c>
-      <c r="G24" s="4">
-        <v>640</v>
-      </c>
-      <c r="H24" s="1">
-        <v>768</v>
-      </c>
-      <c r="I24" s="1">
-        <v>512</v>
-      </c>
-      <c r="J24" s="1">
-        <v>512</v>
-      </c>
-      <c r="K24" s="1">
-        <v>960</v>
-      </c>
-      <c r="L24" s="1">
-        <v>90</v>
-      </c>
-      <c r="M24" s="1">
-        <v>95</v>
-      </c>
-      <c r="N24" s="6">
-        <v>4</v>
-      </c>
-      <c r="O24" s="1">
-        <v>16</v>
-      </c>
-      <c r="P24" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>4320</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1440</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1440</v>
-      </c>
-      <c r="T24" s="3">
-        <v>7200</v>
-      </c>
-      <c r="U24" s="1">
-        <v>40</v>
-      </c>
-      <c r="V24" s="1">
-        <v>240</v>
-      </c>
-      <c r="W24" s="1">
-        <v>8</v>
-      </c>
-      <c r="X24" s="5">
-        <v>500000</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>10000</v>
-      </c>
-      <c r="Z24" s="5">
-        <v>43200</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="77" spans="1:26" ht="20" customHeight="1">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
     </row>
-    <row r="25" spans="1:27" ht="20" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4">
-        <v>24</v>
-      </c>
-      <c r="F25" s="1">
-        <v>576</v>
-      </c>
-      <c r="G25" s="1">
-        <v>960</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1152</v>
-      </c>
-      <c r="I25" s="1">
-        <v>768</v>
-      </c>
-      <c r="J25" s="1">
-        <v>768</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1440</v>
-      </c>
-      <c r="L25" s="1">
-        <v>135</v>
-      </c>
-      <c r="M25" s="1">
-        <v>95</v>
-      </c>
-      <c r="N25" s="1">
-        <v>6</v>
-      </c>
-      <c r="O25" s="1">
-        <v>24</v>
-      </c>
-      <c r="P25" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>8640</v>
-      </c>
-      <c r="R25" s="1">
-        <v>2880</v>
-      </c>
-      <c r="S25" s="3">
-        <v>2880</v>
-      </c>
-      <c r="T25" s="3">
-        <v>14400</v>
-      </c>
-      <c r="U25" s="1">
-        <v>40</v>
-      </c>
-      <c r="V25" s="1">
-        <v>480</v>
-      </c>
-      <c r="W25" s="1">
-        <v>8</v>
-      </c>
-      <c r="X25" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>20000</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="78" spans="1:26" ht="20" customHeight="1">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
     </row>
-    <row r="26" spans="1:27" ht="20" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+    <row r="79" spans="1:26" ht="20" customHeight="1">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
     </row>
-    <row r="27" spans="1:27" ht="20" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" ht="20" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:27" ht="20" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:27" ht="20" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:27" ht="20" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:27" ht="20" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="20" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+    <row r="80" spans="1:26" ht="20" customHeight="1">
+      <c r="D80" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5630,8 +9791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5650,111 +9811,111 @@
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7</v>
       </c>
       <c r="F2" s="1">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="G2" s="1">
+        <v>126</v>
+      </c>
+      <c r="H2" s="1">
+        <v>210</v>
+      </c>
+      <c r="I2" s="1">
+        <v>252</v>
+      </c>
+      <c r="J2" s="1">
+        <v>147</v>
+      </c>
+      <c r="K2" s="1">
+        <v>560</v>
+      </c>
+      <c r="L2" s="1">
         <v>90</v>
       </c>
-      <c r="H2" s="1">
-        <v>150</v>
-      </c>
-      <c r="I2" s="1">
-        <v>180</v>
-      </c>
-      <c r="J2" s="1">
-        <v>105</v>
-      </c>
-      <c r="K2" s="1">
-        <v>400</v>
-      </c>
-      <c r="L2" s="1">
-        <v>20</v>
-      </c>
       <c r="M2" s="1">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P2" s="1">
         <v>1</v>
@@ -5763,60 +9924,60 @@
         <v>15</v>
       </c>
       <c r="R2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="S2" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7</v>
       </c>
       <c r="F3" s="1">
-        <v>288</v>
+        <v>403</v>
       </c>
       <c r="G3" s="1">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="H3" s="1">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="I3" s="1">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="J3" s="1">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="K3" s="1">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L3" s="1">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="M3" s="1">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -5825,13 +9986,13 @@
         <v>15</v>
       </c>
       <c r="R3" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="S3" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1">
@@ -5839,46 +10000,46 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
       </c>
       <c r="F4" s="1">
+        <v>600</v>
+      </c>
+      <c r="G4" s="1">
+        <v>720</v>
+      </c>
+      <c r="H4" s="1">
+        <v>480</v>
+      </c>
+      <c r="I4" s="1">
         <v>360</v>
       </c>
-      <c r="G4" s="1">
-        <v>432</v>
-      </c>
-      <c r="H4" s="1">
-        <v>288</v>
-      </c>
-      <c r="I4" s="1">
-        <v>216</v>
-      </c>
       <c r="J4" s="1">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="K4" s="1">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="L4" s="1">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="M4" s="1">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
@@ -5887,122 +10048,122 @@
         <v>30</v>
       </c>
       <c r="R4" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="S4" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>288</v>
+      </c>
+      <c r="G5" s="1">
+        <v>480</v>
+      </c>
+      <c r="H5" s="1">
+        <v>576</v>
+      </c>
+      <c r="I5" s="1">
+        <v>384</v>
+      </c>
+      <c r="J5" s="1">
+        <v>384</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1125</v>
+      </c>
+      <c r="L5" s="1">
+        <v>280</v>
+      </c>
+      <c r="M5" s="1">
+        <v>125</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1">
         <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>346</v>
-      </c>
-      <c r="G5" s="1">
-        <v>576</v>
-      </c>
-      <c r="H5" s="1">
-        <v>691</v>
-      </c>
-      <c r="I5" s="1">
-        <v>461</v>
-      </c>
-      <c r="J5" s="1">
-        <v>461</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1350</v>
-      </c>
-      <c r="L5" s="1">
-        <v>110</v>
-      </c>
-      <c r="M5" s="1">
-        <v>95</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1">
-        <v>4</v>
       </c>
       <c r="Q5" s="1">
         <v>60</v>
       </c>
       <c r="R5" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="S5" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="5">
-        <v>7</v>
+      <c r="E6" s="4">
+        <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="G6" s="1">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="H6" s="1">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="I6" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="J6" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="K6" s="1">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="L6" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M6" s="1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O6" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -6011,60 +10172,60 @@
         <v>20</v>
       </c>
       <c r="R6" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="S6" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
-        <v>7</v>
+      <c r="E7" s="4">
+        <v>8</v>
       </c>
       <c r="F7" s="1">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="G7" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H7" s="1">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="I7" s="1">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J7" s="1">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="K7" s="1">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="L7" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="N7" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -6073,60 +10234,60 @@
         <v>20</v>
       </c>
       <c r="R7" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="S7" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="5">
-        <v>13</v>
+      <c r="E8" s="4">
+        <v>16</v>
       </c>
       <c r="F8" s="1">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G8" s="1">
-        <v>585</v>
+        <v>720</v>
       </c>
       <c r="H8" s="1">
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="I8" s="1">
-        <v>468</v>
+        <v>576</v>
       </c>
       <c r="J8" s="1">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="K8" s="1">
-        <v>1040</v>
+        <v>1280</v>
       </c>
       <c r="L8" s="1">
         <v>150</v>
       </c>
       <c r="M8" s="1">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="N8" s="1">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O8" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
@@ -6135,75 +10296,75 @@
         <v>40</v>
       </c>
       <c r="R8" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="S8" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="5">
-        <v>25</v>
+      <c r="E9" s="1">
+        <v>16</v>
       </c>
       <c r="F9" s="1">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="G9" s="1">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="H9" s="1">
-        <v>800</v>
+        <v>512</v>
       </c>
       <c r="I9" s="1">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="J9" s="1">
-        <v>1200</v>
+        <v>768</v>
       </c>
       <c r="K9" s="1">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="L9" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="M9" s="1">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="N9" s="1">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O9" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="1">
         <v>80</v>
       </c>
       <c r="R9" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="S9" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6236,16 +10397,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/Soldiers.xlsx
+++ b/Dragonfall/gameData/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37460" windowHeight="21140" tabRatio="288"/>
+    <workbookView xWindow="400" yWindow="0" windowWidth="38100" windowHeight="21140" tabRatio="165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -199,42 +199,34 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>skeletonArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>priest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>paladin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamTank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>siege</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeletonArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>priest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>paladin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>steamTank</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_consumeFoodPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -271,10 +263,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soulStone_6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>deathHand_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -288,18 +276,6 @@
   </si>
   <si>
     <t>heroBones_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicBox_6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightAlloy_6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing_6</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -346,15 +322,15 @@
     <t>INT_needBarracksLevel</t>
   </si>
   <si>
-    <t>sentinel_l_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>sentinel_1_1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>sentinel_l_3</t>
+    <t>sentinel_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -387,11 +363,9 @@
   </si>
   <si>
     <t>ranger_1_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ranger_1_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ranger_2_1</t>
@@ -399,11 +373,9 @@
   </si>
   <si>
     <t>ranger_2_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ranger_2_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ranger_3_1</t>
@@ -426,22 +398,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>crossbowman_2_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>crossbowman_1_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>crossbowman_2_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>crossbowman_3_1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -526,12 +498,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>catapult_1_1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>catapult_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>catapult_1_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>catapult_2_1</t>
@@ -591,6 +570,22 @@
   </si>
   <si>
     <t>ballista_3_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soulStone_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBox_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightAlloy_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1326">
+  <cellStyleXfs count="1376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2079,8 +2074,58 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2106,11 +2151,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1326">
+  <cellStyles count="1376">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2776,6 +2818,31 @@
     <cellStyle name="超链接" xfId="1320" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1322" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3434,6 +3501,31 @@
     <cellStyle name="访问过的超链接" xfId="1321" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1323" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3883,18 +3975,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25:AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="8" width="20.6640625" style="5"/>
-    <col min="9" max="12" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="5"/>
+    <col min="2" max="2" width="17.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="16.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" style="1"/>
     <col min="13" max="13" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="20.6640625" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" style="1" customWidth="1"/>
+    <col min="16" max="20" width="20.6640625" style="1"/>
     <col min="21" max="21" width="14.83203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="16.83203125" style="1" customWidth="1"/>
     <col min="23" max="24" width="20.6640625" style="1"/>
@@ -3904,27 +4006,27 @@
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -3940,7 +4042,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>29</v>
@@ -3964,7 +4066,7 @@
         <v>10</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>11</v>
@@ -3984,7 +4086,7 @@
     </row>
     <row r="2" spans="1:26" ht="20" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -3996,33 +4098,33 @@
         <v>2</v>
       </c>
       <c r="E2" s="7">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="F2" s="7">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="G2" s="7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H2" s="7">
         <v>72</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>42</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>160</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>25</v>
       </c>
-      <c r="L2" s="1">
-        <v>170</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="L2" s="5">
+        <v>160</v>
+      </c>
+      <c r="M2" s="5">
         <v>0.4</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="5">
         <v>2</v>
       </c>
       <c r="O2" s="1">
@@ -4032,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R2" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="S2" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="T2" s="1">
         <v>10</v>
@@ -4049,13 +4151,13 @@
       <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="1">
         <v>0</v>
       </c>
       <c r="X2" s="4">
         <v>0</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="1">
         <v>0</v>
       </c>
       <c r="Z2" s="1" t="s">
@@ -4064,7 +4166,7 @@
     </row>
     <row r="3" spans="1:26" ht="20" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -4076,33 +4178,33 @@
         <v>3</v>
       </c>
       <c r="E3" s="7">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F3" s="7">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="G3" s="7">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H3" s="7">
         <v>108</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <v>63</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>240</v>
       </c>
-      <c r="K3" s="3">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1">
-        <v>187</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="K3" s="7">
+        <v>33</v>
+      </c>
+      <c r="L3" s="5">
+        <v>176</v>
+      </c>
+      <c r="M3" s="5">
         <v>0.4</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="5">
         <v>3</v>
       </c>
       <c r="O3" s="1">
@@ -4112,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R3" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="S3" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="T3" s="1">
         <v>10</v>
@@ -4129,13 +4231,13 @@
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="4">
         <v>100000</v>
       </c>
-      <c r="X3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="X3" s="1">
+        <v>1400</v>
+      </c>
+      <c r="Y3" s="4">
         <v>14400</v>
       </c>
       <c r="Z3" s="1" t="s">
@@ -4144,7 +4246,7 @@
     </row>
     <row r="4" spans="1:26" ht="20" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
@@ -4156,10 +4258,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="7">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7">
         <v>120</v>
@@ -4167,22 +4269,22 @@
       <c r="H4" s="7">
         <v>144</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>84</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>320</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="7">
         <v>40</v>
       </c>
-      <c r="L4" s="1">
-        <v>204</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="L4" s="5">
+        <v>192</v>
+      </c>
+      <c r="M4" s="5">
         <v>0.4</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="5">
         <v>4</v>
       </c>
       <c r="O4" s="1">
@@ -4192,13 +4294,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R4" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="S4" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="T4" s="1">
         <v>10</v>
@@ -4212,8 +4314,8 @@
       <c r="W4" s="4">
         <v>200000</v>
       </c>
-      <c r="X4" s="1">
-        <v>3400</v>
+      <c r="X4" s="4">
+        <v>3800</v>
       </c>
       <c r="Y4" s="4">
         <v>28800</v>
@@ -4224,46 +4326,46 @@
     </row>
     <row r="5" spans="1:26" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7">
         <v>120</v>
       </c>
       <c r="F5" s="7">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
-      </c>
-      <c r="I5" s="3">
-        <v>42</v>
-      </c>
-      <c r="J5" s="3">
-        <v>160</v>
-      </c>
-      <c r="K5" s="3">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1">
-        <v>170</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2</v>
+        <v>180</v>
+      </c>
+      <c r="I5" s="7">
+        <v>105</v>
+      </c>
+      <c r="J5" s="7">
+        <v>400</v>
+      </c>
+      <c r="K5" s="7">
+        <v>35</v>
+      </c>
+      <c r="L5" s="5">
+        <v>168</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -4272,30 +4374,30 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="R5" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="S5" s="3">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="T5" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U5" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="4">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
         <v>0</v>
       </c>
       <c r="X5" s="4">
         <v>0</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="1">
         <v>0</v>
       </c>
       <c r="Z5" s="1" t="s">
@@ -4304,46 +4406,46 @@
     </row>
     <row r="6" spans="1:26" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="7">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G6" s="7">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
-        <v>108</v>
-      </c>
-      <c r="I6" s="3">
-        <v>63</v>
-      </c>
-      <c r="J6" s="3">
-        <v>240</v>
-      </c>
-      <c r="K6" s="3">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1">
-        <v>187</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3</v>
+        <v>216</v>
+      </c>
+      <c r="I6" s="7">
+        <v>126</v>
+      </c>
+      <c r="J6" s="7">
+        <v>480</v>
+      </c>
+      <c r="K6" s="7">
+        <v>45</v>
+      </c>
+      <c r="L6" s="5">
+        <v>184</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -4352,31 +4454,31 @@
         <v>0</v>
       </c>
       <c r="Q6" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="R6" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="S6" s="3">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="T6" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U6" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>14400</v>
+        <v>2</v>
+      </c>
+      <c r="W6" s="4">
+        <v>500000</v>
+      </c>
+      <c r="X6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>57600</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>31</v>
@@ -4384,46 +4486,46 @@
     </row>
     <row r="7" spans="1:26" ht="20" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
-        <v>144</v>
-      </c>
-      <c r="I7" s="3">
-        <v>84</v>
-      </c>
-      <c r="J7" s="3">
-        <v>320</v>
-      </c>
-      <c r="K7" s="3">
-        <v>40</v>
-      </c>
-      <c r="L7" s="1">
-        <v>204</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4</v>
+        <v>252</v>
+      </c>
+      <c r="I7" s="7">
+        <v>147</v>
+      </c>
+      <c r="J7" s="7">
+        <v>560</v>
+      </c>
+      <c r="K7" s="7">
+        <v>56</v>
+      </c>
+      <c r="L7" s="5">
+        <v>200</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="5">
+        <v>7</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -4432,31 +4534,31 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="R7" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="S7" s="3">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="T7" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U7" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7" s="4">
-        <v>200000</v>
-      </c>
-      <c r="X7" s="1">
-        <v>3400</v>
+        <v>1000000</v>
+      </c>
+      <c r="X7" s="4">
+        <v>11200</v>
       </c>
       <c r="Y7" s="4">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>31</v>
@@ -4464,46 +4566,46 @@
     </row>
     <row r="8" spans="1:26" ht="20" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
-        <v>72</v>
-      </c>
-      <c r="I8" s="3">
-        <v>42</v>
-      </c>
-      <c r="J8" s="3">
-        <v>160</v>
-      </c>
-      <c r="K8" s="3">
-        <v>25</v>
-      </c>
-      <c r="L8" s="1">
-        <v>170</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2</v>
+        <v>288</v>
+      </c>
+      <c r="I8" s="7">
+        <v>168</v>
+      </c>
+      <c r="J8" s="7">
+        <v>640</v>
+      </c>
+      <c r="K8" s="7">
+        <v>50</v>
+      </c>
+      <c r="L8" s="5">
+        <v>176</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>8</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -4512,30 +4614,30 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="R8" s="3">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="S8" s="3">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="T8" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U8" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="4">
+        <v>4</v>
+      </c>
+      <c r="W8" s="1">
         <v>0</v>
       </c>
       <c r="X8" s="4">
         <v>0</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="1">
         <v>0</v>
       </c>
       <c r="Z8" s="1" t="s">
@@ -4544,46 +4646,46 @@
     </row>
     <row r="9" spans="1:26" ht="20" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
-        <v>108</v>
-      </c>
-      <c r="I9" s="3">
-        <v>63</v>
-      </c>
-      <c r="J9" s="3">
-        <v>240</v>
-      </c>
-      <c r="K9" s="3">
-        <v>32</v>
-      </c>
-      <c r="L9" s="1">
-        <v>187</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3</v>
+        <v>324</v>
+      </c>
+      <c r="I9" s="7">
+        <v>189</v>
+      </c>
+      <c r="J9" s="7">
+        <v>720</v>
+      </c>
+      <c r="K9" s="7">
+        <v>65</v>
+      </c>
+      <c r="L9" s="5">
+        <v>192</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>9</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -4592,31 +4694,31 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="R9" s="3">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="S9" s="3">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="T9" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U9" s="1">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
-      </c>
-      <c r="W9" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X9" s="4">
-        <v>1000</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>14400</v>
+        <v>4</v>
+      </c>
+      <c r="W9" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="X9" s="1">
+        <v>18000</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>129600</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>31</v>
@@ -4624,46 +4726,46 @@
     </row>
     <row r="10" spans="1:26" ht="20" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
-        <v>144</v>
-      </c>
-      <c r="I10" s="3">
-        <v>84</v>
-      </c>
-      <c r="J10" s="3">
-        <v>320</v>
-      </c>
-      <c r="K10" s="3">
-        <v>40</v>
-      </c>
-      <c r="L10" s="1">
-        <v>204</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N10" s="1">
-        <v>4</v>
+        <v>360</v>
+      </c>
+      <c r="I10" s="7">
+        <v>210</v>
+      </c>
+      <c r="J10" s="7">
+        <v>800</v>
+      </c>
+      <c r="K10" s="7">
+        <v>80</v>
+      </c>
+      <c r="L10" s="5">
+        <v>208</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>10</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -4672,31 +4774,31 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="R10" s="3">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="S10" s="3">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="T10" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U10" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W10" s="4">
-        <v>200000</v>
-      </c>
-      <c r="X10" s="1">
-        <v>3400</v>
+        <v>5000000</v>
+      </c>
+      <c r="X10" s="4">
+        <v>22000</v>
       </c>
       <c r="Y10" s="4">
-        <v>28800</v>
+        <v>172800</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>31</v>
@@ -4704,45 +4806,45 @@
     </row>
     <row r="11" spans="1:26" ht="20" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
       </c>
       <c r="E11" s="7">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>96</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="7">
         <v>56</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="7">
         <v>120</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="7">
         <v>30</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="5">
         <v>140</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="5">
         <v>0.4</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="5">
         <v>2</v>
       </c>
       <c r="O11" s="1">
@@ -4752,13 +4854,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R11" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S11" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="T11" s="1">
         <v>10</v>
@@ -4769,13 +4871,13 @@
       <c r="V11" s="1">
         <v>1</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="1">
         <v>0</v>
       </c>
       <c r="X11" s="4">
         <v>0</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="1">
         <v>0</v>
       </c>
       <c r="Z11" s="1" t="s">
@@ -4784,45 +4886,45 @@
     </row>
     <row r="12" spans="1:26" ht="20" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
       </c>
       <c r="E12" s="7">
+        <v>96</v>
+      </c>
+      <c r="F12" s="7">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7">
         <v>120</v>
-      </c>
-      <c r="F12" s="7">
-        <v>40</v>
-      </c>
-      <c r="G12" s="7">
-        <v>200</v>
       </c>
       <c r="H12" s="7">
         <v>144</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="7">
         <v>84</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="7">
         <v>180</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="7">
         <v>39</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="5">
         <v>154</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="5">
         <v>0.4</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="5">
         <v>3</v>
       </c>
       <c r="O12" s="1">
@@ -4832,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="T12" s="1">
         <v>10</v>
@@ -4849,13 +4951,13 @@
       <c r="V12" s="1">
         <v>1</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="4">
         <v>100000</v>
       </c>
-      <c r="X12" s="4">
-        <v>1600</v>
-      </c>
-      <c r="Y12" s="1">
+      <c r="X12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Y12" s="4">
         <v>14400</v>
       </c>
       <c r="Z12" s="1" t="s">
@@ -4864,45 +4966,45 @@
     </row>
     <row r="13" spans="1:26" ht="20" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
         <v>4</v>
       </c>
       <c r="E13" s="7">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>192</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="7">
         <v>112</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="7">
         <v>240</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="7">
         <v>48</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="5">
         <v>168</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="5">
         <v>0.4</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="5">
         <v>4</v>
       </c>
       <c r="O13" s="1">
@@ -4912,13 +5014,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R13" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S13" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="T13" s="1">
         <v>10</v>
@@ -4932,8 +5034,8 @@
       <c r="W13" s="4">
         <v>200000</v>
       </c>
-      <c r="X13" s="1">
-        <v>4000</v>
+      <c r="X13" s="4">
+        <v>4400</v>
       </c>
       <c r="Y13" s="4">
         <v>28800</v>
@@ -4944,46 +5046,46 @@
     </row>
     <row r="14" spans="1:26" ht="20" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="7">
+        <v>160</v>
+      </c>
+      <c r="F14" s="7">
         <v>120</v>
-      </c>
-      <c r="F14" s="7">
-        <v>40</v>
       </c>
       <c r="G14" s="7">
         <v>200</v>
       </c>
       <c r="H14" s="7">
-        <v>96</v>
-      </c>
-      <c r="I14" s="3">
-        <v>56</v>
-      </c>
-      <c r="J14" s="3">
-        <v>120</v>
-      </c>
-      <c r="K14" s="3">
-        <v>30</v>
-      </c>
-      <c r="L14" s="1">
+        <v>240</v>
+      </c>
+      <c r="I14" s="7">
         <v>140</v>
       </c>
-      <c r="M14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N14" s="1">
-        <v>2</v>
+      <c r="J14" s="7">
+        <v>300</v>
+      </c>
+      <c r="K14" s="7">
+        <v>42</v>
+      </c>
+      <c r="L14" s="5">
+        <v>147</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N14" s="5">
+        <v>5</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -4992,30 +5094,30 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R14" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S14" s="3">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="T14" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U14" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="4">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1">
         <v>0</v>
       </c>
       <c r="X14" s="4">
         <v>0</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="1">
         <v>0</v>
       </c>
       <c r="Z14" s="1" t="s">
@@ -5024,46 +5126,46 @@
     </row>
     <row r="15" spans="1:26" ht="20" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="F15" s="7">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="G15" s="7">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H15" s="7">
-        <v>144</v>
-      </c>
-      <c r="I15" s="3">
-        <v>84</v>
-      </c>
-      <c r="J15" s="3">
-        <v>180</v>
-      </c>
-      <c r="K15" s="3">
-        <v>39</v>
-      </c>
-      <c r="L15" s="1">
-        <v>154</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N15" s="1">
-        <v>3</v>
+        <v>288</v>
+      </c>
+      <c r="I15" s="7">
+        <v>168</v>
+      </c>
+      <c r="J15" s="7">
+        <v>360</v>
+      </c>
+      <c r="K15" s="7">
+        <v>54</v>
+      </c>
+      <c r="L15" s="5">
+        <v>161</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N15" s="5">
+        <v>6</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
@@ -5072,31 +5174,31 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S15" s="3">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="T15" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U15" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V15" s="1">
-        <v>1</v>
-      </c>
-      <c r="W15" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X15" s="4">
-        <v>1600</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>14400</v>
+        <v>2</v>
+      </c>
+      <c r="W15" s="4">
+        <v>500000</v>
+      </c>
+      <c r="X15" s="1">
+        <v>8800</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>57600</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>31</v>
@@ -5104,46 +5206,46 @@
     </row>
     <row r="16" spans="1:26" ht="20" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" s="7">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
-        <v>192</v>
-      </c>
-      <c r="I16" s="3">
-        <v>112</v>
-      </c>
-      <c r="J16" s="3">
-        <v>240</v>
-      </c>
-      <c r="K16" s="3">
-        <v>48</v>
-      </c>
-      <c r="L16" s="1">
-        <v>168</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4</v>
+        <v>336</v>
+      </c>
+      <c r="I16" s="7">
+        <v>196</v>
+      </c>
+      <c r="J16" s="7">
+        <v>420</v>
+      </c>
+      <c r="K16" s="7">
+        <v>66</v>
+      </c>
+      <c r="L16" s="5">
+        <v>175</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N16" s="5">
+        <v>7</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -5152,31 +5254,31 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R16" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S16" s="3">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="T16" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U16" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16" s="4">
-        <v>200000</v>
-      </c>
-      <c r="X16" s="1">
-        <v>4000</v>
+        <v>1000000</v>
+      </c>
+      <c r="X16" s="4">
+        <v>12000</v>
       </c>
       <c r="Y16" s="4">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>31</v>
@@ -5184,46 +5286,46 @@
     </row>
     <row r="17" spans="1:26" ht="20" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="5">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17" s="7">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
-        <v>96</v>
-      </c>
-      <c r="I17" s="3">
-        <v>56</v>
-      </c>
-      <c r="J17" s="3">
-        <v>120</v>
-      </c>
-      <c r="K17" s="3">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1">
-        <v>140</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2</v>
+        <v>384</v>
+      </c>
+      <c r="I17" s="7">
+        <v>224</v>
+      </c>
+      <c r="J17" s="7">
+        <v>480</v>
+      </c>
+      <c r="K17" s="7">
+        <v>60</v>
+      </c>
+      <c r="L17" s="5">
+        <v>154</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N17" s="5">
+        <v>8</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -5232,30 +5334,30 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>120</v>
+      </c>
+      <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
+        <v>480</v>
+      </c>
+      <c r="T17" s="1">
+        <v>20</v>
+      </c>
+      <c r="U17" s="1">
         <v>40</v>
       </c>
-      <c r="R17" s="3">
-        <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>160</v>
-      </c>
-      <c r="T17" s="1">
-        <v>10</v>
-      </c>
-      <c r="U17" s="1">
-        <v>10</v>
-      </c>
       <c r="V17" s="1">
-        <v>1</v>
-      </c>
-      <c r="W17" s="4">
+        <v>4</v>
+      </c>
+      <c r="W17" s="1">
         <v>0</v>
       </c>
       <c r="X17" s="4">
         <v>0</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="1">
         <v>0</v>
       </c>
       <c r="Z17" s="1" t="s">
@@ -5264,46 +5366,46 @@
     </row>
     <row r="18" spans="1:26" ht="20" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="5">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="G18" s="7">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="H18" s="7">
-        <v>144</v>
-      </c>
-      <c r="I18" s="3">
-        <v>84</v>
-      </c>
-      <c r="J18" s="3">
-        <v>180</v>
-      </c>
-      <c r="K18" s="3">
-        <v>39</v>
-      </c>
-      <c r="L18" s="1">
-        <v>154</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N18" s="1">
-        <v>3</v>
+        <v>432</v>
+      </c>
+      <c r="I18" s="7">
+        <v>252</v>
+      </c>
+      <c r="J18" s="7">
+        <v>540</v>
+      </c>
+      <c r="K18" s="7">
+        <v>78</v>
+      </c>
+      <c r="L18" s="5">
+        <v>168</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N18" s="5">
+        <v>9</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -5312,31 +5414,31 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="R18" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="S18" s="3">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="T18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U18" s="1">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
-      </c>
-      <c r="W18" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X18" s="4">
-        <v>1600</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>14400</v>
+        <v>4</v>
+      </c>
+      <c r="W18" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="X18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>129600</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>31</v>
@@ -5344,46 +5446,46 @@
     </row>
     <row r="19" spans="1:26" ht="20" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="5">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E19" s="7">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="G19" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
-        <v>192</v>
-      </c>
-      <c r="I19" s="3">
-        <v>112</v>
-      </c>
-      <c r="J19" s="3">
-        <v>240</v>
-      </c>
-      <c r="K19" s="3">
-        <v>48</v>
-      </c>
-      <c r="L19" s="1">
-        <v>168</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N19" s="1">
-        <v>4</v>
+        <v>480</v>
+      </c>
+      <c r="I19" s="7">
+        <v>280</v>
+      </c>
+      <c r="J19" s="7">
+        <v>600</v>
+      </c>
+      <c r="K19" s="7">
+        <v>96</v>
+      </c>
+      <c r="L19" s="5">
+        <v>182</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N19" s="5">
+        <v>10</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
@@ -5392,31 +5494,31 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="R19" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="S19" s="3">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="T19" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U19" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W19" s="4">
-        <v>200000</v>
-      </c>
-      <c r="X19" s="1">
-        <v>4000</v>
+        <v>5000000</v>
+      </c>
+      <c r="X19" s="4">
+        <v>24000</v>
       </c>
       <c r="Y19" s="4">
-        <v>28800</v>
+        <v>172800</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>31</v>
@@ -5424,61 +5526,61 @@
     </row>
     <row r="20" spans="1:26" ht="20" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
       </c>
       <c r="E20" s="7">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="7">
         <v>40</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="7">
         <v>120</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="7">
         <v>20</v>
       </c>
-      <c r="L20" s="1">
-        <v>160</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="L20" s="5">
+        <v>170</v>
+      </c>
+      <c r="M20" s="5">
         <v>0.4</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="5">
         <v>2</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
       </c>
       <c r="P20" s="3">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>60</v>
+      </c>
+      <c r="S20" s="3">
         <v>80</v>
-      </c>
-      <c r="S20" s="3">
-        <v>160</v>
       </c>
       <c r="T20" s="1">
         <v>10</v>
@@ -5489,13 +5591,13 @@
       <c r="V20" s="1">
         <v>1</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="1">
         <v>0</v>
       </c>
       <c r="X20" s="4">
         <v>0</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y20" s="1">
         <v>0</v>
       </c>
       <c r="Z20" s="1" t="s">
@@ -5504,61 +5606,61 @@
     </row>
     <row r="21" spans="1:26" ht="20" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
         <v>3</v>
       </c>
       <c r="E21" s="7">
-        <v>120</v>
-      </c>
-      <c r="F21" s="9">
-        <v>120</v>
+        <v>144</v>
+      </c>
+      <c r="F21" s="7">
+        <v>96</v>
       </c>
       <c r="G21" s="7">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="7">
         <v>60</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="7">
         <v>180</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="7">
         <v>26</v>
       </c>
-      <c r="L21" s="1">
-        <v>176</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="L21" s="5">
+        <v>188</v>
+      </c>
+      <c r="M21" s="5">
         <v>0.4</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="5">
         <v>3</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
       </c>
       <c r="P21" s="3">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>60</v>
+      </c>
+      <c r="S21" s="3">
         <v>80</v>
-      </c>
-      <c r="S21" s="3">
-        <v>160</v>
       </c>
       <c r="T21" s="1">
         <v>10</v>
@@ -5569,13 +5671,13 @@
       <c r="V21" s="1">
         <v>1</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="4">
         <v>100000</v>
       </c>
-      <c r="X21" s="4">
-        <v>1300</v>
-      </c>
-      <c r="Y21" s="1">
+      <c r="X21" s="1">
+        <v>1400</v>
+      </c>
+      <c r="Y21" s="4">
         <v>14400</v>
       </c>
       <c r="Z21" s="1" t="s">
@@ -5584,61 +5686,61 @@
     </row>
     <row r="22" spans="1:26" ht="20" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
         <v>4</v>
       </c>
       <c r="E22" s="7">
-        <v>120</v>
-      </c>
-      <c r="F22" s="9">
-        <v>120</v>
+        <v>192</v>
+      </c>
+      <c r="F22" s="7">
+        <v>128</v>
       </c>
       <c r="G22" s="7">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>160</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="7">
         <v>80</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="7">
         <v>240</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="7">
         <v>32</v>
       </c>
-      <c r="L22" s="1">
-        <v>192</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="L22" s="5">
+        <v>204</v>
+      </c>
+      <c r="M22" s="5">
         <v>0.4</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="5">
         <v>4</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
       </c>
       <c r="P22" s="3">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>60</v>
+      </c>
+      <c r="S22" s="3">
         <v>80</v>
-      </c>
-      <c r="S22" s="3">
-        <v>160</v>
       </c>
       <c r="T22" s="1">
         <v>10</v>
@@ -5652,8 +5754,8 @@
       <c r="W22" s="4">
         <v>200000</v>
       </c>
-      <c r="X22" s="1">
-        <v>3700</v>
+      <c r="X22" s="4">
+        <v>3800</v>
       </c>
       <c r="Y22" s="4">
         <v>28800</v>
@@ -5664,78 +5766,78 @@
     </row>
     <row r="23" spans="1:26" ht="20" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="7">
-        <v>120</v>
-      </c>
-      <c r="F23" s="9">
-        <v>120</v>
+        <v>240</v>
+      </c>
+      <c r="F23" s="7">
+        <v>160</v>
       </c>
       <c r="G23" s="7">
         <v>120</v>
       </c>
       <c r="H23" s="7">
-        <v>80</v>
-      </c>
-      <c r="I23" s="3">
-        <v>40</v>
-      </c>
-      <c r="J23" s="3">
-        <v>120</v>
-      </c>
-      <c r="K23" s="3">
-        <v>20</v>
-      </c>
-      <c r="L23" s="1">
-        <v>160</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N23" s="1">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="I23" s="7">
+        <v>100</v>
+      </c>
+      <c r="J23" s="7">
+        <v>300</v>
+      </c>
+      <c r="K23" s="7">
+        <v>28</v>
+      </c>
+      <c r="L23" s="5">
+        <v>179</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N23" s="5">
+        <v>5</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
       </c>
       <c r="P23" s="3">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="S23" s="3">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="T23" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U23" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
-      </c>
-      <c r="W23" s="4">
+        <v>2</v>
+      </c>
+      <c r="W23" s="1">
         <v>0</v>
       </c>
       <c r="X23" s="4">
         <v>0</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y23" s="1">
         <v>0</v>
       </c>
       <c r="Z23" s="1" t="s">
@@ -5744,79 +5846,79 @@
     </row>
     <row r="24" spans="1:26" ht="20" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" s="7">
+        <v>288</v>
+      </c>
+      <c r="F24" s="7">
+        <v>192</v>
+      </c>
+      <c r="G24" s="7">
+        <v>144</v>
+      </c>
+      <c r="H24" s="5">
+        <v>240</v>
+      </c>
+      <c r="I24" s="7">
         <v>120</v>
       </c>
-      <c r="F24" s="9">
-        <v>120</v>
-      </c>
-      <c r="G24" s="7">
-        <v>120</v>
-      </c>
-      <c r="H24" s="7">
-        <v>120</v>
-      </c>
-      <c r="I24" s="3">
-        <v>60</v>
-      </c>
-      <c r="J24" s="3">
-        <v>180</v>
-      </c>
-      <c r="K24" s="3">
-        <v>26</v>
-      </c>
-      <c r="L24" s="1">
-        <v>176</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N24" s="1">
-        <v>3</v>
+      <c r="J24" s="7">
+        <v>360</v>
+      </c>
+      <c r="K24" s="7">
+        <v>36</v>
+      </c>
+      <c r="L24" s="5">
+        <v>196</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N24" s="5">
+        <v>6</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
       </c>
       <c r="P24" s="3">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="S24" s="3">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="T24" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U24" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V24" s="1">
-        <v>1</v>
-      </c>
-      <c r="W24" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X24" s="4">
-        <v>1300</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>14400</v>
+        <v>2</v>
+      </c>
+      <c r="W24" s="4">
+        <v>500000</v>
+      </c>
+      <c r="X24" s="1">
+        <v>8000</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>57600</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>32</v>
@@ -5824,79 +5926,79 @@
     </row>
     <row r="25" spans="1:26" ht="20" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25" s="7">
-        <v>120</v>
-      </c>
-      <c r="F25" s="9">
-        <v>120</v>
+        <v>336</v>
+      </c>
+      <c r="F25" s="8">
+        <v>224</v>
       </c>
       <c r="G25" s="7">
-        <v>120</v>
-      </c>
-      <c r="H25" s="7">
-        <v>160</v>
-      </c>
-      <c r="I25" s="3">
-        <v>80</v>
-      </c>
-      <c r="J25" s="3">
-        <v>240</v>
-      </c>
-      <c r="K25" s="3">
-        <v>32</v>
-      </c>
-      <c r="L25" s="1">
-        <v>192</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N25" s="1">
-        <v>4</v>
+        <v>168</v>
+      </c>
+      <c r="H25" s="5">
+        <v>280</v>
+      </c>
+      <c r="I25" s="5">
+        <v>140</v>
+      </c>
+      <c r="J25" s="7">
+        <v>420</v>
+      </c>
+      <c r="K25" s="7">
+        <v>44</v>
+      </c>
+      <c r="L25" s="5">
+        <v>213</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N25" s="5">
+        <v>7</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
       </c>
       <c r="P25" s="3">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="S25" s="3">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="T25" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U25" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25" s="4">
-        <v>200000</v>
-      </c>
-      <c r="X25" s="1">
-        <v>3700</v>
+        <v>1000000</v>
+      </c>
+      <c r="X25" s="4">
+        <v>11200</v>
       </c>
       <c r="Y25" s="4">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>32</v>
@@ -5904,78 +6006,78 @@
     </row>
     <row r="26" spans="1:26" ht="20" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D26" s="7">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7">
-        <v>120</v>
-      </c>
-      <c r="F26" s="9">
-        <v>120</v>
-      </c>
-      <c r="G26" s="7">
-        <v>120</v>
-      </c>
-      <c r="H26" s="7">
-        <v>80</v>
-      </c>
-      <c r="I26" s="3">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8">
+        <v>384</v>
+      </c>
+      <c r="F26" s="8">
+        <v>256</v>
+      </c>
+      <c r="G26" s="5">
+        <v>192</v>
+      </c>
+      <c r="H26" s="5">
+        <v>320</v>
+      </c>
+      <c r="I26" s="5">
+        <v>160</v>
+      </c>
+      <c r="J26" s="5">
+        <v>480</v>
+      </c>
+      <c r="K26" s="5">
         <v>40</v>
       </c>
-      <c r="J26" s="3">
-        <v>120</v>
-      </c>
-      <c r="K26" s="3">
-        <v>20</v>
-      </c>
-      <c r="L26" s="1">
-        <v>160</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N26" s="1">
-        <v>2</v>
+      <c r="L26" s="5">
+        <v>188</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N26" s="5">
+        <v>8</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
       </c>
       <c r="P26" s="3">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="S26" s="3">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="T26" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U26" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="V26" s="1">
-        <v>1</v>
-      </c>
-      <c r="W26" s="4">
+        <v>4</v>
+      </c>
+      <c r="W26" s="1">
         <v>0</v>
       </c>
       <c r="X26" s="4">
         <v>0</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y26" s="1">
         <v>0</v>
       </c>
       <c r="Z26" s="1" t="s">
@@ -5984,79 +6086,79 @@
     </row>
     <row r="27" spans="1:26" ht="20" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D27" s="7">
-        <v>3</v>
-      </c>
-      <c r="E27" s="7">
-        <v>120</v>
-      </c>
-      <c r="F27" s="9">
-        <v>120</v>
-      </c>
-      <c r="G27" s="7">
-        <v>120</v>
-      </c>
-      <c r="H27" s="7">
-        <v>120</v>
-      </c>
-      <c r="I27" s="3">
-        <v>60</v>
-      </c>
-      <c r="J27" s="3">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8">
+        <v>432</v>
+      </c>
+      <c r="F27" s="8">
+        <v>288</v>
+      </c>
+      <c r="G27" s="5">
+        <v>216</v>
+      </c>
+      <c r="H27" s="5">
+        <v>360</v>
+      </c>
+      <c r="I27" s="5">
         <v>180</v>
       </c>
-      <c r="K27" s="3">
-        <v>26</v>
-      </c>
-      <c r="L27" s="1">
-        <v>176</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N27" s="1">
-        <v>3</v>
+      <c r="J27" s="5">
+        <v>540</v>
+      </c>
+      <c r="K27" s="5">
+        <v>52</v>
+      </c>
+      <c r="L27" s="5">
+        <v>204</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N27" s="5">
+        <v>9</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
       </c>
       <c r="P27" s="3">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="S27" s="3">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="T27" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U27" s="1">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="V27" s="1">
-        <v>1</v>
-      </c>
-      <c r="W27" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X27" s="4">
-        <v>1300</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>14400</v>
+        <v>4</v>
+      </c>
+      <c r="W27" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="X27" s="1">
+        <v>18000</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>129600</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>32</v>
@@ -6064,79 +6166,79 @@
     </row>
     <row r="28" spans="1:26" ht="20" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D28" s="7">
-        <v>4</v>
-      </c>
-      <c r="E28" s="7">
-        <v>120</v>
-      </c>
-      <c r="F28" s="9">
-        <v>120</v>
-      </c>
-      <c r="G28" s="7">
-        <v>120</v>
-      </c>
-      <c r="H28" s="7">
-        <v>160</v>
-      </c>
-      <c r="I28" s="3">
-        <v>80</v>
-      </c>
-      <c r="J28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5">
+        <v>480</v>
+      </c>
+      <c r="F28" s="5">
+        <v>320</v>
+      </c>
+      <c r="G28" s="5">
         <v>240</v>
       </c>
-      <c r="K28" s="3">
-        <v>32</v>
-      </c>
-      <c r="L28" s="1">
-        <v>192</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N28" s="1">
-        <v>4</v>
+      <c r="H28" s="5">
+        <v>400</v>
+      </c>
+      <c r="I28" s="5">
+        <v>200</v>
+      </c>
+      <c r="J28" s="5">
+        <v>600</v>
+      </c>
+      <c r="K28" s="5">
+        <v>64</v>
+      </c>
+      <c r="L28" s="5">
+        <v>221</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N28" s="5">
+        <v>10</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
       </c>
       <c r="P28" s="3">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="S28" s="3">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="T28" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U28" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W28" s="4">
-        <v>200000</v>
-      </c>
-      <c r="X28" s="1">
-        <v>3700</v>
+        <v>5000000</v>
+      </c>
+      <c r="X28" s="4">
+        <v>22000</v>
       </c>
       <c r="Y28" s="4">
-        <v>28800</v>
+        <v>172800</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>32</v>
@@ -6144,61 +6246,61 @@
     </row>
     <row r="29" spans="1:26" ht="20" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
+        <v>120</v>
+      </c>
+      <c r="F29" s="5">
         <v>80</v>
       </c>
-      <c r="F29" s="7">
-        <v>120</v>
-      </c>
-      <c r="G29" s="7">
-        <v>160</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="G29" s="5">
+        <v>60</v>
+      </c>
+      <c r="H29" s="5">
         <v>100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="5">
         <v>50</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="5">
         <v>96</v>
       </c>
-      <c r="K29" s="3">
-        <v>22</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="K29" s="5">
+        <v>25</v>
+      </c>
+      <c r="L29" s="5">
         <v>150</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="5">
         <v>0.4</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="5">
         <v>2</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
       </c>
       <c r="P29" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>80</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>160</v>
-      </c>
       <c r="S29" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="T29" s="1">
         <v>10</v>
@@ -6209,13 +6311,13 @@
       <c r="V29" s="1">
         <v>1</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W29" s="1">
         <v>0</v>
       </c>
       <c r="X29" s="4">
         <v>0</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="Y29" s="1">
         <v>0</v>
       </c>
       <c r="Z29" s="1" t="s">
@@ -6224,61 +6326,61 @@
     </row>
     <row r="30" spans="1:26" ht="20" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
         <v>3</v>
       </c>
-      <c r="E30" s="7">
-        <v>80</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="E30" s="8">
+        <v>180</v>
+      </c>
+      <c r="F30" s="8">
         <v>120</v>
       </c>
-      <c r="G30" s="7">
-        <v>160</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="5">
+        <v>90</v>
+      </c>
+      <c r="H30" s="5">
         <v>150</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="5">
         <v>75</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="5">
         <v>144</v>
       </c>
-      <c r="K30" s="3">
-        <v>28</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="K30" s="5">
+        <v>33</v>
+      </c>
+      <c r="L30" s="5">
         <v>165</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="5">
         <v>0.4</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="5">
         <v>3</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
         <v>80</v>
       </c>
-      <c r="Q30" s="3">
-        <v>0</v>
-      </c>
-      <c r="R30" s="3">
-        <v>160</v>
-      </c>
-      <c r="S30" s="3">
-        <v>160</v>
+      <c r="S30" s="1">
+        <v>80</v>
       </c>
       <c r="T30" s="1">
         <v>10</v>
@@ -6292,8 +6394,8 @@
       <c r="W30" s="1">
         <v>100000</v>
       </c>
-      <c r="X30" s="4">
-        <v>1900</v>
+      <c r="X30" s="1">
+        <v>2000</v>
       </c>
       <c r="Y30" s="1">
         <v>14400</v>
@@ -6304,61 +6406,61 @@
     </row>
     <row r="31" spans="1:26" ht="20" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D31" s="7">
         <v>4</v>
       </c>
-      <c r="E31" s="7">
-        <v>80</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="E31" s="8">
+        <v>240</v>
+      </c>
+      <c r="F31" s="8">
+        <v>160</v>
+      </c>
+      <c r="G31" s="5">
         <v>120</v>
       </c>
-      <c r="G31" s="7">
-        <v>160</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>200</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="5">
         <v>100</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="5">
         <v>192</v>
       </c>
-      <c r="K31" s="3">
-        <v>35</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="K31" s="5">
+        <v>40</v>
+      </c>
+      <c r="L31" s="5">
         <v>180</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="5">
         <v>0.4</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="5">
         <v>4</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
         <v>80</v>
       </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
-        <v>160</v>
-      </c>
-      <c r="S31" s="3">
-        <v>160</v>
+      <c r="S31" s="1">
+        <v>80</v>
       </c>
       <c r="T31" s="1">
         <v>10</v>
@@ -6369,13 +6471,13 @@
       <c r="V31" s="1">
         <v>1</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W31" s="1">
         <v>200000</v>
       </c>
       <c r="X31" s="1">
-        <v>4300</v>
-      </c>
-      <c r="Y31" s="4">
+        <v>4400</v>
+      </c>
+      <c r="Y31" s="1">
         <v>28800</v>
       </c>
       <c r="Z31" s="1" t="s">
@@ -6384,78 +6486,78 @@
     </row>
     <row r="32" spans="1:26" ht="20" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7">
-        <v>80</v>
-      </c>
-      <c r="F32" s="9">
-        <v>120</v>
-      </c>
-      <c r="G32" s="7">
-        <v>160</v>
-      </c>
-      <c r="H32" s="7">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>50</v>
-      </c>
-      <c r="J32" s="3">
-        <v>96</v>
-      </c>
-      <c r="K32" s="3">
-        <v>22</v>
-      </c>
-      <c r="L32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8">
+        <v>300</v>
+      </c>
+      <c r="F32" s="8">
+        <v>200</v>
+      </c>
+      <c r="G32" s="5">
         <v>150</v>
       </c>
-      <c r="M32" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N32" s="1">
-        <v>2</v>
+      <c r="H32" s="5">
+        <v>250</v>
+      </c>
+      <c r="I32" s="5">
+        <v>125</v>
+      </c>
+      <c r="J32" s="5">
+        <v>240</v>
+      </c>
+      <c r="K32" s="5">
+        <v>35</v>
+      </c>
+      <c r="L32" s="5">
+        <v>158</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N32" s="5">
+        <v>5</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
       </c>
-      <c r="P32" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>160</v>
-      </c>
-      <c r="S32" s="3">
-        <v>160</v>
+      <c r="P32" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>240</v>
+      </c>
+      <c r="S32" s="1">
+        <v>240</v>
       </c>
       <c r="T32" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U32" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V32" s="1">
-        <v>1</v>
-      </c>
-      <c r="W32" s="4">
-        <v>0</v>
-      </c>
-      <c r="X32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="4">
+        <v>2</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
         <v>0</v>
       </c>
       <c r="Z32" s="1" t="s">
@@ -6464,79 +6566,79 @@
     </row>
     <row r="33" spans="1:26" ht="20" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D33" s="7">
-        <v>3</v>
-      </c>
-      <c r="E33" s="7">
-        <v>80</v>
-      </c>
-      <c r="F33" s="9">
-        <v>120</v>
-      </c>
-      <c r="G33" s="7">
-        <v>160</v>
-      </c>
-      <c r="H33" s="7">
+        <v>6</v>
+      </c>
+      <c r="E33" s="8">
+        <v>360</v>
+      </c>
+      <c r="F33" s="8">
+        <v>240</v>
+      </c>
+      <c r="G33" s="5">
+        <v>180</v>
+      </c>
+      <c r="H33" s="5">
+        <v>300</v>
+      </c>
+      <c r="I33" s="5">
         <v>150</v>
       </c>
-      <c r="I33" s="3">
-        <v>75</v>
-      </c>
-      <c r="J33" s="3">
-        <v>144</v>
-      </c>
-      <c r="K33" s="3">
-        <v>28</v>
-      </c>
-      <c r="L33" s="1">
-        <v>165</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N33" s="1">
-        <v>3</v>
+      <c r="J33" s="5">
+        <v>288</v>
+      </c>
+      <c r="K33" s="5">
+        <v>45</v>
+      </c>
+      <c r="L33" s="5">
+        <v>173</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N33" s="5">
+        <v>6</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
       </c>
-      <c r="P33" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>160</v>
-      </c>
-      <c r="S33" s="3">
-        <v>160</v>
+      <c r="P33" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>240</v>
+      </c>
+      <c r="S33" s="1">
+        <v>240</v>
       </c>
       <c r="T33" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U33" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X33" s="4">
-        <v>1900</v>
+        <v>500000</v>
+      </c>
+      <c r="X33" s="1">
+        <v>8800</v>
       </c>
       <c r="Y33" s="1">
-        <v>14400</v>
+        <v>57600</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>32</v>
@@ -6544,79 +6646,79 @@
     </row>
     <row r="34" spans="1:26" ht="20" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D34" s="7">
-        <v>4</v>
-      </c>
-      <c r="E34" s="7">
-        <v>80</v>
-      </c>
-      <c r="F34" s="9">
-        <v>120</v>
-      </c>
-      <c r="G34" s="7">
-        <v>160</v>
-      </c>
-      <c r="H34" s="7">
-        <v>200</v>
-      </c>
-      <c r="I34" s="3">
-        <v>100</v>
-      </c>
-      <c r="J34" s="3">
-        <v>192</v>
-      </c>
-      <c r="K34" s="3">
-        <v>35</v>
-      </c>
-      <c r="L34" s="1">
-        <v>180</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N34" s="1">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="E34" s="8">
+        <v>420</v>
+      </c>
+      <c r="F34" s="8">
+        <v>280</v>
+      </c>
+      <c r="G34" s="5">
+        <v>210</v>
+      </c>
+      <c r="H34" s="5">
+        <v>350</v>
+      </c>
+      <c r="I34" s="5">
+        <v>175</v>
+      </c>
+      <c r="J34" s="5">
+        <v>336</v>
+      </c>
+      <c r="K34" s="5">
+        <v>56</v>
+      </c>
+      <c r="L34" s="5">
+        <v>188</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N34" s="5">
+        <v>7</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
       </c>
-      <c r="P34" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3">
-        <v>160</v>
-      </c>
-      <c r="S34" s="3">
-        <v>160</v>
+      <c r="P34" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>240</v>
+      </c>
+      <c r="S34" s="1">
+        <v>240</v>
       </c>
       <c r="T34" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U34" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="V34" s="1">
-        <v>1</v>
-      </c>
-      <c r="W34" s="4">
-        <v>200000</v>
+        <v>2</v>
+      </c>
+      <c r="W34" s="1">
+        <v>1000000</v>
       </c>
       <c r="X34" s="1">
-        <v>4300</v>
-      </c>
-      <c r="Y34" s="4">
-        <v>28800</v>
+        <v>12000</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>86400</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>32</v>
@@ -6624,78 +6726,78 @@
     </row>
     <row r="35" spans="1:26" ht="20" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="5">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D35" s="7">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7">
-        <v>80</v>
-      </c>
-      <c r="F35" s="9">
-        <v>120</v>
-      </c>
-      <c r="G35" s="7">
-        <v>160</v>
-      </c>
-      <c r="H35" s="7">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
+        <v>8</v>
+      </c>
+      <c r="E35" s="8">
+        <v>480</v>
+      </c>
+      <c r="F35" s="8">
+        <v>320</v>
+      </c>
+      <c r="G35" s="5">
+        <v>240</v>
+      </c>
+      <c r="H35" s="5">
+        <v>400</v>
+      </c>
+      <c r="I35" s="5">
+        <v>200</v>
+      </c>
+      <c r="J35" s="5">
+        <v>384</v>
+      </c>
+      <c r="K35" s="5">
         <v>50</v>
       </c>
-      <c r="J35" s="3">
-        <v>96</v>
-      </c>
-      <c r="K35" s="3">
-        <v>22</v>
-      </c>
-      <c r="L35" s="1">
-        <v>150</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N35" s="1">
-        <v>2</v>
+      <c r="L35" s="5">
+        <v>165</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N35" s="5">
+        <v>8</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
       </c>
-      <c r="P35" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>160</v>
-      </c>
-      <c r="S35" s="3">
-        <v>160</v>
+      <c r="P35" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>480</v>
+      </c>
+      <c r="S35" s="1">
+        <v>480</v>
       </c>
       <c r="T35" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U35" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="V35" s="1">
-        <v>1</v>
-      </c>
-      <c r="W35" s="4">
-        <v>0</v>
-      </c>
-      <c r="X35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="4">
+        <v>4</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
         <v>0</v>
       </c>
       <c r="Z35" s="1" t="s">
@@ -6704,79 +6806,79 @@
     </row>
     <row r="36" spans="1:26" ht="20" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="5">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D36" s="7">
-        <v>3</v>
-      </c>
-      <c r="E36" s="7">
-        <v>80</v>
-      </c>
-      <c r="F36" s="9">
-        <v>120</v>
-      </c>
-      <c r="G36" s="7">
-        <v>160</v>
-      </c>
-      <c r="H36" s="7">
-        <v>150</v>
-      </c>
-      <c r="I36" s="3">
-        <v>75</v>
-      </c>
-      <c r="J36" s="3">
-        <v>144</v>
-      </c>
-      <c r="K36" s="3">
-        <v>28</v>
-      </c>
-      <c r="L36" s="1">
-        <v>165</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N36" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E36" s="8">
+        <v>540</v>
+      </c>
+      <c r="F36" s="8">
+        <v>360</v>
+      </c>
+      <c r="G36" s="5">
+        <v>270</v>
+      </c>
+      <c r="H36" s="5">
+        <v>450</v>
+      </c>
+      <c r="I36" s="5">
+        <v>225</v>
+      </c>
+      <c r="J36" s="5">
+        <v>432</v>
+      </c>
+      <c r="K36" s="5">
+        <v>65</v>
+      </c>
+      <c r="L36" s="5">
+        <v>180</v>
+      </c>
+      <c r="M36" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N36" s="5">
+        <v>9</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
       </c>
-      <c r="P36" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3">
-        <v>160</v>
-      </c>
-      <c r="S36" s="3">
-        <v>160</v>
+      <c r="P36" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>480</v>
+      </c>
+      <c r="S36" s="1">
+        <v>480</v>
       </c>
       <c r="T36" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U36" s="1">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="V36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W36" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X36" s="4">
-        <v>1900</v>
+        <v>2000000</v>
+      </c>
+      <c r="X36" s="1">
+        <v>20000</v>
       </c>
       <c r="Y36" s="1">
-        <v>14400</v>
+        <v>129600</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>32</v>
@@ -6784,79 +6886,79 @@
     </row>
     <row r="37" spans="1:26" ht="20" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="5">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D37" s="7">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5">
+        <v>600</v>
+      </c>
+      <c r="F37" s="5">
+        <v>400</v>
+      </c>
+      <c r="G37" s="5">
+        <v>300</v>
+      </c>
+      <c r="H37" s="5">
+        <v>500</v>
+      </c>
+      <c r="I37" s="5">
+        <v>250</v>
+      </c>
+      <c r="J37" s="5">
+        <v>480</v>
+      </c>
+      <c r="K37" s="5">
         <v>80</v>
       </c>
-      <c r="F37" s="9">
-        <v>120</v>
-      </c>
-      <c r="G37" s="7">
-        <v>160</v>
-      </c>
-      <c r="H37" s="7">
-        <v>200</v>
-      </c>
-      <c r="I37" s="3">
-        <v>100</v>
-      </c>
-      <c r="J37" s="3">
-        <v>192</v>
-      </c>
-      <c r="K37" s="3">
-        <v>35</v>
-      </c>
-      <c r="L37" s="1">
-        <v>180</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N37" s="1">
-        <v>4</v>
+      <c r="L37" s="5">
+        <v>195</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N37" s="5">
+        <v>10</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
       </c>
-      <c r="P37" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
-        <v>160</v>
-      </c>
-      <c r="S37" s="3">
-        <v>160</v>
+      <c r="P37" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>480</v>
+      </c>
+      <c r="S37" s="1">
+        <v>480</v>
       </c>
       <c r="T37" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U37" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V37" s="1">
-        <v>1</v>
-      </c>
-      <c r="W37" s="4">
-        <v>200000</v>
+        <v>4</v>
+      </c>
+      <c r="W37" s="1">
+        <v>5000000</v>
       </c>
       <c r="X37" s="1">
-        <v>4300</v>
-      </c>
-      <c r="Y37" s="4">
-        <v>28800</v>
+        <v>24000</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>172800</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>32</v>
@@ -6864,61 +6966,61 @@
     </row>
     <row r="38" spans="1:26" ht="20" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
         <v>4</v>
       </c>
-      <c r="E38" s="7">
-        <v>120</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="D38" s="8">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5">
+        <v>160</v>
+      </c>
+      <c r="F38" s="5">
+        <v>192</v>
+      </c>
+      <c r="G38" s="5">
+        <v>128</v>
+      </c>
+      <c r="H38" s="5">
+        <v>96</v>
+      </c>
+      <c r="I38" s="5">
+        <v>96</v>
+      </c>
+      <c r="J38" s="5">
         <v>240</v>
       </c>
-      <c r="G38" s="7">
+      <c r="K38" s="5">
+        <v>45</v>
+      </c>
+      <c r="L38" s="5">
         <v>240</v>
       </c>
-      <c r="H38" s="7">
-        <v>96</v>
-      </c>
-      <c r="I38" s="3">
-        <v>96</v>
-      </c>
-      <c r="J38" s="3">
-        <v>240</v>
-      </c>
-      <c r="K38" s="3">
-        <v>50</v>
-      </c>
-      <c r="L38" s="1">
-        <v>200</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="M38" s="5">
         <v>0.8</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="5">
         <v>4</v>
       </c>
       <c r="O38" s="1">
         <v>2</v>
       </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>240</v>
-      </c>
-      <c r="R38" s="3">
-        <v>240</v>
-      </c>
-      <c r="S38" s="3">
-        <v>320</v>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>120</v>
+      </c>
+      <c r="R38" s="1">
+        <v>120</v>
+      </c>
+      <c r="S38" s="1">
+        <v>160</v>
       </c>
       <c r="T38" s="1">
         <v>20</v>
@@ -6929,13 +7031,13 @@
       <c r="V38" s="1">
         <v>2</v>
       </c>
-      <c r="W38" s="4">
-        <v>0</v>
-      </c>
-      <c r="X38" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="4">
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
         <v>0</v>
       </c>
       <c r="Z38" s="1" t="s">
@@ -6944,61 +7046,61 @@
     </row>
     <row r="39" spans="1:26" ht="20" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5">
         <v>6</v>
       </c>
-      <c r="E39" s="9">
-        <v>120</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="E39" s="5">
         <v>240</v>
       </c>
-      <c r="G39" s="7">
-        <v>240</v>
-      </c>
-      <c r="H39" s="7">
+      <c r="F39" s="5">
+        <v>288</v>
+      </c>
+      <c r="G39" s="5">
+        <v>192</v>
+      </c>
+      <c r="H39" s="5">
         <v>144</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="5">
         <v>144</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="5">
         <v>360</v>
       </c>
-      <c r="K39" s="3">
-        <v>65</v>
-      </c>
-      <c r="L39" s="1">
-        <v>220</v>
-      </c>
-      <c r="M39" s="1">
+      <c r="K39" s="5">
+        <v>59</v>
+      </c>
+      <c r="L39" s="5">
+        <v>264</v>
+      </c>
+      <c r="M39" s="5">
         <v>0.8</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="5">
         <v>6</v>
       </c>
       <c r="O39" s="1">
         <v>2</v>
       </c>
-      <c r="P39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>240</v>
-      </c>
-      <c r="R39" s="3">
-        <v>240</v>
-      </c>
-      <c r="S39" s="3">
-        <v>320</v>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>120</v>
+      </c>
+      <c r="R39" s="1">
+        <v>120</v>
+      </c>
+      <c r="S39" s="1">
+        <v>160</v>
       </c>
       <c r="T39" s="1">
         <v>20</v>
@@ -7012,7 +7114,7 @@
       <c r="W39" s="1">
         <v>100000</v>
       </c>
-      <c r="X39" s="4">
+      <c r="X39" s="1">
         <v>2200</v>
       </c>
       <c r="Y39" s="1">
@@ -7024,61 +7126,61 @@
     </row>
     <row r="40" spans="1:26" ht="20" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7">
+        <v>4</v>
+      </c>
+      <c r="D40" s="8">
         <v>8</v>
       </c>
-      <c r="E40" s="9">
-        <v>120</v>
-      </c>
-      <c r="F40" s="7">
-        <v>240</v>
-      </c>
-      <c r="G40" s="7">
-        <v>240</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="E40" s="5">
+        <v>320</v>
+      </c>
+      <c r="F40" s="5">
+        <v>384</v>
+      </c>
+      <c r="G40" s="5">
+        <v>256</v>
+      </c>
+      <c r="H40" s="5">
         <v>192</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="5">
         <v>192</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="5">
         <v>480</v>
       </c>
-      <c r="K40" s="3">
-        <v>80</v>
-      </c>
-      <c r="L40" s="1">
-        <v>240</v>
-      </c>
-      <c r="M40" s="1">
+      <c r="K40" s="5">
+        <v>72</v>
+      </c>
+      <c r="L40" s="5">
+        <v>288</v>
+      </c>
+      <c r="M40" s="5">
         <v>0.8</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="5">
         <v>8</v>
       </c>
       <c r="O40" s="1">
         <v>2</v>
       </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>240</v>
-      </c>
-      <c r="R40" s="3">
-        <v>240</v>
-      </c>
-      <c r="S40" s="3">
-        <v>320</v>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>120</v>
+      </c>
+      <c r="R40" s="1">
+        <v>120</v>
+      </c>
+      <c r="S40" s="1">
+        <v>160</v>
       </c>
       <c r="T40" s="1">
         <v>20</v>
@@ -7089,13 +7191,13 @@
       <c r="V40" s="1">
         <v>2</v>
       </c>
-      <c r="W40" s="4">
+      <c r="W40" s="1">
         <v>200000</v>
       </c>
       <c r="X40" s="1">
         <v>4600</v>
       </c>
-      <c r="Y40" s="4">
+      <c r="Y40" s="1">
         <v>28800</v>
       </c>
       <c r="Z40" s="1" t="s">
@@ -7104,78 +7206,78 @@
     </row>
     <row r="41" spans="1:26" ht="20" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>4</v>
-      </c>
-      <c r="E41" s="9">
-        <v>120</v>
-      </c>
-      <c r="F41" s="7">
+        <v>20</v>
+      </c>
+      <c r="D41" s="5">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5">
+        <v>400</v>
+      </c>
+      <c r="F41" s="5">
+        <v>480</v>
+      </c>
+      <c r="G41" s="5">
+        <v>320</v>
+      </c>
+      <c r="H41" s="5">
         <v>240</v>
       </c>
-      <c r="G41" s="7">
+      <c r="I41" s="5">
         <v>240</v>
       </c>
-      <c r="H41" s="7">
-        <v>96</v>
-      </c>
-      <c r="I41" s="3">
-        <v>96</v>
-      </c>
-      <c r="J41" s="3">
-        <v>240</v>
-      </c>
-      <c r="K41" s="3">
-        <v>50</v>
-      </c>
-      <c r="L41" s="1">
-        <v>200</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N41" s="1">
-        <v>4</v>
+      <c r="J41" s="5">
+        <v>600</v>
+      </c>
+      <c r="K41" s="5">
+        <v>63</v>
+      </c>
+      <c r="L41" s="5">
+        <v>252</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N41" s="5">
+        <v>10</v>
       </c>
       <c r="O41" s="1">
         <v>2</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>240</v>
-      </c>
-      <c r="R41" s="3">
-        <v>240</v>
-      </c>
-      <c r="S41" s="3">
-        <v>320</v>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>360</v>
+      </c>
+      <c r="R41" s="1">
+        <v>360</v>
+      </c>
+      <c r="S41" s="1">
+        <v>480</v>
       </c>
       <c r="T41" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U41" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V41" s="1">
-        <v>2</v>
-      </c>
-      <c r="W41" s="4">
-        <v>0</v>
-      </c>
-      <c r="X41" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="4">
+        <v>4</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
         <v>0</v>
       </c>
       <c r="Z41" s="1" t="s">
@@ -7184,79 +7286,79 @@
     </row>
     <row r="42" spans="1:26" ht="20" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="5">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7">
-        <v>6</v>
-      </c>
-      <c r="E42" s="9">
-        <v>120</v>
-      </c>
-      <c r="F42" s="7">
-        <v>240</v>
-      </c>
-      <c r="G42" s="7">
-        <v>240</v>
-      </c>
-      <c r="H42" s="7">
-        <v>144</v>
-      </c>
-      <c r="I42" s="3">
-        <v>144</v>
-      </c>
-      <c r="J42" s="3">
-        <v>360</v>
-      </c>
-      <c r="K42" s="3">
-        <v>65</v>
-      </c>
-      <c r="L42" s="1">
-        <v>220</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N42" s="1">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D42" s="8">
+        <v>12</v>
+      </c>
+      <c r="E42" s="5">
+        <v>480</v>
+      </c>
+      <c r="F42" s="5">
+        <v>576</v>
+      </c>
+      <c r="G42" s="5">
+        <v>384</v>
+      </c>
+      <c r="H42" s="5">
+        <v>288</v>
+      </c>
+      <c r="I42" s="5">
+        <v>288</v>
+      </c>
+      <c r="J42" s="5">
+        <v>720</v>
+      </c>
+      <c r="K42" s="5">
+        <v>81</v>
+      </c>
+      <c r="L42" s="5">
+        <v>276</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N42" s="5">
+        <v>12</v>
       </c>
       <c r="O42" s="1">
         <v>2</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>240</v>
-      </c>
-      <c r="R42" s="3">
-        <v>240</v>
-      </c>
-      <c r="S42" s="3">
-        <v>320</v>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>360</v>
+      </c>
+      <c r="R42" s="1">
+        <v>360</v>
+      </c>
+      <c r="S42" s="1">
+        <v>480</v>
       </c>
       <c r="T42" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U42" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W42" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X42" s="4">
-        <v>2200</v>
+        <v>500000</v>
+      </c>
+      <c r="X42" s="1">
+        <v>9200</v>
       </c>
       <c r="Y42" s="1">
-        <v>14400</v>
+        <v>57600</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>33</v>
@@ -7264,79 +7366,79 @@
     </row>
     <row r="43" spans="1:26" ht="20" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7">
-        <v>8</v>
-      </c>
-      <c r="E43" s="9">
-        <v>120</v>
-      </c>
-      <c r="F43" s="7">
-        <v>240</v>
-      </c>
-      <c r="G43" s="7">
-        <v>240</v>
-      </c>
-      <c r="H43" s="7">
-        <v>192</v>
-      </c>
-      <c r="I43" s="3">
-        <v>192</v>
-      </c>
-      <c r="J43" s="3">
-        <v>480</v>
-      </c>
-      <c r="K43" s="3">
-        <v>80</v>
-      </c>
-      <c r="L43" s="1">
-        <v>240</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N43" s="1">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="D43" s="5">
+        <v>14</v>
+      </c>
+      <c r="E43" s="5">
+        <v>560</v>
+      </c>
+      <c r="F43" s="5">
+        <v>672</v>
+      </c>
+      <c r="G43" s="5">
+        <v>448</v>
+      </c>
+      <c r="H43" s="5">
+        <v>336</v>
+      </c>
+      <c r="I43" s="5">
+        <v>336</v>
+      </c>
+      <c r="J43" s="5">
+        <v>840</v>
+      </c>
+      <c r="K43" s="5">
+        <v>100</v>
+      </c>
+      <c r="L43" s="5">
+        <v>300</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N43" s="5">
+        <v>14</v>
       </c>
       <c r="O43" s="1">
         <v>2</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>240</v>
-      </c>
-      <c r="R43" s="3">
-        <v>240</v>
-      </c>
-      <c r="S43" s="3">
-        <v>320</v>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>360</v>
+      </c>
+      <c r="R43" s="1">
+        <v>360</v>
+      </c>
+      <c r="S43" s="1">
+        <v>480</v>
       </c>
       <c r="T43" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U43" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="V43" s="1">
-        <v>2</v>
-      </c>
-      <c r="W43" s="4">
-        <v>200000</v>
+        <v>4</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1000000</v>
       </c>
       <c r="X43" s="1">
-        <v>4600</v>
-      </c>
-      <c r="Y43" s="4">
-        <v>28800</v>
+        <v>12400</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>86400</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>33</v>
@@ -7344,78 +7446,78 @@
     </row>
     <row r="44" spans="1:26" ht="20" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7">
-        <v>4</v>
-      </c>
-      <c r="E44" s="9">
-        <v>120</v>
-      </c>
-      <c r="F44" s="7">
-        <v>240</v>
-      </c>
-      <c r="G44" s="7">
-        <v>240</v>
-      </c>
-      <c r="H44" s="7">
-        <v>96</v>
-      </c>
-      <c r="I44" s="3">
-        <v>96</v>
-      </c>
-      <c r="J44" s="3">
-        <v>240</v>
-      </c>
-      <c r="K44" s="3">
-        <v>50</v>
-      </c>
-      <c r="L44" s="1">
-        <v>200</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N44" s="1">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="D44" s="8">
+        <v>16</v>
+      </c>
+      <c r="E44" s="5">
+        <v>640</v>
+      </c>
+      <c r="F44" s="5">
+        <v>768</v>
+      </c>
+      <c r="G44" s="5">
+        <v>512</v>
+      </c>
+      <c r="H44" s="5">
+        <v>384</v>
+      </c>
+      <c r="I44" s="5">
+        <v>384</v>
+      </c>
+      <c r="J44" s="5">
+        <v>960</v>
+      </c>
+      <c r="K44" s="5">
+        <v>90</v>
+      </c>
+      <c r="L44" s="5">
+        <v>264</v>
+      </c>
+      <c r="M44" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N44" s="5">
+        <v>16</v>
       </c>
       <c r="O44" s="1">
         <v>2</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>240</v>
-      </c>
-      <c r="R44" s="3">
-        <v>240</v>
-      </c>
-      <c r="S44" s="3">
-        <v>320</v>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>720</v>
+      </c>
+      <c r="R44" s="1">
+        <v>720</v>
+      </c>
+      <c r="S44" s="1">
+        <v>960</v>
       </c>
       <c r="T44" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U44" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="V44" s="1">
-        <v>2</v>
-      </c>
-      <c r="W44" s="4">
-        <v>0</v>
-      </c>
-      <c r="X44" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="4">
+        <v>8</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
         <v>0</v>
       </c>
       <c r="Z44" s="1" t="s">
@@ -7424,79 +7526,79 @@
     </row>
     <row r="45" spans="1:26" ht="20" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7">
-        <v>6</v>
-      </c>
-      <c r="E45" s="9">
-        <v>120</v>
-      </c>
-      <c r="F45" s="7">
-        <v>240</v>
-      </c>
-      <c r="G45" s="7">
-        <v>240</v>
-      </c>
-      <c r="H45" s="7">
-        <v>144</v>
-      </c>
-      <c r="I45" s="3">
-        <v>144</v>
-      </c>
-      <c r="J45" s="3">
-        <v>360</v>
-      </c>
-      <c r="K45" s="3">
-        <v>65</v>
-      </c>
-      <c r="L45" s="1">
-        <v>220</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N45" s="1">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="D45" s="5">
+        <v>18</v>
+      </c>
+      <c r="E45" s="5">
+        <v>720</v>
+      </c>
+      <c r="F45" s="5">
+        <v>864</v>
+      </c>
+      <c r="G45" s="5">
+        <v>576</v>
+      </c>
+      <c r="H45" s="5">
+        <v>432</v>
+      </c>
+      <c r="I45" s="5">
+        <v>432</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1080</v>
+      </c>
+      <c r="K45" s="5">
+        <v>117</v>
+      </c>
+      <c r="L45" s="5">
+        <v>288</v>
+      </c>
+      <c r="M45" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N45" s="5">
+        <v>18</v>
       </c>
       <c r="O45" s="1">
         <v>2</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>240</v>
-      </c>
-      <c r="R45" s="3">
-        <v>240</v>
-      </c>
-      <c r="S45" s="3">
-        <v>320</v>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>720</v>
+      </c>
+      <c r="R45" s="1">
+        <v>720</v>
+      </c>
+      <c r="S45" s="1">
+        <v>960</v>
       </c>
       <c r="T45" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U45" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="V45" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W45" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X45" s="4">
-        <v>2200</v>
+        <v>2000000</v>
+      </c>
+      <c r="X45" s="1">
+        <v>19500</v>
       </c>
       <c r="Y45" s="1">
-        <v>14400</v>
+        <v>129600</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>33</v>
@@ -7504,79 +7606,79 @@
     </row>
     <row r="46" spans="1:26" ht="20" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7">
-        <v>8</v>
-      </c>
-      <c r="E46" s="9">
-        <v>120</v>
-      </c>
-      <c r="F46" s="7">
-        <v>240</v>
-      </c>
-      <c r="G46" s="7">
-        <v>240</v>
-      </c>
-      <c r="H46" s="7">
-        <v>192</v>
-      </c>
-      <c r="I46" s="3">
-        <v>192</v>
-      </c>
-      <c r="J46" s="3">
+        <v>35</v>
+      </c>
+      <c r="D46" s="8">
+        <v>20</v>
+      </c>
+      <c r="E46" s="5">
+        <v>800</v>
+      </c>
+      <c r="F46" s="5">
+        <v>960</v>
+      </c>
+      <c r="G46" s="5">
+        <v>640</v>
+      </c>
+      <c r="H46" s="5">
         <v>480</v>
       </c>
-      <c r="K46" s="3">
-        <v>80</v>
-      </c>
-      <c r="L46" s="1">
-        <v>240</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N46" s="1">
-        <v>8</v>
+      <c r="I46" s="5">
+        <v>480</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K46" s="5">
+        <v>144</v>
+      </c>
+      <c r="L46" s="5">
+        <v>312</v>
+      </c>
+      <c r="M46" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N46" s="5">
+        <v>20</v>
       </c>
       <c r="O46" s="1">
         <v>2</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>240</v>
-      </c>
-      <c r="R46" s="3">
-        <v>240</v>
-      </c>
-      <c r="S46" s="3">
-        <v>320</v>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>720</v>
+      </c>
+      <c r="R46" s="1">
+        <v>720</v>
+      </c>
+      <c r="S46" s="1">
+        <v>960</v>
       </c>
       <c r="T46" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U46" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="V46" s="1">
-        <v>2</v>
-      </c>
-      <c r="W46" s="4">
-        <v>200000</v>
+        <v>8</v>
+      </c>
+      <c r="W46" s="1">
+        <v>5000000</v>
       </c>
       <c r="X46" s="1">
-        <v>4600</v>
-      </c>
-      <c r="Y46" s="4">
-        <v>28800</v>
+        <v>23500</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>172800</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>33</v>
@@ -7584,61 +7686,61 @@
     </row>
     <row r="47" spans="1:26" ht="20" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7">
+        <v>12</v>
+      </c>
+      <c r="D47" s="8">
         <v>4</v>
       </c>
-      <c r="E47" s="7">
-        <v>240</v>
-      </c>
-      <c r="F47" s="7">
-        <v>120</v>
-      </c>
-      <c r="G47" s="7">
-        <v>240</v>
-      </c>
-      <c r="H47" s="7">
+      <c r="E47" s="5">
+        <v>192</v>
+      </c>
+      <c r="F47" s="5">
+        <v>230</v>
+      </c>
+      <c r="G47" s="5">
+        <v>154</v>
+      </c>
+      <c r="H47" s="5">
         <v>115</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="5">
         <v>115</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="5">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
-        <v>45</v>
-      </c>
-      <c r="L47" s="1">
-        <v>240</v>
-      </c>
-      <c r="M47" s="1">
+      <c r="K47" s="5">
+        <v>50</v>
+      </c>
+      <c r="L47" s="5">
+        <v>200</v>
+      </c>
+      <c r="M47" s="5">
         <v>0.8</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="5">
         <v>4</v>
       </c>
       <c r="O47" s="1">
         <v>2</v>
       </c>
-      <c r="P47" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>240</v>
-      </c>
-      <c r="S47" s="3">
-        <v>320</v>
+      <c r="P47" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>120</v>
+      </c>
+      <c r="S47" s="1">
+        <v>160</v>
       </c>
       <c r="T47" s="1">
         <v>20</v>
@@ -7649,13 +7751,13 @@
       <c r="V47" s="1">
         <v>2</v>
       </c>
-      <c r="W47" s="4">
-        <v>0</v>
-      </c>
-      <c r="X47" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="4">
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
         <v>0</v>
       </c>
       <c r="Z47" s="1" t="s">
@@ -7664,61 +7766,61 @@
     </row>
     <row r="48" spans="1:26" ht="20" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="5">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5">
         <v>6</v>
       </c>
-      <c r="E48" s="7">
-        <v>240</v>
-      </c>
-      <c r="F48" s="9">
-        <v>120</v>
-      </c>
-      <c r="G48" s="7">
-        <v>240</v>
-      </c>
-      <c r="H48" s="7">
+      <c r="E48" s="5">
+        <v>288</v>
+      </c>
+      <c r="F48" s="5">
+        <v>346</v>
+      </c>
+      <c r="G48" s="5">
+        <v>230</v>
+      </c>
+      <c r="H48" s="5">
         <v>173</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="5">
         <v>173</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="5">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
-        <v>58</v>
-      </c>
-      <c r="L48" s="1">
-        <v>264</v>
-      </c>
-      <c r="M48" s="1">
+      <c r="K48" s="5">
+        <v>65</v>
+      </c>
+      <c r="L48" s="5">
+        <v>221</v>
+      </c>
+      <c r="M48" s="5">
         <v>0.8</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="5">
         <v>6</v>
       </c>
       <c r="O48" s="1">
         <v>2</v>
       </c>
-      <c r="P48" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>240</v>
-      </c>
-      <c r="S48" s="3">
-        <v>320</v>
+      <c r="P48" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>120</v>
+      </c>
+      <c r="S48" s="1">
+        <v>160</v>
       </c>
       <c r="T48" s="1">
         <v>20</v>
@@ -7732,7 +7834,7 @@
       <c r="W48" s="1">
         <v>100000</v>
       </c>
-      <c r="X48" s="4">
+      <c r="X48" s="1">
         <v>2800</v>
       </c>
       <c r="Y48" s="1">
@@ -7744,61 +7846,61 @@
     </row>
     <row r="49" spans="1:26" ht="20" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7">
+        <v>12</v>
+      </c>
+      <c r="D49" s="8">
         <v>8</v>
       </c>
-      <c r="E49" s="7">
-        <v>240</v>
-      </c>
-      <c r="F49" s="9">
-        <v>120</v>
-      </c>
-      <c r="G49" s="7">
-        <v>240</v>
+      <c r="E49" s="5">
+        <v>384</v>
+      </c>
+      <c r="F49" s="5">
+        <v>461</v>
+      </c>
+      <c r="G49" s="5">
+        <v>307</v>
       </c>
       <c r="H49" s="5">
         <v>230</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="5">
         <v>230</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="5">
         <v>400</v>
       </c>
-      <c r="K49" s="3">
-        <v>72</v>
-      </c>
-      <c r="L49" s="1">
-        <v>288</v>
-      </c>
-      <c r="M49" s="1">
+      <c r="K49" s="5">
+        <v>80</v>
+      </c>
+      <c r="L49" s="5">
+        <v>240</v>
+      </c>
+      <c r="M49" s="5">
         <v>0.8</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="5">
         <v>8</v>
       </c>
       <c r="O49" s="1">
         <v>2</v>
       </c>
-      <c r="P49" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>240</v>
-      </c>
-      <c r="S49" s="3">
-        <v>320</v>
+      <c r="P49" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>120</v>
+      </c>
+      <c r="S49" s="1">
+        <v>160</v>
       </c>
       <c r="T49" s="1">
         <v>20</v>
@@ -7809,13 +7911,13 @@
       <c r="V49" s="1">
         <v>2</v>
       </c>
-      <c r="W49" s="4">
+      <c r="W49" s="1">
         <v>200000</v>
       </c>
       <c r="X49" s="1">
         <v>5200</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Y49" s="1">
         <v>28800</v>
       </c>
       <c r="Z49" s="1" t="s">
@@ -7824,78 +7926,78 @@
     </row>
     <row r="50" spans="1:26" ht="20" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7">
-        <v>4</v>
-      </c>
-      <c r="E50" s="7">
-        <v>240</v>
-      </c>
-      <c r="F50" s="9">
-        <v>120</v>
-      </c>
-      <c r="G50" s="7">
-        <v>240</v>
-      </c>
-      <c r="H50" s="7">
-        <v>115</v>
-      </c>
-      <c r="I50" s="3">
-        <v>115</v>
-      </c>
-      <c r="J50" s="3">
-        <v>200</v>
-      </c>
-      <c r="K50" s="3">
-        <v>45</v>
-      </c>
-      <c r="L50" s="1">
-        <v>240</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N50" s="1">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D50" s="5">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5">
+        <v>480</v>
+      </c>
+      <c r="F50" s="5">
+        <v>576</v>
+      </c>
+      <c r="G50" s="5">
+        <v>384</v>
+      </c>
+      <c r="H50" s="5">
+        <v>288</v>
+      </c>
+      <c r="I50" s="5">
+        <v>288</v>
+      </c>
+      <c r="J50" s="5">
+        <v>500</v>
+      </c>
+      <c r="K50" s="5">
+        <v>70</v>
+      </c>
+      <c r="L50" s="5">
+        <v>210</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N50" s="5">
+        <v>10</v>
       </c>
       <c r="O50" s="1">
         <v>2</v>
       </c>
-      <c r="P50" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>0</v>
-      </c>
-      <c r="R50" s="3">
-        <v>240</v>
-      </c>
-      <c r="S50" s="3">
-        <v>320</v>
+      <c r="P50" s="1">
+        <v>360</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>360</v>
+      </c>
+      <c r="S50" s="1">
+        <v>480</v>
       </c>
       <c r="T50" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U50" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V50" s="1">
-        <v>2</v>
-      </c>
-      <c r="W50" s="4">
-        <v>0</v>
-      </c>
-      <c r="X50" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="4">
+        <v>4</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
         <v>0</v>
       </c>
       <c r="Z50" s="1" t="s">
@@ -7904,79 +8006,79 @@
     </row>
     <row r="51" spans="1:26" ht="20" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7">
-        <v>6</v>
-      </c>
-      <c r="E51" s="7">
-        <v>240</v>
-      </c>
-      <c r="F51" s="9">
-        <v>120</v>
-      </c>
-      <c r="G51" s="7">
-        <v>240</v>
-      </c>
-      <c r="H51" s="7">
-        <v>173</v>
-      </c>
-      <c r="I51" s="3">
-        <v>173</v>
-      </c>
-      <c r="J51" s="3">
-        <v>300</v>
-      </c>
-      <c r="K51" s="3">
-        <v>58</v>
-      </c>
-      <c r="L51" s="1">
-        <v>264</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N51" s="1">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="D51" s="8">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5">
+        <v>576</v>
+      </c>
+      <c r="F51" s="5">
+        <v>691</v>
+      </c>
+      <c r="G51" s="5">
+        <v>461</v>
+      </c>
+      <c r="H51" s="5">
+        <v>346</v>
+      </c>
+      <c r="I51" s="5">
+        <v>346</v>
+      </c>
+      <c r="J51" s="5">
+        <v>600</v>
+      </c>
+      <c r="K51" s="5">
+        <v>90</v>
+      </c>
+      <c r="L51" s="5">
+        <v>230</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N51" s="5">
+        <v>12</v>
       </c>
       <c r="O51" s="1">
         <v>2</v>
       </c>
-      <c r="P51" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>0</v>
-      </c>
-      <c r="R51" s="3">
-        <v>240</v>
-      </c>
-      <c r="S51" s="3">
-        <v>320</v>
+      <c r="P51" s="1">
+        <v>360</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>360</v>
+      </c>
+      <c r="S51" s="1">
+        <v>480</v>
       </c>
       <c r="T51" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U51" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V51" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W51" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X51" s="4">
-        <v>2800</v>
+        <v>500000</v>
+      </c>
+      <c r="X51" s="1">
+        <v>10000</v>
       </c>
       <c r="Y51" s="1">
-        <v>14400</v>
+        <v>57600</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>33</v>
@@ -7984,79 +8086,79 @@
     </row>
     <row r="52" spans="1:26" ht="20" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="7">
-        <v>8</v>
-      </c>
-      <c r="E52" s="7">
-        <v>240</v>
-      </c>
-      <c r="F52" s="9">
-        <v>120</v>
-      </c>
-      <c r="G52" s="7">
-        <v>240</v>
+        <v>28</v>
+      </c>
+      <c r="D52" s="5">
+        <v>14</v>
+      </c>
+      <c r="E52" s="5">
+        <v>672</v>
+      </c>
+      <c r="F52" s="5">
+        <v>806</v>
+      </c>
+      <c r="G52" s="5">
+        <v>538</v>
       </c>
       <c r="H52" s="5">
-        <v>230</v>
-      </c>
-      <c r="I52" s="3">
-        <v>230</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>72</v>
-      </c>
-      <c r="L52" s="1">
-        <v>288</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N52" s="1">
-        <v>8</v>
+        <v>403</v>
+      </c>
+      <c r="I52" s="5">
+        <v>403</v>
+      </c>
+      <c r="J52" s="5">
+        <v>700</v>
+      </c>
+      <c r="K52" s="5">
+        <v>111</v>
+      </c>
+      <c r="L52" s="5">
+        <v>250</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N52" s="5">
+        <v>14</v>
       </c>
       <c r="O52" s="1">
         <v>2</v>
       </c>
-      <c r="P52" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>240</v>
-      </c>
-      <c r="S52" s="3">
-        <v>320</v>
+      <c r="P52" s="1">
+        <v>360</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>360</v>
+      </c>
+      <c r="S52" s="1">
+        <v>480</v>
       </c>
       <c r="T52" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U52" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="V52" s="1">
-        <v>2</v>
-      </c>
-      <c r="W52" s="4">
-        <v>200000</v>
+        <v>4</v>
+      </c>
+      <c r="W52" s="1">
+        <v>1000000</v>
       </c>
       <c r="X52" s="1">
-        <v>5200</v>
-      </c>
-      <c r="Y52" s="4">
-        <v>28800</v>
+        <v>13200</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>86400</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>33</v>
@@ -8064,78 +8166,78 @@
     </row>
     <row r="53" spans="1:26" ht="20" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7">
-        <v>4</v>
-      </c>
-      <c r="E53" s="7">
-        <v>240</v>
-      </c>
-      <c r="F53" s="9">
-        <v>120</v>
-      </c>
-      <c r="G53" s="7">
-        <v>240</v>
-      </c>
-      <c r="H53" s="7">
-        <v>115</v>
-      </c>
-      <c r="I53" s="3">
-        <v>115</v>
-      </c>
-      <c r="J53" s="3">
-        <v>200</v>
-      </c>
-      <c r="K53" s="3">
-        <v>45</v>
-      </c>
-      <c r="L53" s="1">
-        <v>240</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N53" s="1">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="D53" s="8">
+        <v>16</v>
+      </c>
+      <c r="E53" s="5">
+        <v>768</v>
+      </c>
+      <c r="F53" s="5">
+        <v>922</v>
+      </c>
+      <c r="G53" s="5">
+        <v>614</v>
+      </c>
+      <c r="H53" s="5">
+        <v>461</v>
+      </c>
+      <c r="I53" s="5">
+        <v>461</v>
+      </c>
+      <c r="J53" s="5">
+        <v>800</v>
+      </c>
+      <c r="K53" s="5">
+        <v>100</v>
+      </c>
+      <c r="L53" s="5">
+        <v>221</v>
+      </c>
+      <c r="M53" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N53" s="5">
+        <v>16</v>
       </c>
       <c r="O53" s="1">
         <v>2</v>
       </c>
-      <c r="P53" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>0</v>
-      </c>
-      <c r="R53" s="3">
-        <v>240</v>
-      </c>
-      <c r="S53" s="3">
-        <v>320</v>
+      <c r="P53" s="1">
+        <v>720</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>720</v>
+      </c>
+      <c r="S53" s="1">
+        <v>960</v>
       </c>
       <c r="T53" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U53" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="V53" s="1">
-        <v>2</v>
-      </c>
-      <c r="W53" s="4">
-        <v>0</v>
-      </c>
-      <c r="X53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="4">
+        <v>8</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
         <v>0</v>
       </c>
       <c r="Z53" s="1" t="s">
@@ -8144,79 +8246,79 @@
     </row>
     <row r="54" spans="1:26" ht="20" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="7">
-        <v>6</v>
-      </c>
-      <c r="E54" s="7">
+        <v>39</v>
+      </c>
+      <c r="D54" s="5">
+        <v>18</v>
+      </c>
+      <c r="E54" s="5">
+        <v>864</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1037</v>
+      </c>
+      <c r="G54" s="5">
+        <v>691</v>
+      </c>
+      <c r="H54" s="5">
+        <v>518</v>
+      </c>
+      <c r="I54" s="5">
+        <v>518</v>
+      </c>
+      <c r="J54" s="5">
+        <v>900</v>
+      </c>
+      <c r="K54" s="5">
+        <v>130</v>
+      </c>
+      <c r="L54" s="5">
         <v>240</v>
       </c>
-      <c r="F54" s="9">
-        <v>120</v>
-      </c>
-      <c r="G54" s="7">
-        <v>240</v>
-      </c>
-      <c r="H54" s="7">
-        <v>173</v>
-      </c>
-      <c r="I54" s="3">
-        <v>173</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>58</v>
-      </c>
-      <c r="L54" s="1">
-        <v>264</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N54" s="1">
-        <v>6</v>
+      <c r="M54" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N54" s="5">
+        <v>18</v>
       </c>
       <c r="O54" s="1">
         <v>2</v>
       </c>
-      <c r="P54" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
-        <v>240</v>
-      </c>
-      <c r="S54" s="3">
-        <v>320</v>
+      <c r="P54" s="1">
+        <v>720</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>720</v>
+      </c>
+      <c r="S54" s="1">
+        <v>960</v>
       </c>
       <c r="T54" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U54" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="V54" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W54" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X54" s="4">
-        <v>2800</v>
+        <v>2000000</v>
+      </c>
+      <c r="X54" s="1">
+        <v>20500</v>
       </c>
       <c r="Y54" s="1">
-        <v>14400</v>
+        <v>129600</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>33</v>
@@ -8224,79 +8326,79 @@
     </row>
     <row r="55" spans="1:26" ht="20" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="D55" s="7">
-        <v>8</v>
-      </c>
-      <c r="E55" s="7">
-        <v>240</v>
-      </c>
-      <c r="F55" s="9">
-        <v>120</v>
-      </c>
-      <c r="G55" s="7">
-        <v>240</v>
+        <v>39</v>
+      </c>
+      <c r="D55" s="8">
+        <v>20</v>
+      </c>
+      <c r="E55" s="5">
+        <v>960</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1152</v>
+      </c>
+      <c r="G55" s="5">
+        <v>768</v>
       </c>
       <c r="H55" s="5">
-        <v>230</v>
-      </c>
-      <c r="I55" s="3">
-        <v>230</v>
-      </c>
-      <c r="J55" s="3">
-        <v>400</v>
-      </c>
-      <c r="K55" s="3">
-        <v>72</v>
-      </c>
-      <c r="L55" s="1">
-        <v>288</v>
-      </c>
-      <c r="M55" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N55" s="1">
-        <v>8</v>
+        <v>576</v>
+      </c>
+      <c r="I55" s="5">
+        <v>576</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K55" s="5">
+        <v>160</v>
+      </c>
+      <c r="L55" s="5">
+        <v>260</v>
+      </c>
+      <c r="M55" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N55" s="5">
+        <v>20</v>
       </c>
       <c r="O55" s="1">
         <v>2</v>
       </c>
-      <c r="P55" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>0</v>
-      </c>
-      <c r="R55" s="3">
-        <v>240</v>
-      </c>
-      <c r="S55" s="3">
-        <v>320</v>
+      <c r="P55" s="1">
+        <v>720</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>720</v>
+      </c>
+      <c r="S55" s="1">
+        <v>960</v>
       </c>
       <c r="T55" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U55" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="V55" s="1">
-        <v>2</v>
-      </c>
-      <c r="W55" s="4">
-        <v>200000</v>
+        <v>8</v>
+      </c>
+      <c r="W55" s="1">
+        <v>5000000</v>
       </c>
       <c r="X55" s="1">
-        <v>5200</v>
-      </c>
-      <c r="Y55" s="4">
-        <v>28800</v>
+        <v>24500</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>172800</v>
       </c>
       <c r="Z55" s="1" t="s">
         <v>33</v>
@@ -8304,61 +8406,61 @@
     </row>
     <row r="56" spans="1:26" ht="20" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7">
+        <v>6</v>
+      </c>
+      <c r="D56" s="8">
         <v>4</v>
       </c>
-      <c r="E56" s="7">
-        <v>80</v>
-      </c>
-      <c r="F56" s="8">
-        <v>320</v>
-      </c>
-      <c r="G56" s="7">
-        <v>80</v>
+      <c r="E56" s="5">
+        <v>77</v>
+      </c>
+      <c r="F56" s="5">
+        <v>128</v>
+      </c>
+      <c r="G56" s="5">
+        <v>154</v>
       </c>
       <c r="H56" s="5">
         <v>102</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="5">
         <v>102</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="5">
         <v>300</v>
       </c>
-      <c r="K56" s="3">
-        <v>100</v>
-      </c>
-      <c r="L56" s="1">
-        <v>120</v>
-      </c>
-      <c r="M56" s="1">
+      <c r="K56" s="5">
+        <v>70</v>
+      </c>
+      <c r="L56" s="5">
+        <v>130</v>
+      </c>
+      <c r="M56" s="5">
         <v>0.8</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56" s="5">
         <v>4</v>
       </c>
       <c r="O56" s="1">
         <v>2</v>
       </c>
-      <c r="P56" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>320</v>
-      </c>
-      <c r="R56" s="3">
-        <v>80</v>
-      </c>
-      <c r="S56" s="3">
-        <v>320</v>
+      <c r="P56" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>160</v>
+      </c>
+      <c r="R56" s="1">
+        <v>40</v>
+      </c>
+      <c r="S56" s="1">
+        <v>160</v>
       </c>
       <c r="T56" s="1">
         <v>20</v>
@@ -8369,13 +8471,13 @@
       <c r="V56" s="1">
         <v>2</v>
       </c>
-      <c r="W56" s="4">
-        <v>0</v>
-      </c>
-      <c r="X56" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="4">
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
         <v>0</v>
       </c>
       <c r="Z56" s="1" t="s">
@@ -8384,61 +8486,61 @@
     </row>
     <row r="57" spans="1:26" ht="20" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="7">
         <v>6</v>
       </c>
-      <c r="E57" s="8">
-        <v>80</v>
-      </c>
-      <c r="F57" s="8">
-        <v>320</v>
+      <c r="D57" s="5">
+        <v>6</v>
+      </c>
+      <c r="E57" s="5">
+        <v>115</v>
+      </c>
+      <c r="F57" s="5">
+        <v>192</v>
       </c>
       <c r="G57" s="5">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="H57" s="5">
         <v>154</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="5">
         <v>154</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="5">
         <v>450</v>
       </c>
-      <c r="K57" s="3">
-        <v>130</v>
-      </c>
-      <c r="L57" s="1">
-        <v>132</v>
-      </c>
-      <c r="M57" s="1">
+      <c r="K57" s="5">
+        <v>91</v>
+      </c>
+      <c r="L57" s="5">
+        <v>143</v>
+      </c>
+      <c r="M57" s="5">
         <v>0.8</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57" s="5">
         <v>6</v>
       </c>
       <c r="O57" s="1">
         <v>2</v>
       </c>
-      <c r="P57" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>320</v>
-      </c>
-      <c r="R57" s="3">
-        <v>80</v>
-      </c>
-      <c r="S57" s="3">
-        <v>320</v>
+      <c r="P57" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>160</v>
+      </c>
+      <c r="R57" s="1">
+        <v>40</v>
+      </c>
+      <c r="S57" s="1">
+        <v>160</v>
       </c>
       <c r="T57" s="1">
         <v>20</v>
@@ -8452,7 +8554,7 @@
       <c r="W57" s="1">
         <v>100000</v>
       </c>
-      <c r="X57" s="4">
+      <c r="X57" s="1">
         <v>2500</v>
       </c>
       <c r="Y57" s="1">
@@ -8464,61 +8566,61 @@
     </row>
     <row r="58" spans="1:26" ht="20" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C58" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D58" s="8">
         <v>8</v>
       </c>
-      <c r="E58" s="8">
-        <v>80</v>
-      </c>
-      <c r="F58" s="8">
-        <v>320</v>
+      <c r="E58" s="5">
+        <v>154</v>
+      </c>
+      <c r="F58" s="5">
+        <v>256</v>
       </c>
       <c r="G58" s="5">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="H58" s="5">
         <v>205</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="5">
         <v>205</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="5">
         <v>600</v>
       </c>
-      <c r="K58" s="1">
-        <v>160</v>
-      </c>
-      <c r="L58" s="1">
-        <v>144</v>
-      </c>
-      <c r="M58" s="1">
+      <c r="K58" s="5">
+        <v>112</v>
+      </c>
+      <c r="L58" s="5">
+        <v>156</v>
+      </c>
+      <c r="M58" s="5">
         <v>0.8</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58" s="5">
         <v>8</v>
       </c>
       <c r="O58" s="1">
         <v>2</v>
       </c>
-      <c r="P58" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>320</v>
-      </c>
-      <c r="R58" s="3">
-        <v>80</v>
-      </c>
-      <c r="S58" s="3">
-        <v>320</v>
+      <c r="P58" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>160</v>
+      </c>
+      <c r="R58" s="1">
+        <v>40</v>
+      </c>
+      <c r="S58" s="1">
+        <v>160</v>
       </c>
       <c r="T58" s="1">
         <v>20</v>
@@ -8529,13 +8631,13 @@
       <c r="V58" s="1">
         <v>2</v>
       </c>
-      <c r="W58" s="4">
+      <c r="W58" s="1">
         <v>200000</v>
       </c>
       <c r="X58" s="1">
         <v>4900</v>
       </c>
-      <c r="Y58" s="4">
+      <c r="Y58" s="1">
         <v>28800</v>
       </c>
       <c r="Z58" s="1" t="s">
@@ -8544,78 +8646,78 @@
     </row>
     <row r="59" spans="1:26" ht="20" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C59" s="5">
-        <v>1</v>
-      </c>
-      <c r="D59" s="7">
-        <v>4</v>
-      </c>
-      <c r="E59" s="7">
-        <v>80</v>
-      </c>
-      <c r="F59" s="8">
+        <v>22</v>
+      </c>
+      <c r="D59" s="5">
+        <v>10</v>
+      </c>
+      <c r="E59" s="5">
+        <v>192</v>
+      </c>
+      <c r="F59" s="5">
         <v>320</v>
       </c>
-      <c r="G59" s="7">
-        <v>80</v>
+      <c r="G59" s="5">
+        <v>384</v>
       </c>
       <c r="H59" s="5">
-        <v>102</v>
-      </c>
-      <c r="I59" s="1">
-        <v>102</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
-      <c r="L59" s="1">
-        <v>120</v>
-      </c>
-      <c r="M59" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N59" s="1">
-        <v>4</v>
+        <v>256</v>
+      </c>
+      <c r="I59" s="5">
+        <v>256</v>
+      </c>
+      <c r="J59" s="5">
+        <v>750</v>
+      </c>
+      <c r="K59" s="5">
+        <v>98</v>
+      </c>
+      <c r="L59" s="5">
+        <v>137</v>
+      </c>
+      <c r="M59" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N59" s="5">
+        <v>10</v>
       </c>
       <c r="O59" s="1">
         <v>2</v>
       </c>
-      <c r="P59" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>320</v>
-      </c>
-      <c r="R59" s="3">
-        <v>80</v>
-      </c>
-      <c r="S59" s="3">
-        <v>320</v>
+      <c r="P59" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>480</v>
+      </c>
+      <c r="R59" s="1">
+        <v>120</v>
+      </c>
+      <c r="S59" s="1">
+        <v>480</v>
       </c>
       <c r="T59" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U59" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V59" s="1">
-        <v>2</v>
-      </c>
-      <c r="W59" s="4">
-        <v>0</v>
-      </c>
-      <c r="X59" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="4">
+        <v>4</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
         <v>0</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -8624,79 +8726,79 @@
     </row>
     <row r="60" spans="1:26" ht="20" customHeight="1">
       <c r="A60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="5">
+        <v>22</v>
+      </c>
+      <c r="D60" s="8">
+        <v>12</v>
+      </c>
+      <c r="E60" s="5">
+        <v>230</v>
+      </c>
+      <c r="F60" s="5">
+        <v>384</v>
+      </c>
+      <c r="G60" s="5">
+        <v>461</v>
+      </c>
+      <c r="H60" s="5">
+        <v>307</v>
+      </c>
+      <c r="I60" s="5">
+        <v>307</v>
+      </c>
+      <c r="J60" s="5">
+        <v>900</v>
+      </c>
+      <c r="K60" s="5">
         <v>126</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7">
-        <v>6</v>
-      </c>
-      <c r="E60" s="8">
-        <v>80</v>
-      </c>
-      <c r="F60" s="8">
-        <v>320</v>
-      </c>
-      <c r="G60" s="5">
-        <v>80</v>
-      </c>
-      <c r="H60" s="5">
-        <v>154</v>
-      </c>
-      <c r="I60" s="1">
-        <v>154</v>
-      </c>
-      <c r="J60" s="1">
-        <v>450</v>
-      </c>
-      <c r="K60" s="3">
-        <v>130</v>
-      </c>
-      <c r="L60" s="1">
-        <v>132</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N60" s="1">
-        <v>6</v>
+      <c r="L60" s="5">
+        <v>150</v>
+      </c>
+      <c r="M60" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N60" s="5">
+        <v>12</v>
       </c>
       <c r="O60" s="1">
         <v>2</v>
       </c>
-      <c r="P60" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>320</v>
-      </c>
-      <c r="R60" s="3">
-        <v>80</v>
-      </c>
-      <c r="S60" s="3">
-        <v>320</v>
+      <c r="P60" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>480</v>
+      </c>
+      <c r="R60" s="1">
+        <v>120</v>
+      </c>
+      <c r="S60" s="1">
+        <v>480</v>
       </c>
       <c r="T60" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U60" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V60" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W60" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X60" s="4">
-        <v>2500</v>
+        <v>500000</v>
+      </c>
+      <c r="X60" s="1">
+        <v>9600</v>
       </c>
       <c r="Y60" s="1">
-        <v>14400</v>
+        <v>57600</v>
       </c>
       <c r="Z60" s="1" t="s">
         <v>34</v>
@@ -8704,79 +8806,79 @@
     </row>
     <row r="61" spans="1:26" ht="20" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="D61" s="8">
-        <v>8</v>
-      </c>
-      <c r="E61" s="8">
-        <v>80</v>
-      </c>
-      <c r="F61" s="8">
-        <v>320</v>
+        <v>22</v>
+      </c>
+      <c r="D61" s="5">
+        <v>14</v>
+      </c>
+      <c r="E61" s="5">
+        <v>269</v>
+      </c>
+      <c r="F61" s="5">
+        <v>448</v>
       </c>
       <c r="G61" s="5">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="H61" s="5">
-        <v>205</v>
-      </c>
-      <c r="I61" s="1">
-        <v>205</v>
-      </c>
-      <c r="J61" s="1">
-        <v>600</v>
-      </c>
-      <c r="K61" s="1">
-        <v>160</v>
-      </c>
-      <c r="L61" s="1">
-        <v>144</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N61" s="1">
-        <v>8</v>
+        <v>358</v>
+      </c>
+      <c r="I61" s="5">
+        <v>358</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1050</v>
+      </c>
+      <c r="K61" s="5">
+        <v>154</v>
+      </c>
+      <c r="L61" s="5">
+        <v>163</v>
+      </c>
+      <c r="M61" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N61" s="5">
+        <v>14</v>
       </c>
       <c r="O61" s="1">
         <v>2</v>
       </c>
-      <c r="P61" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>320</v>
-      </c>
-      <c r="R61" s="3">
-        <v>80</v>
-      </c>
-      <c r="S61" s="3">
-        <v>320</v>
+      <c r="P61" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>480</v>
+      </c>
+      <c r="R61" s="1">
+        <v>120</v>
+      </c>
+      <c r="S61" s="1">
+        <v>480</v>
       </c>
       <c r="T61" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U61" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="V61" s="1">
-        <v>2</v>
-      </c>
-      <c r="W61" s="4">
-        <v>200000</v>
+        <v>4</v>
+      </c>
+      <c r="W61" s="1">
+        <v>1000000</v>
       </c>
       <c r="X61" s="1">
-        <v>4900</v>
-      </c>
-      <c r="Y61" s="4">
-        <v>28800</v>
+        <v>12800</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>86400</v>
       </c>
       <c r="Z61" s="1" t="s">
         <v>34</v>
@@ -8784,78 +8886,78 @@
     </row>
     <row r="62" spans="1:26" ht="20" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="5">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7">
-        <v>4</v>
-      </c>
-      <c r="E62" s="7">
-        <v>80</v>
-      </c>
-      <c r="F62" s="8">
-        <v>320</v>
-      </c>
-      <c r="G62" s="7">
-        <v>80</v>
+        <v>36</v>
+      </c>
+      <c r="D62" s="8">
+        <v>16</v>
+      </c>
+      <c r="E62" s="5">
+        <v>307</v>
+      </c>
+      <c r="F62" s="5">
+        <v>512</v>
+      </c>
+      <c r="G62" s="5">
+        <v>614</v>
       </c>
       <c r="H62" s="5">
-        <v>102</v>
-      </c>
-      <c r="I62" s="1">
-        <v>102</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="1">
-        <v>120</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N62" s="1">
-        <v>4</v>
+        <v>410</v>
+      </c>
+      <c r="I62" s="5">
+        <v>410</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K62" s="5">
+        <v>140</v>
+      </c>
+      <c r="L62" s="5">
+        <v>143</v>
+      </c>
+      <c r="M62" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N62" s="5">
+        <v>16</v>
       </c>
       <c r="O62" s="1">
         <v>2</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>960</v>
+      </c>
+      <c r="R62" s="1">
+        <v>240</v>
+      </c>
+      <c r="S62" s="1">
+        <v>960</v>
+      </c>
+      <c r="T62" s="1">
+        <v>40</v>
+      </c>
+      <c r="U62" s="1">
         <v>80</v>
       </c>
-      <c r="Q62" s="3">
-        <v>320</v>
-      </c>
-      <c r="R62" s="3">
-        <v>80</v>
-      </c>
-      <c r="S62" s="3">
-        <v>320</v>
-      </c>
-      <c r="T62" s="1">
-        <v>20</v>
-      </c>
-      <c r="U62" s="1">
-        <v>20</v>
-      </c>
       <c r="V62" s="1">
-        <v>2</v>
-      </c>
-      <c r="W62" s="4">
-        <v>0</v>
-      </c>
-      <c r="X62" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="4">
+        <v>8</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1">
         <v>0</v>
       </c>
       <c r="Z62" s="1" t="s">
@@ -8864,79 +8966,79 @@
     </row>
     <row r="63" spans="1:26" ht="20" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7">
-        <v>6</v>
-      </c>
-      <c r="E63" s="8">
-        <v>80</v>
-      </c>
-      <c r="F63" s="8">
-        <v>320</v>
+        <v>36</v>
+      </c>
+      <c r="D63" s="5">
+        <v>18</v>
+      </c>
+      <c r="E63" s="5">
+        <v>346</v>
+      </c>
+      <c r="F63" s="5">
+        <v>576</v>
       </c>
       <c r="G63" s="5">
-        <v>80</v>
+        <v>691</v>
       </c>
       <c r="H63" s="5">
-        <v>154</v>
-      </c>
-      <c r="I63" s="1">
-        <v>154</v>
-      </c>
-      <c r="J63" s="1">
-        <v>450</v>
-      </c>
-      <c r="K63" s="3">
-        <v>130</v>
-      </c>
-      <c r="L63" s="1">
-        <v>132</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N63" s="1">
-        <v>6</v>
+        <v>461</v>
+      </c>
+      <c r="I63" s="5">
+        <v>461</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1350</v>
+      </c>
+      <c r="K63" s="5">
+        <v>182</v>
+      </c>
+      <c r="L63" s="5">
+        <v>156</v>
+      </c>
+      <c r="M63" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N63" s="5">
+        <v>18</v>
       </c>
       <c r="O63" s="1">
         <v>2</v>
       </c>
-      <c r="P63" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>320</v>
-      </c>
-      <c r="R63" s="3">
-        <v>80</v>
-      </c>
-      <c r="S63" s="3">
-        <v>320</v>
+      <c r="P63" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>960</v>
+      </c>
+      <c r="R63" s="1">
+        <v>240</v>
+      </c>
+      <c r="S63" s="1">
+        <v>960</v>
       </c>
       <c r="T63" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U63" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="V63" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W63" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X63" s="4">
-        <v>2500</v>
+        <v>2000000</v>
+      </c>
+      <c r="X63" s="1">
+        <v>20000</v>
       </c>
       <c r="Y63" s="1">
-        <v>14400</v>
+        <v>129600</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>34</v>
@@ -8944,141 +9046,141 @@
     </row>
     <row r="64" spans="1:26" ht="20" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C64" s="5">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D64" s="8">
-        <v>8</v>
-      </c>
-      <c r="E64" s="8">
-        <v>80</v>
-      </c>
-      <c r="F64" s="8">
-        <v>320</v>
+        <v>20</v>
+      </c>
+      <c r="E64" s="5">
+        <v>384</v>
+      </c>
+      <c r="F64" s="5">
+        <v>640</v>
       </c>
       <c r="G64" s="5">
-        <v>80</v>
+        <v>768</v>
       </c>
       <c r="H64" s="5">
-        <v>205</v>
-      </c>
-      <c r="I64" s="1">
-        <v>205</v>
-      </c>
-      <c r="J64" s="1">
-        <v>600</v>
-      </c>
-      <c r="K64" s="1">
-        <v>160</v>
-      </c>
-      <c r="L64" s="1">
-        <v>144</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N64" s="1">
-        <v>8</v>
+        <v>512</v>
+      </c>
+      <c r="I64" s="5">
+        <v>512</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1500</v>
+      </c>
+      <c r="K64" s="5">
+        <v>224</v>
+      </c>
+      <c r="L64" s="5">
+        <v>169</v>
+      </c>
+      <c r="M64" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N64" s="5">
+        <v>20</v>
       </c>
       <c r="O64" s="1">
         <v>2</v>
       </c>
-      <c r="P64" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>320</v>
-      </c>
-      <c r="R64" s="3">
-        <v>80</v>
-      </c>
-      <c r="S64" s="3">
-        <v>320</v>
+      <c r="P64" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>960</v>
+      </c>
+      <c r="R64" s="1">
+        <v>240</v>
+      </c>
+      <c r="S64" s="1">
+        <v>960</v>
       </c>
       <c r="T64" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U64" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="V64" s="1">
-        <v>2</v>
-      </c>
-      <c r="W64" s="4">
-        <v>200000</v>
+        <v>8</v>
+      </c>
+      <c r="W64" s="1">
+        <v>5000000</v>
       </c>
       <c r="X64" s="1">
-        <v>4900</v>
-      </c>
-      <c r="Y64" s="4">
-        <v>28800</v>
+        <v>24000</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>172800</v>
       </c>
       <c r="Z64" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="20" customHeight="1">
+    <row r="65" spans="1:39" ht="20" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C65" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D65" s="8">
         <v>4</v>
       </c>
       <c r="E65" s="5">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="F65" s="5">
         <v>160</v>
       </c>
       <c r="G65" s="5">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="H65" s="5">
         <v>128</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="5">
         <v>128</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="5">
         <v>240</v>
       </c>
-      <c r="K65" s="1">
-        <v>90</v>
-      </c>
-      <c r="L65" s="1">
-        <v>132</v>
-      </c>
-      <c r="M65" s="1">
+      <c r="K65" s="5">
+        <v>80</v>
+      </c>
+      <c r="L65" s="5">
+        <v>110</v>
+      </c>
+      <c r="M65" s="5">
         <v>0.8</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65" s="5">
         <v>4</v>
       </c>
       <c r="O65" s="1">
         <v>2</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P65" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>80</v>
+      </c>
+      <c r="R65" s="1">
+        <v>80</v>
+      </c>
+      <c r="S65" s="1">
         <v>160</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>160</v>
-      </c>
-      <c r="R65" s="3">
-        <v>160</v>
-      </c>
-      <c r="S65" s="3">
-        <v>320</v>
       </c>
       <c r="T65" s="1">
         <v>20</v>
@@ -9089,76 +9191,76 @@
       <c r="V65" s="1">
         <v>2</v>
       </c>
-      <c r="W65" s="4">
-        <v>0</v>
-      </c>
-      <c r="X65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="4">
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1">
         <v>0</v>
       </c>
       <c r="Z65" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="20" customHeight="1">
+    <row r="66" spans="1:39" ht="20" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="D66" s="8">
+        <v>14</v>
+      </c>
+      <c r="D66" s="5">
         <v>6</v>
       </c>
       <c r="E66" s="5">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F66" s="5">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="G66" s="5">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="H66" s="5">
         <v>192</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="5">
         <v>192</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="5">
         <v>360</v>
       </c>
-      <c r="K66" s="1">
-        <v>117</v>
-      </c>
-      <c r="L66" s="1">
-        <v>145</v>
-      </c>
-      <c r="M66" s="1">
+      <c r="K66" s="5">
+        <v>104</v>
+      </c>
+      <c r="L66" s="5">
+        <v>122</v>
+      </c>
+      <c r="M66" s="5">
         <v>0.8</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66" s="5">
         <v>6</v>
       </c>
       <c r="O66" s="1">
         <v>2</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>80</v>
+      </c>
+      <c r="R66" s="1">
+        <v>80</v>
+      </c>
+      <c r="S66" s="1">
         <v>160</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>160</v>
-      </c>
-      <c r="R66" s="3">
-        <v>160</v>
-      </c>
-      <c r="S66" s="3">
-        <v>320</v>
       </c>
       <c r="T66" s="1">
         <v>20</v>
@@ -9172,7 +9274,7 @@
       <c r="W66" s="1">
         <v>100000</v>
       </c>
-      <c r="X66" s="4">
+      <c r="X66" s="1">
         <v>3100</v>
       </c>
       <c r="Y66" s="1">
@@ -9182,63 +9284,63 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="20" customHeight="1">
+    <row r="67" spans="1:39" ht="20" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C67" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D67" s="8">
         <v>8</v>
       </c>
-      <c r="E67" s="8">
-        <v>160</v>
-      </c>
-      <c r="F67" s="8">
-        <v>160</v>
+      <c r="E67" s="5">
+        <v>192</v>
+      </c>
+      <c r="F67" s="5">
+        <v>320</v>
       </c>
       <c r="G67" s="5">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="H67" s="5">
         <v>256</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="5">
         <v>256</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="5">
         <v>480</v>
       </c>
-      <c r="K67" s="1">
-        <v>144</v>
-      </c>
-      <c r="L67" s="1">
-        <v>158</v>
-      </c>
-      <c r="M67" s="1">
+      <c r="K67" s="5">
+        <v>128</v>
+      </c>
+      <c r="L67" s="5">
+        <v>132</v>
+      </c>
+      <c r="M67" s="5">
         <v>0.8</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67" s="5">
         <v>8</v>
       </c>
       <c r="O67" s="1">
         <v>2</v>
       </c>
       <c r="P67" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>80</v>
+      </c>
+      <c r="R67" s="1">
+        <v>80</v>
+      </c>
+      <c r="S67" s="1">
         <v>160</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>160</v>
-      </c>
-      <c r="R67" s="1">
-        <v>160</v>
-      </c>
-      <c r="S67" s="1">
-        <v>320</v>
       </c>
       <c r="T67" s="1">
         <v>20</v>
@@ -9262,518 +9364,702 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="20" customHeight="1">
+    <row r="68" spans="1:39" ht="20" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="5">
-        <v>1</v>
-      </c>
-      <c r="D68" s="8">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D68" s="5">
+        <v>10</v>
       </c>
       <c r="E68" s="5">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="F68" s="5">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="G68" s="5">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="H68" s="5">
-        <v>128</v>
-      </c>
-      <c r="I68" s="1">
-        <v>128</v>
-      </c>
-      <c r="J68" s="1">
-        <v>240</v>
-      </c>
-      <c r="K68" s="1">
-        <v>90</v>
-      </c>
-      <c r="L68" s="1">
-        <v>132</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N68" s="1">
-        <v>4</v>
+        <v>320</v>
+      </c>
+      <c r="I68" s="5">
+        <v>320</v>
+      </c>
+      <c r="J68" s="5">
+        <v>600</v>
+      </c>
+      <c r="K68" s="5">
+        <v>112</v>
+      </c>
+      <c r="L68" s="5">
+        <v>116</v>
+      </c>
+      <c r="M68" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N68" s="5">
+        <v>10</v>
       </c>
       <c r="O68" s="1">
         <v>2</v>
       </c>
-      <c r="P68" s="3">
-        <v>160</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>160</v>
-      </c>
-      <c r="R68" s="3">
-        <v>160</v>
-      </c>
-      <c r="S68" s="3">
-        <v>320</v>
+      <c r="P68" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>240</v>
+      </c>
+      <c r="R68" s="1">
+        <v>240</v>
+      </c>
+      <c r="S68" s="1">
+        <v>480</v>
       </c>
       <c r="T68" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U68" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V68" s="1">
-        <v>2</v>
-      </c>
-      <c r="W68" s="4">
-        <v>0</v>
-      </c>
-      <c r="X68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="4">
+        <v>4</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1">
         <v>0</v>
       </c>
       <c r="Z68" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="20" customHeight="1">
+    <row r="69" spans="1:39" ht="20" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D69" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E69" s="5">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="F69" s="5">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="G69" s="5">
-        <v>160</v>
+        <v>576</v>
       </c>
       <c r="H69" s="5">
-        <v>192</v>
-      </c>
-      <c r="I69" s="1">
-        <v>192</v>
-      </c>
-      <c r="J69" s="1">
-        <v>360</v>
-      </c>
-      <c r="K69" s="1">
-        <v>117</v>
-      </c>
-      <c r="L69" s="1">
-        <v>145</v>
-      </c>
-      <c r="M69" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N69" s="1">
-        <v>6</v>
+        <v>384</v>
+      </c>
+      <c r="I69" s="5">
+        <v>384</v>
+      </c>
+      <c r="J69" s="5">
+        <v>720</v>
+      </c>
+      <c r="K69" s="5">
+        <v>144</v>
+      </c>
+      <c r="L69" s="5">
+        <v>127</v>
+      </c>
+      <c r="M69" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N69" s="5">
+        <v>12</v>
       </c>
       <c r="O69" s="1">
         <v>2</v>
       </c>
-      <c r="P69" s="3">
-        <v>160</v>
+      <c r="P69" s="1">
+        <v>240</v>
       </c>
       <c r="Q69" s="1">
-        <v>160</v>
-      </c>
-      <c r="R69" s="3">
-        <v>160</v>
-      </c>
-      <c r="S69" s="3">
-        <v>320</v>
+        <v>240</v>
+      </c>
+      <c r="R69" s="1">
+        <v>240</v>
+      </c>
+      <c r="S69" s="1">
+        <v>480</v>
       </c>
       <c r="T69" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U69" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W69" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X69" s="4">
-        <v>3100</v>
+        <v>500000</v>
+      </c>
+      <c r="X69" s="1">
+        <v>10400</v>
       </c>
       <c r="Y69" s="1">
-        <v>14400</v>
+        <v>57600</v>
       </c>
       <c r="Z69" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="20" customHeight="1">
+    <row r="70" spans="1:39" ht="20" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C70" s="5">
-        <v>1</v>
-      </c>
-      <c r="D70" s="8">
-        <v>8</v>
-      </c>
-      <c r="E70" s="8">
-        <v>160</v>
-      </c>
-      <c r="F70" s="8">
-        <v>160</v>
+        <v>30</v>
+      </c>
+      <c r="D70" s="5">
+        <v>14</v>
+      </c>
+      <c r="E70" s="5">
+        <v>336</v>
+      </c>
+      <c r="F70" s="5">
+        <v>560</v>
       </c>
       <c r="G70" s="5">
-        <v>160</v>
+        <v>672</v>
       </c>
       <c r="H70" s="5">
-        <v>256</v>
-      </c>
-      <c r="I70" s="1">
-        <v>256</v>
-      </c>
-      <c r="J70" s="1">
-        <v>480</v>
-      </c>
-      <c r="K70" s="1">
-        <v>144</v>
-      </c>
-      <c r="L70" s="1">
-        <v>158</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N70" s="1">
-        <v>8</v>
+        <v>448</v>
+      </c>
+      <c r="I70" s="5">
+        <v>448</v>
+      </c>
+      <c r="J70" s="5">
+        <v>840</v>
+      </c>
+      <c r="K70" s="5">
+        <v>176</v>
+      </c>
+      <c r="L70" s="5">
+        <v>138</v>
+      </c>
+      <c r="M70" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="N70" s="5">
+        <v>14</v>
       </c>
       <c r="O70" s="1">
         <v>2</v>
       </c>
       <c r="P70" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="Q70" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="R70" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="S70" s="1">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="T70" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U70" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="V70" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W70" s="1">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="X70" s="1">
-        <v>5500</v>
+        <v>13600</v>
       </c>
       <c r="Y70" s="1">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="20" customHeight="1">
+    <row r="71" spans="1:39" ht="20" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C71" s="5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D71" s="8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E71" s="5">
+        <v>384</v>
+      </c>
+      <c r="F71" s="5">
+        <v>640</v>
+      </c>
+      <c r="G71" s="5">
+        <v>768</v>
+      </c>
+      <c r="H71" s="5">
+        <v>512</v>
+      </c>
+      <c r="I71" s="5">
+        <v>512</v>
+      </c>
+      <c r="J71" s="5">
+        <v>960</v>
+      </c>
+      <c r="K71" s="5">
         <v>160</v>
       </c>
-      <c r="F71" s="5">
-        <v>160</v>
-      </c>
-      <c r="G71" s="5">
-        <v>160</v>
-      </c>
-      <c r="H71" s="5">
-        <v>128</v>
-      </c>
-      <c r="I71" s="1">
-        <v>128</v>
-      </c>
-      <c r="J71" s="1">
-        <v>240</v>
-      </c>
-      <c r="K71" s="1">
-        <v>90</v>
-      </c>
-      <c r="L71" s="1">
-        <v>132</v>
-      </c>
-      <c r="M71" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N71" s="1">
-        <v>4</v>
+      <c r="L71" s="5">
+        <v>122</v>
+      </c>
+      <c r="M71" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N71" s="5">
+        <v>16</v>
       </c>
       <c r="O71" s="1">
         <v>2</v>
       </c>
-      <c r="P71" s="3">
-        <v>160</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>160</v>
-      </c>
-      <c r="R71" s="3">
-        <v>160</v>
-      </c>
-      <c r="S71" s="3">
-        <v>320</v>
+      <c r="P71" s="1">
+        <v>480</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>480</v>
+      </c>
+      <c r="R71" s="1">
+        <v>480</v>
+      </c>
+      <c r="S71" s="1">
+        <v>960</v>
       </c>
       <c r="T71" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U71" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="V71" s="1">
-        <v>2</v>
-      </c>
-      <c r="W71" s="4">
-        <v>0</v>
-      </c>
-      <c r="X71" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="4">
+        <v>8</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1">
         <v>0</v>
       </c>
       <c r="Z71" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="20" customHeight="1">
+    <row r="72" spans="1:39" ht="20" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="5">
+        <v>40</v>
+      </c>
+      <c r="D72" s="5">
         <v>18</v>
       </c>
-      <c r="C72" s="5">
-        <v>1</v>
-      </c>
-      <c r="D72" s="8">
-        <v>6</v>
-      </c>
       <c r="E72" s="5">
-        <v>160</v>
+        <v>432</v>
       </c>
       <c r="F72" s="5">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="G72" s="5">
-        <v>160</v>
+        <v>864</v>
       </c>
       <c r="H72" s="5">
-        <v>192</v>
-      </c>
-      <c r="I72" s="1">
-        <v>192</v>
-      </c>
-      <c r="J72" s="1">
-        <v>360</v>
-      </c>
-      <c r="K72" s="1">
-        <v>117</v>
-      </c>
-      <c r="L72" s="1">
-        <v>145</v>
-      </c>
-      <c r="M72" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N72" s="1">
-        <v>6</v>
+        <v>576</v>
+      </c>
+      <c r="I72" s="5">
+        <v>576</v>
+      </c>
+      <c r="J72" s="5">
+        <v>1080</v>
+      </c>
+      <c r="K72" s="5">
+        <v>208</v>
+      </c>
+      <c r="L72" s="5">
+        <v>132</v>
+      </c>
+      <c r="M72" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N72" s="5">
+        <v>18</v>
       </c>
       <c r="O72" s="1">
         <v>2</v>
       </c>
-      <c r="P72" s="3">
-        <v>160</v>
+      <c r="P72" s="1">
+        <v>480</v>
       </c>
       <c r="Q72" s="1">
-        <v>160</v>
-      </c>
-      <c r="R72" s="3">
-        <v>160</v>
-      </c>
-      <c r="S72" s="3">
-        <v>320</v>
+        <v>480</v>
+      </c>
+      <c r="R72" s="1">
+        <v>480</v>
+      </c>
+      <c r="S72" s="1">
+        <v>960</v>
       </c>
       <c r="T72" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U72" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="V72" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W72" s="1">
-        <v>100000</v>
-      </c>
-      <c r="X72" s="4">
-        <v>3100</v>
+        <v>2000000</v>
+      </c>
+      <c r="X72" s="1">
+        <v>21000</v>
       </c>
       <c r="Y72" s="1">
-        <v>14400</v>
+        <v>129600</v>
       </c>
       <c r="Z72" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="20" customHeight="1">
+    <row r="73" spans="1:39" ht="20" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D73" s="8">
-        <v>8</v>
-      </c>
-      <c r="E73" s="8">
-        <v>160</v>
-      </c>
-      <c r="F73" s="8">
-        <v>160</v>
+        <v>20</v>
+      </c>
+      <c r="E73" s="5">
+        <v>480</v>
+      </c>
+      <c r="F73" s="5">
+        <v>800</v>
       </c>
       <c r="G73" s="5">
-        <v>160</v>
+        <v>960</v>
       </c>
       <c r="H73" s="5">
+        <v>640</v>
+      </c>
+      <c r="I73" s="5">
+        <v>640</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K73" s="5">
         <v>256</v>
       </c>
-      <c r="I73" s="1">
-        <v>256</v>
-      </c>
-      <c r="J73" s="1">
-        <v>480</v>
-      </c>
-      <c r="K73" s="1">
-        <v>144</v>
-      </c>
-      <c r="L73" s="1">
-        <v>158</v>
-      </c>
-      <c r="M73" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="N73" s="1">
-        <v>8</v>
+      <c r="L73" s="5">
+        <v>143</v>
+      </c>
+      <c r="M73" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N73" s="5">
+        <v>20</v>
       </c>
       <c r="O73" s="1">
         <v>2</v>
       </c>
       <c r="P73" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="Q73" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="R73" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="S73" s="1">
-        <v>320</v>
+        <v>960</v>
       </c>
       <c r="T73" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U73" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="V73" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W73" s="1">
-        <v>200000</v>
+        <v>5000000</v>
       </c>
       <c r="X73" s="1">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="Y73" s="1">
-        <v>28800</v>
+        <v>172800</v>
       </c>
       <c r="Z73" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="20" customHeight="1">
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
+    <row r="74" spans="1:39" ht="20" customHeight="1">
+      <c r="I74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
     </row>
-    <row r="75" spans="1:26" ht="20" customHeight="1">
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+    <row r="75" spans="1:39" ht="20" customHeight="1">
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
     </row>
-    <row r="76" spans="1:26" ht="20" customHeight="1">
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+    <row r="76" spans="1:39" ht="20" customHeight="1">
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+      <c r="AM76" s="5"/>
     </row>
-    <row r="77" spans="1:26" ht="20" customHeight="1">
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
+    <row r="77" spans="1:39" ht="20" customHeight="1">
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+      <c r="AM77" s="5"/>
     </row>
-    <row r="78" spans="1:26" ht="20" customHeight="1">
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
+    <row r="78" spans="1:39" ht="20" customHeight="1">
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
     </row>
-    <row r="79" spans="1:26" ht="20" customHeight="1">
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+    <row r="79" spans="1:39" ht="20" customHeight="1">
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
     </row>
-    <row r="80" spans="1:26" ht="20" customHeight="1">
-      <c r="D80" s="8"/>
+    <row r="80" spans="1:39" ht="20" customHeight="1">
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+    </row>
+    <row r="81" spans="9:9" ht="20" customHeight="1">
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="9:9" ht="20" customHeight="1">
+      <c r="I82" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -9791,15 +10077,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="41" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="17" style="1" customWidth="1"/>
     <col min="14" max="14" width="23" style="1" customWidth="1"/>
     <col min="15" max="16" width="17" style="1" customWidth="1"/>
@@ -9850,7 +10136,7 @@
         <v>4</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>29</v>
@@ -9862,7 +10148,7 @@
         <v>10</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>11</v>
@@ -9879,7 +10165,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -9906,10 +10192,10 @@
         <v>560</v>
       </c>
       <c r="L2" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M2" s="1">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -9924,10 +10210,10 @@
         <v>15</v>
       </c>
       <c r="R2" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="S2" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>31</v>
@@ -9935,13 +10221,13 @@
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -9968,10 +10254,10 @@
         <v>350</v>
       </c>
       <c r="L3" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M3" s="1">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -9986,10 +10272,10 @@
         <v>15</v>
       </c>
       <c r="R3" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="S3" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>32</v>
@@ -10003,7 +10289,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -10030,10 +10316,10 @@
         <v>900</v>
       </c>
       <c r="L4" s="1">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M4" s="1">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -10048,10 +10334,10 @@
         <v>30</v>
       </c>
       <c r="R4" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S4" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>33</v>
@@ -10059,13 +10345,13 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -10092,10 +10378,10 @@
         <v>1125</v>
       </c>
       <c r="L5" s="1">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="M5" s="1">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -10107,27 +10393,27 @@
         <v>2</v>
       </c>
       <c r="Q5" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R5" s="1">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="S5" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -10154,10 +10440,10 @@
         <v>600</v>
       </c>
       <c r="L6" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N6" s="1">
         <v>1.2</v>
@@ -10169,13 +10455,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R6" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S6" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>31</v>
@@ -10189,7 +10475,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -10216,10 +10502,10 @@
         <v>384</v>
       </c>
       <c r="L7" s="1">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M7" s="1">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N7" s="1">
         <v>1.2</v>
@@ -10231,13 +10517,13 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R7" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S7" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>32</v>
@@ -10245,13 +10531,13 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -10278,10 +10564,10 @@
         <v>1280</v>
       </c>
       <c r="L8" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M8" s="1">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N8" s="1">
         <v>2.4</v>
@@ -10293,13 +10579,13 @@
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R8" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="S8" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>33</v>
@@ -10307,13 +10593,13 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -10340,7 +10626,7 @@
         <v>960</v>
       </c>
       <c r="L9" s="1">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="M9" s="1">
         <v>140</v>
@@ -10355,16 +10641,16 @@
         <v>2</v>
       </c>
       <c r="Q9" s="1">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="R9" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="S9" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -10397,16 +10683,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/Soldiers.xlsx
+++ b/Dragonfall/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="0" windowWidth="38100" windowHeight="21140" tabRatio="165" activeTab="1"/>
+    <workbookView xWindow="-25860" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="165"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1376">
+  <cellStyleXfs count="1378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2152,7 +2154,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1376">
+  <cellStyles count="1378">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2843,6 +2845,7 @@
     <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3526,6 +3529,7 @@
     <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3977,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25:AF28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4134,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R2" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S2" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T2" s="1">
         <v>10</v>
@@ -4214,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R3" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S3" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T3" s="1">
         <v>10</v>
@@ -4294,13 +4298,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R4" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S4" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T4" s="1">
         <v>10</v>
@@ -4374,13 +4378,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="R5" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S5" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T5" s="1">
         <v>15</v>
@@ -4454,13 +4458,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="R6" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S6" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T6" s="1">
         <v>15</v>
@@ -4534,13 +4538,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="R7" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S7" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T7" s="1">
         <v>15</v>
@@ -4614,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R8" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S8" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T8" s="1">
         <v>20</v>
@@ -4694,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R9" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S9" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T9" s="1">
         <v>20</v>
@@ -4774,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R10" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S10" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T10" s="1">
         <v>20</v>
@@ -4854,13 +4858,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R11" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S11" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T11" s="1">
         <v>10</v>
@@ -4934,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T12" s="1">
         <v>10</v>
@@ -5014,13 +5018,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R13" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S13" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T13" s="1">
         <v>10</v>
@@ -5094,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R14" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S14" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T14" s="1">
         <v>15</v>
@@ -5174,13 +5178,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R15" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S15" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T15" s="1">
         <v>15</v>
@@ -5254,13 +5258,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R16" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S16" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T16" s="1">
         <v>15</v>
@@ -5334,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="S17" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T17" s="1">
         <v>20</v>
@@ -5414,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R18" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="S18" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T18" s="1">
         <v>20</v>
@@ -5494,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R19" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="S19" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T19" s="1">
         <v>20</v>
@@ -5571,16 +5575,16 @@
         <v>1</v>
       </c>
       <c r="P20" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S20" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T20" s="1">
         <v>10</v>
@@ -5651,16 +5655,16 @@
         <v>1</v>
       </c>
       <c r="P21" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S21" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T21" s="1">
         <v>10</v>
@@ -5731,16 +5735,16 @@
         <v>1</v>
       </c>
       <c r="P22" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S22" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T22" s="1">
         <v>10</v>
@@ -5811,16 +5815,16 @@
         <v>1</v>
       </c>
       <c r="P23" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S23" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T23" s="1">
         <v>15</v>
@@ -5891,16 +5895,16 @@
         <v>1</v>
       </c>
       <c r="P24" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S24" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T24" s="1">
         <v>15</v>
@@ -5971,16 +5975,16 @@
         <v>1</v>
       </c>
       <c r="P25" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S25" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T25" s="1">
         <v>15</v>
@@ -6051,16 +6055,16 @@
         <v>1</v>
       </c>
       <c r="P26" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S26" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T26" s="1">
         <v>20</v>
@@ -6131,16 +6135,16 @@
         <v>1</v>
       </c>
       <c r="P27" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S27" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T27" s="1">
         <v>20</v>
@@ -6211,16 +6215,16 @@
         <v>1</v>
       </c>
       <c r="P28" s="3">
-        <v>360</v>
-      </c>
-      <c r="Q28" s="3">
+        <v>720</v>
+      </c>
+      <c r="Q28" s="1">
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S28" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T28" s="1">
         <v>20</v>
@@ -6290,17 +6294,17 @@
       <c r="O29" s="1">
         <v>1</v>
       </c>
-      <c r="P29" s="3">
-        <v>40</v>
+      <c r="P29" s="1">
+        <v>80</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
       </c>
-      <c r="R29" s="3">
-        <v>80</v>
-      </c>
-      <c r="S29" s="3">
-        <v>80</v>
+      <c r="R29" s="1">
+        <v>160</v>
+      </c>
+      <c r="S29" s="1">
+        <v>160</v>
       </c>
       <c r="T29" s="1">
         <v>10</v>
@@ -6371,16 +6375,16 @@
         <v>1</v>
       </c>
       <c r="P30" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S30" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T30" s="1">
         <v>10</v>
@@ -6451,16 +6455,16 @@
         <v>1</v>
       </c>
       <c r="P31" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S31" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T31" s="1">
         <v>10</v>
@@ -6531,16 +6535,16 @@
         <v>1</v>
       </c>
       <c r="P32" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S32" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T32" s="1">
         <v>15</v>
@@ -6611,16 +6615,16 @@
         <v>1</v>
       </c>
       <c r="P33" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S33" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T33" s="1">
         <v>15</v>
@@ -6691,16 +6695,16 @@
         <v>1</v>
       </c>
       <c r="P34" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="1">
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S34" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T34" s="1">
         <v>15</v>
@@ -6771,16 +6775,16 @@
         <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S35" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T35" s="1">
         <v>20</v>
@@ -6851,16 +6855,16 @@
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q36" s="1">
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S36" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T36" s="1">
         <v>20</v>
@@ -6931,16 +6935,16 @@
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q37" s="1">
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S37" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T37" s="1">
         <v>20</v>
@@ -7014,13 +7018,13 @@
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R38" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S38" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T38" s="1">
         <v>20</v>
@@ -7094,13 +7098,13 @@
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R39" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S39" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T39" s="1">
         <v>20</v>
@@ -7174,13 +7178,13 @@
         <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R40" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S40" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T40" s="1">
         <v>20</v>
@@ -7254,13 +7258,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R41" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S41" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T41" s="1">
         <v>30</v>
@@ -7334,13 +7338,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R42" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S42" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T42" s="1">
         <v>30</v>
@@ -7414,13 +7418,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R43" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S43" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T43" s="1">
         <v>30</v>
@@ -7494,13 +7498,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="R44" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S44" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T44" s="1">
         <v>40</v>
@@ -7574,13 +7578,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="R45" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S45" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T45" s="1">
         <v>40</v>
@@ -7654,13 +7658,13 @@
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="R46" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S46" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T46" s="1">
         <v>40</v>
@@ -7731,16 +7735,16 @@
         <v>2</v>
       </c>
       <c r="P47" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q47" s="1">
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S47" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T47" s="1">
         <v>20</v>
@@ -7811,16 +7815,16 @@
         <v>2</v>
       </c>
       <c r="P48" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q48" s="1">
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S48" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T48" s="1">
         <v>20</v>
@@ -7891,16 +7895,16 @@
         <v>2</v>
       </c>
       <c r="P49" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q49" s="1">
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S49" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T49" s="1">
         <v>20</v>
@@ -7971,16 +7975,16 @@
         <v>2</v>
       </c>
       <c r="P50" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q50" s="1">
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S50" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T50" s="1">
         <v>30</v>
@@ -8051,16 +8055,16 @@
         <v>2</v>
       </c>
       <c r="P51" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q51" s="1">
         <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S51" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T51" s="1">
         <v>30</v>
@@ -8131,16 +8135,16 @@
         <v>2</v>
       </c>
       <c r="P52" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q52" s="1">
         <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S52" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T52" s="1">
         <v>30</v>
@@ -8211,16 +8215,16 @@
         <v>2</v>
       </c>
       <c r="P53" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="Q53" s="1">
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S53" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T53" s="1">
         <v>40</v>
@@ -8291,16 +8295,16 @@
         <v>2</v>
       </c>
       <c r="P54" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="Q54" s="1">
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S54" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T54" s="1">
         <v>40</v>
@@ -8371,16 +8375,16 @@
         <v>2</v>
       </c>
       <c r="P55" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="Q55" s="1">
         <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S55" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T55" s="1">
         <v>40</v>
@@ -8451,16 +8455,16 @@
         <v>2</v>
       </c>
       <c r="P56" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q56" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="R56" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S56" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T56" s="1">
         <v>20</v>
@@ -8531,16 +8535,16 @@
         <v>2</v>
       </c>
       <c r="P57" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q57" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="R57" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S57" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T57" s="1">
         <v>20</v>
@@ -8611,16 +8615,16 @@
         <v>2</v>
       </c>
       <c r="P58" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q58" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="R58" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S58" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T58" s="1">
         <v>20</v>
@@ -8691,16 +8695,16 @@
         <v>2</v>
       </c>
       <c r="P59" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q59" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R59" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S59" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T59" s="1">
         <v>30</v>
@@ -8771,16 +8775,16 @@
         <v>2</v>
       </c>
       <c r="P60" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q60" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R60" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S60" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T60" s="1">
         <v>30</v>
@@ -8851,16 +8855,16 @@
         <v>2</v>
       </c>
       <c r="P61" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q61" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R61" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S61" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T61" s="1">
         <v>30</v>
@@ -8931,16 +8935,16 @@
         <v>2</v>
       </c>
       <c r="P62" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q62" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="R62" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S62" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T62" s="1">
         <v>40</v>
@@ -9011,16 +9015,16 @@
         <v>2</v>
       </c>
       <c r="P63" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q63" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="R63" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S63" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T63" s="1">
         <v>40</v>
@@ -9091,16 +9095,16 @@
         <v>2</v>
       </c>
       <c r="P64" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q64" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="R64" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S64" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T64" s="1">
         <v>40</v>
@@ -9171,16 +9175,16 @@
         <v>2</v>
       </c>
       <c r="P65" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="Q65" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="R65" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S65" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T65" s="1">
         <v>20</v>
@@ -9251,16 +9255,16 @@
         <v>2</v>
       </c>
       <c r="P66" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="Q66" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="R66" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S66" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T66" s="1">
         <v>20</v>
@@ -9331,16 +9335,16 @@
         <v>2</v>
       </c>
       <c r="P67" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="Q67" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="R67" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S67" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T67" s="1">
         <v>20</v>
@@ -9411,16 +9415,16 @@
         <v>2</v>
       </c>
       <c r="P68" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q68" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="R68" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S68" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T68" s="1">
         <v>30</v>
@@ -9491,16 +9495,16 @@
         <v>2</v>
       </c>
       <c r="P69" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q69" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="R69" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S69" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T69" s="1">
         <v>30</v>
@@ -9571,16 +9575,16 @@
         <v>2</v>
       </c>
       <c r="P70" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q70" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="R70" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S70" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T70" s="1">
         <v>30</v>
@@ -9651,16 +9655,16 @@
         <v>2</v>
       </c>
       <c r="P71" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="Q71" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R71" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S71" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T71" s="1">
         <v>40</v>
@@ -9731,16 +9735,16 @@
         <v>2</v>
       </c>
       <c r="P72" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="Q72" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R72" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S72" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T72" s="1">
         <v>40</v>
@@ -9811,16 +9815,16 @@
         <v>2</v>
       </c>
       <c r="P73" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="Q73" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R73" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S73" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T73" s="1">
         <v>40</v>
@@ -9848,6 +9852,10 @@
       <c r="I74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
@@ -9903,10 +9911,6 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
@@ -10077,7 +10081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/Soldiers.xlsx
+++ b/Dragonfall/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25860" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="165"/>
+    <workbookView xWindow="5460" yWindow="0" windowWidth="28540" windowHeight="17560" tabRatio="165"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1378">
+  <cellStyleXfs count="1400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2154,7 +2176,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1378">
+  <cellStyles count="1400">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2846,6 +2868,17 @@
     <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3530,6 +3563,17 @@
     <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3981,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:S75"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="N53" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4147,7 +4191,7 @@
         <v>160</v>
       </c>
       <c r="T2" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U2" s="1">
         <v>10</v>
@@ -4227,7 +4271,7 @@
         <v>160</v>
       </c>
       <c r="T3" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U3" s="1">
         <v>15</v>
@@ -4307,7 +4351,7 @@
         <v>160</v>
       </c>
       <c r="T4" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U4" s="1">
         <v>20</v>
@@ -4387,7 +4431,7 @@
         <v>480</v>
       </c>
       <c r="T5" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U5" s="1">
         <v>25</v>
@@ -4467,7 +4511,7 @@
         <v>480</v>
       </c>
       <c r="T6" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U6" s="1">
         <v>30</v>
@@ -4547,7 +4591,7 @@
         <v>480</v>
       </c>
       <c r="T7" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U7" s="1">
         <v>35</v>
@@ -4627,7 +4671,7 @@
         <v>960</v>
       </c>
       <c r="T8" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U8" s="1">
         <v>40</v>
@@ -4707,7 +4751,7 @@
         <v>960</v>
       </c>
       <c r="T9" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U9" s="1">
         <v>45</v>
@@ -4787,7 +4831,7 @@
         <v>960</v>
       </c>
       <c r="T10" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U10" s="1">
         <v>50</v>
@@ -4867,7 +4911,7 @@
         <v>160</v>
       </c>
       <c r="T11" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U11" s="1">
         <v>10</v>
@@ -4947,7 +4991,7 @@
         <v>160</v>
       </c>
       <c r="T12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U12" s="1">
         <v>15</v>
@@ -5027,7 +5071,7 @@
         <v>160</v>
       </c>
       <c r="T13" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U13" s="1">
         <v>20</v>
@@ -5107,7 +5151,7 @@
         <v>480</v>
       </c>
       <c r="T14" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U14" s="1">
         <v>25</v>
@@ -5187,7 +5231,7 @@
         <v>480</v>
       </c>
       <c r="T15" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U15" s="1">
         <v>30</v>
@@ -5267,7 +5311,7 @@
         <v>480</v>
       </c>
       <c r="T16" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U16" s="1">
         <v>35</v>
@@ -5347,7 +5391,7 @@
         <v>960</v>
       </c>
       <c r="T17" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U17" s="1">
         <v>40</v>
@@ -5427,7 +5471,7 @@
         <v>960</v>
       </c>
       <c r="T18" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U18" s="1">
         <v>45</v>
@@ -5507,7 +5551,7 @@
         <v>960</v>
       </c>
       <c r="T19" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U19" s="1">
         <v>50</v>
@@ -5587,7 +5631,7 @@
         <v>160</v>
       </c>
       <c r="T20" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U20" s="1">
         <v>10</v>
@@ -5667,7 +5711,7 @@
         <v>160</v>
       </c>
       <c r="T21" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U21" s="1">
         <v>15</v>
@@ -5747,7 +5791,7 @@
         <v>160</v>
       </c>
       <c r="T22" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U22" s="1">
         <v>20</v>
@@ -5827,7 +5871,7 @@
         <v>480</v>
       </c>
       <c r="T23" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U23" s="1">
         <v>25</v>
@@ -5907,7 +5951,7 @@
         <v>480</v>
       </c>
       <c r="T24" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U24" s="1">
         <v>30</v>
@@ -5987,7 +6031,7 @@
         <v>480</v>
       </c>
       <c r="T25" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U25" s="1">
         <v>35</v>
@@ -6067,7 +6111,7 @@
         <v>960</v>
       </c>
       <c r="T26" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U26" s="1">
         <v>40</v>
@@ -6147,7 +6191,7 @@
         <v>960</v>
       </c>
       <c r="T27" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U27" s="1">
         <v>45</v>
@@ -6227,7 +6271,7 @@
         <v>960</v>
       </c>
       <c r="T28" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U28" s="1">
         <v>50</v>
@@ -6307,7 +6351,7 @@
         <v>160</v>
       </c>
       <c r="T29" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U29" s="1">
         <v>10</v>
@@ -6387,7 +6431,7 @@
         <v>160</v>
       </c>
       <c r="T30" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U30" s="1">
         <v>15</v>
@@ -6467,7 +6511,7 @@
         <v>160</v>
       </c>
       <c r="T31" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U31" s="1">
         <v>20</v>
@@ -6547,7 +6591,7 @@
         <v>480</v>
       </c>
       <c r="T32" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U32" s="1">
         <v>25</v>
@@ -6627,7 +6671,7 @@
         <v>480</v>
       </c>
       <c r="T33" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U33" s="1">
         <v>30</v>
@@ -6707,7 +6751,7 @@
         <v>480</v>
       </c>
       <c r="T34" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U34" s="1">
         <v>35</v>
@@ -6787,7 +6831,7 @@
         <v>960</v>
       </c>
       <c r="T35" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U35" s="1">
         <v>40</v>
@@ -6867,7 +6911,7 @@
         <v>960</v>
       </c>
       <c r="T36" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U36" s="1">
         <v>45</v>
@@ -6947,7 +6991,7 @@
         <v>960</v>
       </c>
       <c r="T37" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U37" s="1">
         <v>50</v>
@@ -7027,7 +7071,7 @@
         <v>320</v>
       </c>
       <c r="T38" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U38" s="1">
         <v>20</v>
@@ -7107,7 +7151,7 @@
         <v>320</v>
       </c>
       <c r="T39" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U39" s="1">
         <v>30</v>
@@ -7187,7 +7231,7 @@
         <v>320</v>
       </c>
       <c r="T40" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U40" s="1">
         <v>40</v>
@@ -7267,7 +7311,7 @@
         <v>960</v>
       </c>
       <c r="T41" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U41" s="1">
         <v>50</v>
@@ -7347,7 +7391,7 @@
         <v>960</v>
       </c>
       <c r="T42" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U42" s="1">
         <v>60</v>
@@ -7427,7 +7471,7 @@
         <v>960</v>
       </c>
       <c r="T43" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U43" s="1">
         <v>70</v>
@@ -7507,7 +7551,7 @@
         <v>1920</v>
       </c>
       <c r="T44" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U44" s="1">
         <v>80</v>
@@ -7587,7 +7631,7 @@
         <v>1920</v>
       </c>
       <c r="T45" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U45" s="1">
         <v>90</v>
@@ -7667,7 +7711,7 @@
         <v>1920</v>
       </c>
       <c r="T46" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U46" s="1">
         <v>100</v>
@@ -7747,7 +7791,7 @@
         <v>320</v>
       </c>
       <c r="T47" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U47" s="1">
         <v>20</v>
@@ -7826,8 +7870,8 @@
       <c r="S48" s="1">
         <v>320</v>
       </c>
-      <c r="T48" s="1">
-        <v>20</v>
+      <c r="T48" s="4">
+        <v>12</v>
       </c>
       <c r="U48" s="1">
         <v>30</v>
@@ -7906,8 +7950,8 @@
       <c r="S49" s="1">
         <v>320</v>
       </c>
-      <c r="T49" s="1">
-        <v>20</v>
+      <c r="T49" s="4">
+        <v>12</v>
       </c>
       <c r="U49" s="1">
         <v>40</v>
@@ -7986,8 +8030,8 @@
       <c r="S50" s="1">
         <v>960</v>
       </c>
-      <c r="T50" s="1">
-        <v>30</v>
+      <c r="T50" s="4">
+        <v>18</v>
       </c>
       <c r="U50" s="1">
         <v>50</v>
@@ -8066,8 +8110,8 @@
       <c r="S51" s="1">
         <v>960</v>
       </c>
-      <c r="T51" s="1">
-        <v>30</v>
+      <c r="T51" s="4">
+        <v>18</v>
       </c>
       <c r="U51" s="1">
         <v>60</v>
@@ -8146,8 +8190,8 @@
       <c r="S52" s="1">
         <v>960</v>
       </c>
-      <c r="T52" s="1">
-        <v>30</v>
+      <c r="T52" s="4">
+        <v>18</v>
       </c>
       <c r="U52" s="1">
         <v>70</v>
@@ -8226,8 +8270,8 @@
       <c r="S53" s="1">
         <v>1920</v>
       </c>
-      <c r="T53" s="1">
-        <v>40</v>
+      <c r="T53" s="4">
+        <v>24</v>
       </c>
       <c r="U53" s="1">
         <v>80</v>
@@ -8306,8 +8350,8 @@
       <c r="S54" s="1">
         <v>1920</v>
       </c>
-      <c r="T54" s="1">
-        <v>40</v>
+      <c r="T54" s="4">
+        <v>24</v>
       </c>
       <c r="U54" s="1">
         <v>90</v>
@@ -8386,8 +8430,8 @@
       <c r="S55" s="1">
         <v>1920</v>
       </c>
-      <c r="T55" s="1">
-        <v>40</v>
+      <c r="T55" s="4">
+        <v>24</v>
       </c>
       <c r="U55" s="1">
         <v>100</v>
@@ -8467,7 +8511,7 @@
         <v>320</v>
       </c>
       <c r="T56" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U56" s="1">
         <v>20</v>
@@ -8547,7 +8591,7 @@
         <v>320</v>
       </c>
       <c r="T57" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U57" s="1">
         <v>30</v>
@@ -8627,7 +8671,7 @@
         <v>320</v>
       </c>
       <c r="T58" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U58" s="1">
         <v>40</v>
@@ -8707,7 +8751,7 @@
         <v>960</v>
       </c>
       <c r="T59" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U59" s="1">
         <v>50</v>
@@ -8787,7 +8831,7 @@
         <v>960</v>
       </c>
       <c r="T60" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U60" s="1">
         <v>60</v>
@@ -8867,7 +8911,7 @@
         <v>960</v>
       </c>
       <c r="T61" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U61" s="1">
         <v>70</v>
@@ -8947,7 +8991,7 @@
         <v>1920</v>
       </c>
       <c r="T62" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U62" s="1">
         <v>80</v>
@@ -9027,7 +9071,7 @@
         <v>1920</v>
       </c>
       <c r="T63" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U63" s="1">
         <v>90</v>
@@ -9107,7 +9151,7 @@
         <v>1920</v>
       </c>
       <c r="T64" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U64" s="1">
         <v>100</v>
@@ -9187,7 +9231,7 @@
         <v>320</v>
       </c>
       <c r="T65" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U65" s="1">
         <v>20</v>
@@ -9266,8 +9310,8 @@
       <c r="S66" s="1">
         <v>320</v>
       </c>
-      <c r="T66" s="1">
-        <v>20</v>
+      <c r="T66" s="4">
+        <v>12</v>
       </c>
       <c r="U66" s="1">
         <v>30</v>
@@ -9346,8 +9390,8 @@
       <c r="S67" s="1">
         <v>320</v>
       </c>
-      <c r="T67" s="1">
-        <v>20</v>
+      <c r="T67" s="4">
+        <v>12</v>
       </c>
       <c r="U67" s="1">
         <v>40</v>
@@ -9426,8 +9470,8 @@
       <c r="S68" s="1">
         <v>960</v>
       </c>
-      <c r="T68" s="1">
-        <v>30</v>
+      <c r="T68" s="4">
+        <v>18</v>
       </c>
       <c r="U68" s="1">
         <v>50</v>
@@ -9506,8 +9550,8 @@
       <c r="S69" s="1">
         <v>960</v>
       </c>
-      <c r="T69" s="1">
-        <v>30</v>
+      <c r="T69" s="4">
+        <v>18</v>
       </c>
       <c r="U69" s="1">
         <v>60</v>
@@ -9586,8 +9630,8 @@
       <c r="S70" s="1">
         <v>960</v>
       </c>
-      <c r="T70" s="1">
-        <v>30</v>
+      <c r="T70" s="4">
+        <v>18</v>
       </c>
       <c r="U70" s="1">
         <v>70</v>
@@ -9666,8 +9710,8 @@
       <c r="S71" s="1">
         <v>1920</v>
       </c>
-      <c r="T71" s="1">
-        <v>40</v>
+      <c r="T71" s="4">
+        <v>24</v>
       </c>
       <c r="U71" s="1">
         <v>80</v>
@@ -9746,8 +9790,8 @@
       <c r="S72" s="1">
         <v>1920</v>
       </c>
-      <c r="T72" s="1">
-        <v>40</v>
+      <c r="T72" s="4">
+        <v>24</v>
       </c>
       <c r="U72" s="1">
         <v>90</v>
@@ -9826,8 +9870,8 @@
       <c r="S73" s="1">
         <v>1920</v>
       </c>
-      <c r="T73" s="1">
-        <v>40</v>
+      <c r="T73" s="4">
+        <v>24</v>
       </c>
       <c r="U73" s="1">
         <v>100</v>
@@ -10081,8 +10125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10211,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R2" s="1">
         <v>40</v>
@@ -10273,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R3" s="1">
         <v>40</v>
@@ -10335,7 +10379,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R4" s="1">
         <v>80</v>
@@ -10397,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="Q5" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R5" s="1">
         <v>80</v>
@@ -10459,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R6" s="1">
         <v>50</v>
@@ -10521,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" s="1">
         <v>50</v>
@@ -10583,7 +10627,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R8" s="1">
         <v>100</v>
@@ -10645,7 +10689,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R9" s="1">
         <v>100</v>

--- a/Dragonfall/gameData/shared/Soldiers.xlsx
+++ b/Dragonfall/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="0" windowWidth="28540" windowHeight="17560" tabRatio="165"/>
+    <workbookView xWindow="-23700" yWindow="0" windowWidth="28540" windowHeight="15420" tabRatio="165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1400">
+  <cellStyleXfs count="1404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2176,7 +2180,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1400">
+  <cellStyles count="1404">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2879,6 +2883,8 @@
     <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3574,6 +3580,8 @@
     <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4025,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="N53" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView showRuler="0" topLeftCell="E54" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4167,7 +4175,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="5">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M2" s="5">
         <v>0.4</v>
@@ -4247,7 +4255,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="5">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M3" s="5">
         <v>0.4</v>
@@ -4327,7 +4335,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="5">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M4" s="5">
         <v>0.4</v>
@@ -4407,7 +4415,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="5">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="M5" s="5">
         <v>0.8</v>
@@ -4487,7 +4495,7 @@
         <v>45</v>
       </c>
       <c r="L6" s="5">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="M6" s="5">
         <v>0.8</v>
@@ -4567,7 +4575,7 @@
         <v>56</v>
       </c>
       <c r="L7" s="5">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M7" s="5">
         <v>0.8</v>
@@ -4647,7 +4655,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="5">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M8" s="5">
         <v>1.2</v>
@@ -4727,7 +4735,7 @@
         <v>65</v>
       </c>
       <c r="L9" s="5">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M9" s="5">
         <v>1.2</v>
@@ -4807,7 +4815,7 @@
         <v>80</v>
       </c>
       <c r="L10" s="5">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="M10" s="5">
         <v>1.2</v>
@@ -4884,10 +4892,10 @@
         <v>120</v>
       </c>
       <c r="K11" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L11" s="5">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="M11" s="5">
         <v>0.4</v>
@@ -4964,10 +4972,10 @@
         <v>180</v>
       </c>
       <c r="K12" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L12" s="5">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="M12" s="5">
         <v>0.4</v>
@@ -5044,10 +5052,10 @@
         <v>240</v>
       </c>
       <c r="K13" s="7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L13" s="5">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="M13" s="5">
         <v>0.4</v>
@@ -5124,10 +5132,10 @@
         <v>300</v>
       </c>
       <c r="K14" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L14" s="5">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="M14" s="5">
         <v>0.8</v>
@@ -5204,10 +5212,10 @@
         <v>360</v>
       </c>
       <c r="K15" s="7">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L15" s="5">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="M15" s="5">
         <v>0.8</v>
@@ -5284,10 +5292,10 @@
         <v>420</v>
       </c>
       <c r="K16" s="7">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L16" s="5">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="M16" s="5">
         <v>0.8</v>
@@ -5364,10 +5372,10 @@
         <v>480</v>
       </c>
       <c r="K17" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L17" s="5">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="M17" s="5">
         <v>1.2</v>
@@ -5444,10 +5452,10 @@
         <v>540</v>
       </c>
       <c r="K18" s="7">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L18" s="5">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="M18" s="5">
         <v>1.2</v>
@@ -5524,10 +5532,10 @@
         <v>600</v>
       </c>
       <c r="K19" s="7">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L19" s="5">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="M19" s="5">
         <v>1.2</v>
@@ -5604,10 +5612,10 @@
         <v>120</v>
       </c>
       <c r="K20" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L20" s="5">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M20" s="5">
         <v>0.4</v>
@@ -5684,10 +5692,10 @@
         <v>180</v>
       </c>
       <c r="K21" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L21" s="5">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M21" s="5">
         <v>0.4</v>
@@ -5764,10 +5772,10 @@
         <v>240</v>
       </c>
       <c r="K22" s="7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L22" s="5">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M22" s="5">
         <v>0.4</v>
@@ -5844,10 +5852,10 @@
         <v>300</v>
       </c>
       <c r="K23" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L23" s="5">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M23" s="5">
         <v>0.8</v>
@@ -5924,10 +5932,10 @@
         <v>360</v>
       </c>
       <c r="K24" s="7">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L24" s="5">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M24" s="5">
         <v>0.8</v>
@@ -6003,11 +6011,11 @@
       <c r="J25" s="7">
         <v>420</v>
       </c>
-      <c r="K25" s="7">
-        <v>44</v>
+      <c r="K25" s="5">
+        <v>58</v>
       </c>
       <c r="L25" s="5">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M25" s="5">
         <v>0.8</v>
@@ -6084,10 +6092,10 @@
         <v>480</v>
       </c>
       <c r="K26" s="5">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L26" s="5">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M26" s="5">
         <v>1.2</v>
@@ -6164,10 +6172,10 @@
         <v>540</v>
       </c>
       <c r="K27" s="5">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="L27" s="5">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M27" s="5">
         <v>1.2</v>
@@ -6244,10 +6252,10 @@
         <v>600</v>
       </c>
       <c r="K28" s="5">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="L28" s="5">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M28" s="5">
         <v>1.2</v>
@@ -6324,10 +6332,10 @@
         <v>96</v>
       </c>
       <c r="K29" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L29" s="5">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="M29" s="5">
         <v>0.4</v>
@@ -6404,10 +6412,10 @@
         <v>144</v>
       </c>
       <c r="K30" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L30" s="5">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M30" s="5">
         <v>0.4</v>
@@ -6484,10 +6492,10 @@
         <v>192</v>
       </c>
       <c r="K31" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L31" s="5">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="M31" s="5">
         <v>0.4</v>
@@ -6564,10 +6572,10 @@
         <v>240</v>
       </c>
       <c r="K32" s="5">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L32" s="5">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="M32" s="5">
         <v>0.8</v>
@@ -6644,10 +6652,10 @@
         <v>288</v>
       </c>
       <c r="K33" s="5">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L33" s="5">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="M33" s="5">
         <v>0.8</v>
@@ -6724,10 +6732,10 @@
         <v>336</v>
       </c>
       <c r="K34" s="5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L34" s="5">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="M34" s="5">
         <v>0.8</v>
@@ -6804,10 +6812,10 @@
         <v>384</v>
       </c>
       <c r="K35" s="5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L35" s="5">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M35" s="5">
         <v>1.2</v>
@@ -6884,10 +6892,10 @@
         <v>432</v>
       </c>
       <c r="K36" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L36" s="5">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="M36" s="5">
         <v>1.2</v>
@@ -6964,10 +6972,10 @@
         <v>480</v>
       </c>
       <c r="K37" s="5">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L37" s="5">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="M37" s="5">
         <v>1.2</v>
@@ -7044,10 +7052,10 @@
         <v>240</v>
       </c>
       <c r="K38" s="5">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L38" s="5">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="M38" s="5">
         <v>0.8</v>
@@ -7124,10 +7132,10 @@
         <v>360</v>
       </c>
       <c r="K39" s="5">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L39" s="5">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="M39" s="5">
         <v>0.8</v>
@@ -7204,10 +7212,10 @@
         <v>480</v>
       </c>
       <c r="K40" s="5">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L40" s="5">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="M40" s="5">
         <v>0.8</v>
@@ -7284,10 +7292,10 @@
         <v>600</v>
       </c>
       <c r="K41" s="5">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="L41" s="5">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="M41" s="5">
         <v>1.6</v>
@@ -7364,10 +7372,10 @@
         <v>720</v>
       </c>
       <c r="K42" s="5">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L42" s="5">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="M42" s="5">
         <v>1.6</v>
@@ -7444,10 +7452,10 @@
         <v>840</v>
       </c>
       <c r="K43" s="5">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="L43" s="5">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="M43" s="5">
         <v>1.6</v>
@@ -7524,10 +7532,10 @@
         <v>960</v>
       </c>
       <c r="K44" s="5">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L44" s="5">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="M44" s="5">
         <v>2.4</v>
@@ -7604,10 +7612,10 @@
         <v>1080</v>
       </c>
       <c r="K45" s="5">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="L45" s="5">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="M45" s="5">
         <v>2.4</v>
@@ -7684,10 +7692,10 @@
         <v>1200</v>
       </c>
       <c r="K46" s="5">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="L46" s="5">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="M46" s="5">
         <v>2.4</v>
@@ -7764,10 +7772,10 @@
         <v>200</v>
       </c>
       <c r="K47" s="5">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L47" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M47" s="5">
         <v>0.8</v>
@@ -7844,10 +7852,10 @@
         <v>300</v>
       </c>
       <c r="K48" s="5">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L48" s="5">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M48" s="5">
         <v>0.8</v>
@@ -7924,10 +7932,10 @@
         <v>400</v>
       </c>
       <c r="K49" s="5">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="L49" s="5">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="M49" s="5">
         <v>0.8</v>
@@ -8004,10 +8012,10 @@
         <v>500</v>
       </c>
       <c r="K50" s="5">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L50" s="5">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M50" s="5">
         <v>1.6</v>
@@ -8084,10 +8092,10 @@
         <v>600</v>
       </c>
       <c r="K51" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="L51" s="5">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M51" s="5">
         <v>1.6</v>
@@ -8164,10 +8172,10 @@
         <v>700</v>
       </c>
       <c r="K52" s="5">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="L52" s="5">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="M52" s="5">
         <v>1.6</v>
@@ -8244,10 +8252,10 @@
         <v>800</v>
       </c>
       <c r="K53" s="5">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="L53" s="5">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M53" s="5">
         <v>2.4</v>
@@ -8324,10 +8332,10 @@
         <v>900</v>
       </c>
       <c r="K54" s="5">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="L54" s="5">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="M54" s="5">
         <v>2.4</v>
@@ -8404,10 +8412,10 @@
         <v>1000</v>
       </c>
       <c r="K55" s="5">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="L55" s="5">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M55" s="5">
         <v>2.4</v>
@@ -8484,10 +8492,10 @@
         <v>300</v>
       </c>
       <c r="K56" s="5">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="L56" s="5">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="M56" s="5">
         <v>0.8</v>
@@ -8564,10 +8572,10 @@
         <v>450</v>
       </c>
       <c r="K57" s="5">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="L57" s="5">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="M57" s="5">
         <v>0.8</v>
@@ -8644,10 +8652,10 @@
         <v>600</v>
       </c>
       <c r="K58" s="5">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="L58" s="5">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="M58" s="5">
         <v>0.8</v>
@@ -8724,10 +8732,10 @@
         <v>750</v>
       </c>
       <c r="K59" s="5">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="L59" s="5">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="M59" s="5">
         <v>1.6</v>
@@ -8804,10 +8812,10 @@
         <v>900</v>
       </c>
       <c r="K60" s="5">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="L60" s="5">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="M60" s="5">
         <v>1.6</v>
@@ -8884,10 +8892,10 @@
         <v>1050</v>
       </c>
       <c r="K61" s="5">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="L61" s="5">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="M61" s="5">
         <v>1.6</v>
@@ -8964,10 +8972,10 @@
         <v>1200</v>
       </c>
       <c r="K62" s="5">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="L62" s="5">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="M62" s="5">
         <v>2.4</v>
@@ -9044,10 +9052,10 @@
         <v>1350</v>
       </c>
       <c r="K63" s="5">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="L63" s="5">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="M63" s="5">
         <v>2.4</v>
@@ -9124,10 +9132,10 @@
         <v>1500</v>
       </c>
       <c r="K64" s="5">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="L64" s="5">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="M64" s="5">
         <v>2.4</v>
@@ -9204,10 +9212,10 @@
         <v>240</v>
       </c>
       <c r="K65" s="5">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="L65" s="5">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="M65" s="5">
         <v>0.8</v>
@@ -9284,10 +9292,10 @@
         <v>360</v>
       </c>
       <c r="K66" s="5">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="L66" s="5">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="M66" s="5">
         <v>0.8</v>
@@ -9364,10 +9372,10 @@
         <v>480</v>
       </c>
       <c r="K67" s="5">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="L67" s="5">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M67" s="5">
         <v>0.8</v>
@@ -9444,10 +9452,10 @@
         <v>600</v>
       </c>
       <c r="K68" s="5">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="L68" s="5">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="M68" s="5">
         <v>1.6</v>
@@ -9524,10 +9532,10 @@
         <v>720</v>
       </c>
       <c r="K69" s="5">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L69" s="5">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="M69" s="5">
         <v>1.6</v>
@@ -9604,10 +9612,10 @@
         <v>840</v>
       </c>
       <c r="K70" s="5">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L70" s="5">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="M70" s="5">
         <v>1.6</v>
@@ -9684,10 +9692,10 @@
         <v>960</v>
       </c>
       <c r="K71" s="5">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="L71" s="5">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="M71" s="5">
         <v>2.4</v>
@@ -9764,10 +9772,10 @@
         <v>1080</v>
       </c>
       <c r="K72" s="5">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="L72" s="5">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M72" s="5">
         <v>2.4</v>
@@ -9844,10 +9852,10 @@
         <v>1200</v>
       </c>
       <c r="K73" s="5">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="L73" s="5">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="M73" s="5">
         <v>2.4</v>
@@ -9894,6 +9902,7 @@
     </row>
     <row r="74" spans="1:39" ht="20" customHeight="1">
       <c r="I74" s="5"/>
+      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="P74" s="5"/>
@@ -9922,7 +9931,6 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -10125,8 +10133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10240,10 +10248,10 @@
         <v>560</v>
       </c>
       <c r="L2" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -10305,7 +10313,7 @@
         <v>50</v>
       </c>
       <c r="M3" s="1">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -10364,10 +10372,10 @@
         <v>900</v>
       </c>
       <c r="L4" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -10426,10 +10434,10 @@
         <v>1125</v>
       </c>
       <c r="L5" s="1">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="M5" s="1">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -10488,7 +10496,7 @@
         <v>600</v>
       </c>
       <c r="L6" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" s="1">
         <v>200</v>
@@ -10550,10 +10558,10 @@
         <v>384</v>
       </c>
       <c r="L7" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="N7" s="1">
         <v>1.2</v>
@@ -10612,10 +10620,10 @@
         <v>1280</v>
       </c>
       <c r="L8" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M8" s="1">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N8" s="1">
         <v>2.4</v>
@@ -10674,10 +10682,10 @@
         <v>960</v>
       </c>
       <c r="L9" s="1">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="M9" s="1">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="N9" s="1">
         <v>2.4</v>

--- a/Dragonfall/gameData/shared/Soldiers.xlsx
+++ b/Dragonfall/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-23700" yWindow="0" windowWidth="28540" windowHeight="15420" tabRatio="165" activeTab="1"/>
+    <workbookView xWindow="2140" yWindow="0" windowWidth="32820" windowHeight="18660" tabRatio="165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1404">
+  <cellStyleXfs count="1412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2180,7 +2188,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1404">
+  <cellStyles count="1412">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2885,6 +2893,10 @@
     <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1400" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3582,6 +3594,10 @@
     <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1401" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4033,8 +4049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E54" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4175,7 +4191,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="5">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M2" s="5">
         <v>0.4</v>
@@ -4255,7 +4271,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="5">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M3" s="5">
         <v>0.4</v>
@@ -4335,7 +4351,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="5">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M4" s="5">
         <v>0.4</v>
@@ -4415,7 +4431,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="5">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M5" s="5">
         <v>0.8</v>
@@ -4495,7 +4511,7 @@
         <v>45</v>
       </c>
       <c r="L6" s="5">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M6" s="5">
         <v>0.8</v>
@@ -4575,7 +4591,7 @@
         <v>56</v>
       </c>
       <c r="L7" s="5">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M7" s="5">
         <v>0.8</v>
@@ -4655,7 +4671,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="5">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M8" s="5">
         <v>1.2</v>
@@ -4735,7 +4751,7 @@
         <v>65</v>
       </c>
       <c r="L9" s="5">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M9" s="5">
         <v>1.2</v>
@@ -4815,7 +4831,7 @@
         <v>80</v>
       </c>
       <c r="L10" s="5">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M10" s="5">
         <v>1.2</v>
@@ -4895,7 +4911,7 @@
         <v>26</v>
       </c>
       <c r="L11" s="5">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M11" s="5">
         <v>0.4</v>
@@ -4975,7 +4991,7 @@
         <v>34</v>
       </c>
       <c r="L12" s="5">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M12" s="5">
         <v>0.4</v>
@@ -5055,7 +5071,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="5">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M13" s="5">
         <v>0.4</v>
@@ -5135,7 +5151,7 @@
         <v>37</v>
       </c>
       <c r="L14" s="5">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M14" s="5">
         <v>0.8</v>
@@ -5215,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="L15" s="5">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M15" s="5">
         <v>0.8</v>
@@ -5295,7 +5311,7 @@
         <v>58</v>
       </c>
       <c r="L16" s="5">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M16" s="5">
         <v>0.8</v>
@@ -5375,7 +5391,7 @@
         <v>52</v>
       </c>
       <c r="L17" s="5">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M17" s="5">
         <v>1.2</v>
@@ -5455,7 +5471,7 @@
         <v>68</v>
       </c>
       <c r="L18" s="5">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M18" s="5">
         <v>1.2</v>
@@ -5535,7 +5551,7 @@
         <v>84</v>
       </c>
       <c r="L19" s="5">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M19" s="5">
         <v>1.2</v>
@@ -5615,7 +5631,7 @@
         <v>26</v>
       </c>
       <c r="L20" s="5">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="M20" s="5">
         <v>0.4</v>
@@ -5695,7 +5711,7 @@
         <v>34</v>
       </c>
       <c r="L21" s="5">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="M21" s="5">
         <v>0.4</v>
@@ -5775,7 +5791,7 @@
         <v>42</v>
       </c>
       <c r="L22" s="5">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M22" s="5">
         <v>0.4</v>
@@ -5855,7 +5871,7 @@
         <v>37</v>
       </c>
       <c r="L23" s="5">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="M23" s="5">
         <v>0.8</v>
@@ -5935,7 +5951,7 @@
         <v>47</v>
       </c>
       <c r="L24" s="5">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="M24" s="5">
         <v>0.8</v>
@@ -6015,7 +6031,7 @@
         <v>58</v>
       </c>
       <c r="L25" s="5">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M25" s="5">
         <v>0.8</v>
@@ -6095,7 +6111,7 @@
         <v>52</v>
       </c>
       <c r="L26" s="5">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="M26" s="5">
         <v>1.2</v>
@@ -6175,7 +6191,7 @@
         <v>68</v>
       </c>
       <c r="L27" s="5">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M27" s="5">
         <v>1.2</v>
@@ -6255,7 +6271,7 @@
         <v>84</v>
       </c>
       <c r="L28" s="5">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="M28" s="5">
         <v>1.2</v>
@@ -6335,7 +6351,7 @@
         <v>27</v>
       </c>
       <c r="L29" s="5">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M29" s="5">
         <v>0.4</v>
@@ -6415,7 +6431,7 @@
         <v>36</v>
       </c>
       <c r="L30" s="5">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M30" s="5">
         <v>0.4</v>
@@ -6495,7 +6511,7 @@
         <v>44</v>
       </c>
       <c r="L31" s="5">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M31" s="5">
         <v>0.4</v>
@@ -6575,7 +6591,7 @@
         <v>38</v>
       </c>
       <c r="L32" s="5">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M32" s="5">
         <v>0.8</v>
@@ -6655,7 +6671,7 @@
         <v>49</v>
       </c>
       <c r="L33" s="5">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M33" s="5">
         <v>0.8</v>
@@ -6735,7 +6751,7 @@
         <v>60</v>
       </c>
       <c r="L34" s="5">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="M34" s="5">
         <v>0.8</v>
@@ -6815,7 +6831,7 @@
         <v>54</v>
       </c>
       <c r="L35" s="5">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M35" s="5">
         <v>1.2</v>
@@ -6895,7 +6911,7 @@
         <v>71</v>
       </c>
       <c r="L36" s="5">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M36" s="5">
         <v>1.2</v>
@@ -6975,7 +6991,7 @@
         <v>87</v>
       </c>
       <c r="L37" s="5">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="M37" s="5">
         <v>1.2</v>
@@ -7055,7 +7071,7 @@
         <v>37</v>
       </c>
       <c r="L38" s="5">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M38" s="5">
         <v>0.8</v>
@@ -7135,7 +7151,7 @@
         <v>49</v>
       </c>
       <c r="L39" s="5">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M39" s="5">
         <v>0.8</v>
@@ -7215,7 +7231,7 @@
         <v>60</v>
       </c>
       <c r="L40" s="5">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="M40" s="5">
         <v>0.8</v>
@@ -7295,7 +7311,7 @@
         <v>52</v>
       </c>
       <c r="L41" s="5">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M41" s="5">
         <v>1.6</v>
@@ -7375,7 +7391,7 @@
         <v>67</v>
       </c>
       <c r="L42" s="5">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M42" s="5">
         <v>1.6</v>
@@ -7455,7 +7471,7 @@
         <v>82</v>
       </c>
       <c r="L43" s="5">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="M43" s="5">
         <v>1.6</v>
@@ -7535,7 +7551,7 @@
         <v>74</v>
       </c>
       <c r="L44" s="5">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M44" s="5">
         <v>2.4</v>
@@ -7615,7 +7631,7 @@
         <v>97</v>
       </c>
       <c r="L45" s="5">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="M45" s="5">
         <v>2.4</v>
@@ -7695,7 +7711,7 @@
         <v>119</v>
       </c>
       <c r="L46" s="5">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="M46" s="5">
         <v>2.4</v>
@@ -8495,7 +8511,7 @@
         <v>48</v>
       </c>
       <c r="L56" s="5">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M56" s="5">
         <v>0.8</v>
@@ -8575,7 +8591,7 @@
         <v>63</v>
       </c>
       <c r="L57" s="5">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M57" s="5">
         <v>0.8</v>
@@ -8655,7 +8671,7 @@
         <v>77</v>
       </c>
       <c r="L58" s="5">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="M58" s="5">
         <v>0.8</v>
@@ -8735,7 +8751,7 @@
         <v>68</v>
       </c>
       <c r="L59" s="5">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="M59" s="5">
         <v>1.6</v>
@@ -8815,7 +8831,7 @@
         <v>87</v>
       </c>
       <c r="L60" s="5">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="M60" s="5">
         <v>1.6</v>
@@ -8895,7 +8911,7 @@
         <v>106</v>
       </c>
       <c r="L61" s="5">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="M61" s="5">
         <v>1.6</v>
@@ -8975,7 +8991,7 @@
         <v>96</v>
       </c>
       <c r="L62" s="5">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M62" s="5">
         <v>2.4</v>
@@ -9055,7 +9071,7 @@
         <v>125</v>
       </c>
       <c r="L63" s="5">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="M63" s="5">
         <v>2.4</v>
@@ -9135,7 +9151,7 @@
         <v>154</v>
       </c>
       <c r="L64" s="5">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="M64" s="5">
         <v>2.4</v>
@@ -9215,7 +9231,7 @@
         <v>47</v>
       </c>
       <c r="L65" s="5">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M65" s="5">
         <v>0.8</v>
@@ -9295,7 +9311,7 @@
         <v>62</v>
       </c>
       <c r="L66" s="5">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M66" s="5">
         <v>0.8</v>
@@ -9375,7 +9391,7 @@
         <v>76</v>
       </c>
       <c r="L67" s="5">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M67" s="5">
         <v>0.8</v>
@@ -9455,7 +9471,7 @@
         <v>66</v>
       </c>
       <c r="L68" s="5">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M68" s="5">
         <v>1.6</v>
@@ -9535,7 +9551,7 @@
         <v>85</v>
       </c>
       <c r="L69" s="5">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M69" s="5">
         <v>1.6</v>
@@ -9615,7 +9631,7 @@
         <v>104</v>
       </c>
       <c r="L70" s="5">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M70" s="5">
         <v>1.6</v>
@@ -9695,7 +9711,7 @@
         <v>94</v>
       </c>
       <c r="L71" s="5">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M71" s="5">
         <v>2.4</v>
@@ -9775,7 +9791,7 @@
         <v>123</v>
       </c>
       <c r="L72" s="5">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M72" s="5">
         <v>2.4</v>
@@ -9855,7 +9871,7 @@
         <v>151</v>
       </c>
       <c r="L73" s="5">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M73" s="5">
         <v>2.4</v>
@@ -9902,7 +9918,6 @@
     </row>
     <row r="74" spans="1:39" ht="20" customHeight="1">
       <c r="I74" s="5"/>
-      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="P74" s="5"/>
@@ -9931,6 +9946,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -10084,6 +10100,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -10134,7 +10151,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10251,7 +10268,7 @@
         <v>55</v>
       </c>
       <c r="M2" s="1">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -10375,7 +10392,7 @@
         <v>70</v>
       </c>
       <c r="M4" s="1">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -10437,7 +10454,7 @@
         <v>88</v>
       </c>
       <c r="M5" s="1">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -10499,7 +10516,7 @@
         <v>80</v>
       </c>
       <c r="M6" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N6" s="1">
         <v>1.2</v>
@@ -10561,7 +10578,7 @@
         <v>75</v>
       </c>
       <c r="M7" s="1">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="N7" s="1">
         <v>1.2</v>
@@ -10623,7 +10640,7 @@
         <v>130</v>
       </c>
       <c r="M8" s="1">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N8" s="1">
         <v>2.4</v>
@@ -10685,7 +10702,7 @@
         <v>140</v>
       </c>
       <c r="M9" s="1">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="N9" s="1">
         <v>2.4</v>

--- a/Dragonfall/gameData/shared/Soldiers.xlsx
+++ b/Dragonfall/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="0" windowWidth="32820" windowHeight="18660" tabRatio="165" activeTab="1"/>
+    <workbookView xWindow="2540" yWindow="0" windowWidth="35800" windowHeight="15200" tabRatio="165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1412">
+  <cellStyleXfs count="1440">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2188,7 +2216,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1412">
+  <cellStyles count="1440">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2897,6 +2925,20 @@
     <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3598,6 +3640,20 @@
     <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4049,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L73"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4170,19 +4226,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2" s="7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7">
         <v>60</v>
       </c>
       <c r="H2" s="7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J2" s="7">
         <v>160</v>
@@ -4250,19 +4306,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G3" s="7">
         <v>90</v>
       </c>
       <c r="H3" s="7">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I3" s="7">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J3" s="7">
         <v>240</v>
@@ -4330,19 +4386,19 @@
         <v>4</v>
       </c>
       <c r="E4" s="7">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7">
         <v>120</v>
       </c>
       <c r="H4" s="7">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="J4" s="7">
         <v>320</v>
@@ -4410,22 +4466,22 @@
         <v>5</v>
       </c>
       <c r="E5" s="7">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="I5" s="7">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="J5" s="7">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7">
         <v>35</v>
@@ -4490,22 +4546,22 @@
         <v>6</v>
       </c>
       <c r="E6" s="7">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="I6" s="7">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="J6" s="7">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="K6" s="7">
         <v>45</v>
@@ -4570,22 +4626,22 @@
         <v>7</v>
       </c>
       <c r="E7" s="7">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="I7" s="7">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="J7" s="7">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K7" s="7">
         <v>56</v>
@@ -4650,22 +4706,22 @@
         <v>8</v>
       </c>
       <c r="E8" s="7">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="H8" s="7">
-        <v>288</v>
+        <v>518</v>
       </c>
       <c r="I8" s="7">
-        <v>168</v>
+        <v>383</v>
       </c>
       <c r="J8" s="7">
-        <v>640</v>
+        <v>1200</v>
       </c>
       <c r="K8" s="7">
         <v>50</v>
@@ -4730,22 +4786,22 @@
         <v>9</v>
       </c>
       <c r="E9" s="7">
-        <v>216</v>
+        <v>510</v>
       </c>
       <c r="F9" s="7">
-        <v>162</v>
+        <v>420</v>
       </c>
       <c r="G9" s="7">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="H9" s="7">
-        <v>324</v>
+        <v>690</v>
       </c>
       <c r="I9" s="7">
-        <v>189</v>
+        <v>510</v>
       </c>
       <c r="J9" s="7">
-        <v>720</v>
+        <v>1600</v>
       </c>
       <c r="K9" s="7">
         <v>65</v>
@@ -4810,22 +4866,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="7">
-        <v>240</v>
+        <v>638</v>
       </c>
       <c r="F10" s="7">
-        <v>180</v>
+        <v>525</v>
       </c>
       <c r="G10" s="7">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>863</v>
       </c>
       <c r="I10" s="7">
-        <v>210</v>
+        <v>638</v>
       </c>
       <c r="J10" s="7">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K10" s="7">
         <v>80</v>
@@ -4890,19 +4946,19 @@
         <v>2</v>
       </c>
       <c r="E11" s="7">
+        <v>80</v>
+      </c>
+      <c r="F11" s="7">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
+        <v>92</v>
+      </c>
+      <c r="I11" s="7">
         <v>64</v>
-      </c>
-      <c r="F11" s="7">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7">
-        <v>80</v>
-      </c>
-      <c r="H11" s="7">
-        <v>96</v>
-      </c>
-      <c r="I11" s="7">
-        <v>56</v>
       </c>
       <c r="J11" s="7">
         <v>120</v>
@@ -4970,19 +5026,19 @@
         <v>3</v>
       </c>
       <c r="E12" s="7">
+        <v>120</v>
+      </c>
+      <c r="F12" s="7">
+        <v>84</v>
+      </c>
+      <c r="G12" s="7">
+        <v>102</v>
+      </c>
+      <c r="H12" s="7">
+        <v>138</v>
+      </c>
+      <c r="I12" s="7">
         <v>96</v>
-      </c>
-      <c r="F12" s="7">
-        <v>72</v>
-      </c>
-      <c r="G12" s="7">
-        <v>120</v>
-      </c>
-      <c r="H12" s="7">
-        <v>144</v>
-      </c>
-      <c r="I12" s="7">
-        <v>84</v>
       </c>
       <c r="J12" s="7">
         <v>180</v>
@@ -5050,19 +5106,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="7">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7">
+        <v>112</v>
+      </c>
+      <c r="G13" s="7">
+        <v>136</v>
+      </c>
+      <c r="H13" s="7">
+        <v>184</v>
+      </c>
+      <c r="I13" s="7">
         <v>128</v>
-      </c>
-      <c r="F13" s="7">
-        <v>96</v>
-      </c>
-      <c r="G13" s="7">
-        <v>160</v>
-      </c>
-      <c r="H13" s="7">
-        <v>192</v>
-      </c>
-      <c r="I13" s="7">
-        <v>112</v>
       </c>
       <c r="J13" s="7">
         <v>240</v>
@@ -5130,22 +5186,22 @@
         <v>5</v>
       </c>
       <c r="E14" s="7">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="J14" s="7">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7">
         <v>37</v>
@@ -5210,22 +5266,22 @@
         <v>6</v>
       </c>
       <c r="E15" s="7">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="F15" s="7">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G15" s="7">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="H15" s="7">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="I15" s="7">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="J15" s="7">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K15" s="7">
         <v>47</v>
@@ -5290,22 +5346,22 @@
         <v>7</v>
       </c>
       <c r="E16" s="7">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="I16" s="7">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="J16" s="7">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="K16" s="7">
         <v>58</v>
@@ -5370,22 +5426,22 @@
         <v>8</v>
       </c>
       <c r="E17" s="7">
-        <v>256</v>
+        <v>600</v>
       </c>
       <c r="F17" s="7">
-        <v>192</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7">
-        <v>320</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7">
-        <v>384</v>
+        <v>690</v>
       </c>
       <c r="I17" s="7">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="J17" s="7">
-        <v>480</v>
+        <v>900</v>
       </c>
       <c r="K17" s="7">
         <v>52</v>
@@ -5450,22 +5506,22 @@
         <v>9</v>
       </c>
       <c r="E18" s="7">
-        <v>288</v>
+        <v>800</v>
       </c>
       <c r="F18" s="7">
-        <v>216</v>
+        <v>560</v>
       </c>
       <c r="G18" s="7">
-        <v>360</v>
+        <v>680</v>
       </c>
       <c r="H18" s="7">
-        <v>432</v>
+        <v>920</v>
       </c>
       <c r="I18" s="7">
-        <v>252</v>
+        <v>640</v>
       </c>
       <c r="J18" s="7">
-        <v>540</v>
+        <v>1200</v>
       </c>
       <c r="K18" s="7">
         <v>68</v>
@@ -5530,22 +5586,22 @@
         <v>10</v>
       </c>
       <c r="E19" s="7">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="7">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="G19" s="7">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="H19" s="7">
-        <v>480</v>
+        <v>1150</v>
       </c>
       <c r="I19" s="7">
-        <v>280</v>
+        <v>800</v>
       </c>
       <c r="J19" s="7">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K19" s="7">
         <v>84</v>
@@ -5610,19 +5666,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J20" s="7">
         <v>120</v>
@@ -5690,19 +5746,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="7">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
       </c>
       <c r="I21" s="7">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J21" s="7">
         <v>180</v>
@@ -5770,19 +5826,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="7">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F22" s="7">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>160</v>
       </c>
       <c r="I22" s="7">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J22" s="7">
         <v>240</v>
@@ -5850,22 +5906,22 @@
         <v>5</v>
       </c>
       <c r="E23" s="7">
+        <v>276</v>
+      </c>
+      <c r="F23" s="7">
+        <v>204</v>
+      </c>
+      <c r="G23" s="7">
+        <v>168</v>
+      </c>
+      <c r="H23" s="7">
         <v>240</v>
       </c>
-      <c r="F23" s="7">
-        <v>160</v>
-      </c>
-      <c r="G23" s="7">
-        <v>120</v>
-      </c>
-      <c r="H23" s="7">
-        <v>200</v>
-      </c>
       <c r="I23" s="7">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="J23" s="7">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K23" s="7">
         <v>37</v>
@@ -5930,22 +5986,22 @@
         <v>6</v>
       </c>
       <c r="E24" s="7">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="F24" s="7">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="G24" s="7">
-        <v>144</v>
-      </c>
-      <c r="H24" s="5">
-        <v>240</v>
+        <v>224</v>
+      </c>
+      <c r="H24" s="7">
+        <v>320</v>
       </c>
       <c r="I24" s="7">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="J24" s="7">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K24" s="7">
         <v>47</v>
@@ -6009,23 +6065,23 @@
       <c r="D25" s="7">
         <v>7</v>
       </c>
-      <c r="E25" s="7">
-        <v>336</v>
-      </c>
-      <c r="F25" s="8">
-        <v>224</v>
+      <c r="E25" s="8">
+        <v>460</v>
+      </c>
+      <c r="F25" s="7">
+        <v>340</v>
       </c>
       <c r="G25" s="7">
-        <v>168</v>
-      </c>
-      <c r="H25" s="5">
         <v>280</v>
       </c>
-      <c r="I25" s="5">
-        <v>140</v>
+      <c r="H25" s="7">
+        <v>400</v>
+      </c>
+      <c r="I25" s="7">
+        <v>260</v>
       </c>
       <c r="J25" s="7">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="K25" s="5">
         <v>58</v>
@@ -6090,22 +6146,22 @@
         <v>8</v>
       </c>
       <c r="E26" s="8">
-        <v>384</v>
-      </c>
-      <c r="F26" s="8">
-        <v>256</v>
-      </c>
-      <c r="G26" s="5">
-        <v>192</v>
-      </c>
-      <c r="H26" s="5">
-        <v>320</v>
-      </c>
-      <c r="I26" s="5">
-        <v>160</v>
-      </c>
-      <c r="J26" s="5">
-        <v>480</v>
+        <v>690</v>
+      </c>
+      <c r="F26" s="7">
+        <v>510</v>
+      </c>
+      <c r="G26" s="7">
+        <v>420</v>
+      </c>
+      <c r="H26" s="7">
+        <v>600</v>
+      </c>
+      <c r="I26" s="7">
+        <v>390</v>
+      </c>
+      <c r="J26" s="7">
+        <v>900</v>
       </c>
       <c r="K26" s="5">
         <v>52</v>
@@ -6169,23 +6225,23 @@
       <c r="D27" s="7">
         <v>9</v>
       </c>
-      <c r="E27" s="8">
-        <v>432</v>
-      </c>
-      <c r="F27" s="8">
-        <v>288</v>
-      </c>
-      <c r="G27" s="5">
-        <v>216</v>
-      </c>
-      <c r="H27" s="5">
-        <v>360</v>
-      </c>
-      <c r="I27" s="5">
-        <v>180</v>
-      </c>
-      <c r="J27" s="5">
-        <v>540</v>
+      <c r="E27" s="5">
+        <v>920</v>
+      </c>
+      <c r="F27" s="7">
+        <v>680</v>
+      </c>
+      <c r="G27" s="7">
+        <v>560</v>
+      </c>
+      <c r="H27" s="7">
+        <v>800</v>
+      </c>
+      <c r="I27" s="7">
+        <v>520</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1200</v>
       </c>
       <c r="K27" s="5">
         <v>68</v>
@@ -6250,22 +6306,22 @@
         <v>10</v>
       </c>
       <c r="E28" s="5">
-        <v>480</v>
-      </c>
-      <c r="F28" s="5">
-        <v>320</v>
-      </c>
-      <c r="G28" s="5">
-        <v>240</v>
-      </c>
-      <c r="H28" s="5">
-        <v>400</v>
-      </c>
-      <c r="I28" s="5">
-        <v>200</v>
-      </c>
-      <c r="J28" s="5">
-        <v>600</v>
+        <v>1150</v>
+      </c>
+      <c r="F28" s="7">
+        <v>850</v>
+      </c>
+      <c r="G28" s="7">
+        <v>700</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="7">
+        <v>650</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1500</v>
       </c>
       <c r="K28" s="5">
         <v>84</v>
@@ -6329,22 +6385,22 @@
       <c r="D29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" s="5">
-        <v>120</v>
-      </c>
-      <c r="F29" s="5">
-        <v>80</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="E29" s="8">
+        <v>115</v>
+      </c>
+      <c r="F29" s="7">
+        <v>100</v>
+      </c>
+      <c r="G29" s="7">
+        <v>70</v>
+      </c>
+      <c r="H29" s="7">
+        <v>85</v>
+      </c>
+      <c r="I29" s="7">
         <v>60</v>
       </c>
-      <c r="H29" s="5">
-        <v>100</v>
-      </c>
-      <c r="I29" s="5">
-        <v>50</v>
-      </c>
-      <c r="J29" s="5">
+      <c r="J29" s="7">
         <v>96</v>
       </c>
       <c r="K29" s="5">
@@ -6410,21 +6466,21 @@
         <v>3</v>
       </c>
       <c r="E30" s="8">
-        <v>180</v>
-      </c>
-      <c r="F30" s="8">
-        <v>120</v>
-      </c>
-      <c r="G30" s="5">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7">
+        <v>150</v>
+      </c>
+      <c r="G30" s="7">
+        <v>105</v>
+      </c>
+      <c r="H30" s="7">
+        <v>128</v>
+      </c>
+      <c r="I30" s="7">
         <v>90</v>
       </c>
-      <c r="H30" s="5">
-        <v>150</v>
-      </c>
-      <c r="I30" s="5">
-        <v>75</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="J30" s="7">
         <v>144</v>
       </c>
       <c r="K30" s="5">
@@ -6490,21 +6546,21 @@
         <v>4</v>
       </c>
       <c r="E31" s="8">
-        <v>240</v>
-      </c>
-      <c r="F31" s="8">
-        <v>160</v>
-      </c>
-      <c r="G31" s="5">
+        <v>230</v>
+      </c>
+      <c r="F31" s="7">
+        <v>200</v>
+      </c>
+      <c r="G31" s="7">
+        <v>140</v>
+      </c>
+      <c r="H31" s="7">
+        <v>170</v>
+      </c>
+      <c r="I31" s="7">
         <v>120</v>
       </c>
-      <c r="H31" s="5">
-        <v>200</v>
-      </c>
-      <c r="I31" s="5">
-        <v>100</v>
-      </c>
-      <c r="J31" s="5">
+      <c r="J31" s="7">
         <v>192</v>
       </c>
       <c r="K31" s="5">
@@ -6570,22 +6626,22 @@
         <v>5</v>
       </c>
       <c r="E32" s="8">
+        <v>345</v>
+      </c>
+      <c r="F32" s="7">
         <v>300</v>
       </c>
-      <c r="F32" s="8">
-        <v>200</v>
-      </c>
-      <c r="G32" s="5">
-        <v>150</v>
-      </c>
-      <c r="H32" s="5">
-        <v>250</v>
-      </c>
-      <c r="I32" s="5">
-        <v>125</v>
-      </c>
-      <c r="J32" s="5">
-        <v>240</v>
+      <c r="G32" s="7">
+        <v>210</v>
+      </c>
+      <c r="H32" s="7">
+        <v>255</v>
+      </c>
+      <c r="I32" s="7">
+        <v>180</v>
+      </c>
+      <c r="J32" s="7">
+        <v>288</v>
       </c>
       <c r="K32" s="5">
         <v>38</v>
@@ -6650,22 +6706,22 @@
         <v>6</v>
       </c>
       <c r="E33" s="8">
-        <v>360</v>
-      </c>
-      <c r="F33" s="8">
+        <v>460</v>
+      </c>
+      <c r="F33" s="7">
+        <v>400</v>
+      </c>
+      <c r="G33" s="7">
+        <v>280</v>
+      </c>
+      <c r="H33" s="7">
+        <v>340</v>
+      </c>
+      <c r="I33" s="7">
         <v>240</v>
       </c>
-      <c r="G33" s="5">
-        <v>180</v>
-      </c>
-      <c r="H33" s="5">
-        <v>300</v>
-      </c>
-      <c r="I33" s="5">
-        <v>150</v>
-      </c>
-      <c r="J33" s="5">
-        <v>288</v>
+      <c r="J33" s="7">
+        <v>384</v>
       </c>
       <c r="K33" s="5">
         <v>49</v>
@@ -6730,22 +6786,22 @@
         <v>7</v>
       </c>
       <c r="E34" s="8">
-        <v>420</v>
-      </c>
-      <c r="F34" s="8">
-        <v>280</v>
-      </c>
-      <c r="G34" s="5">
-        <v>210</v>
-      </c>
-      <c r="H34" s="5">
+        <v>575</v>
+      </c>
+      <c r="F34" s="7">
+        <v>500</v>
+      </c>
+      <c r="G34" s="7">
         <v>350</v>
       </c>
-      <c r="I34" s="5">
-        <v>175</v>
-      </c>
-      <c r="J34" s="5">
-        <v>336</v>
+      <c r="H34" s="7">
+        <v>425</v>
+      </c>
+      <c r="I34" s="7">
+        <v>300</v>
+      </c>
+      <c r="J34" s="7">
+        <v>480</v>
       </c>
       <c r="K34" s="5">
         <v>60</v>
@@ -6810,22 +6866,22 @@
         <v>8</v>
       </c>
       <c r="E35" s="8">
-        <v>480</v>
-      </c>
-      <c r="F35" s="8">
-        <v>320</v>
-      </c>
-      <c r="G35" s="5">
-        <v>240</v>
-      </c>
-      <c r="H35" s="5">
-        <v>400</v>
-      </c>
-      <c r="I35" s="5">
-        <v>200</v>
-      </c>
-      <c r="J35" s="5">
-        <v>384</v>
+        <v>863</v>
+      </c>
+      <c r="F35" s="7">
+        <v>750</v>
+      </c>
+      <c r="G35" s="7">
+        <v>525</v>
+      </c>
+      <c r="H35" s="7">
+        <v>638</v>
+      </c>
+      <c r="I35" s="7">
+        <v>450</v>
+      </c>
+      <c r="J35" s="7">
+        <v>720</v>
       </c>
       <c r="K35" s="5">
         <v>54</v>
@@ -6889,23 +6945,23 @@
       <c r="D36" s="7">
         <v>9</v>
       </c>
-      <c r="E36" s="8">
-        <v>540</v>
-      </c>
-      <c r="F36" s="8">
-        <v>360</v>
-      </c>
-      <c r="G36" s="5">
-        <v>270</v>
-      </c>
-      <c r="H36" s="5">
-        <v>450</v>
-      </c>
-      <c r="I36" s="5">
-        <v>225</v>
-      </c>
-      <c r="J36" s="5">
-        <v>432</v>
+      <c r="E36" s="5">
+        <v>1150</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="7">
+        <v>700</v>
+      </c>
+      <c r="H36" s="7">
+        <v>850</v>
+      </c>
+      <c r="I36" s="7">
+        <v>600</v>
+      </c>
+      <c r="J36" s="7">
+        <v>960</v>
       </c>
       <c r="K36" s="5">
         <v>71</v>
@@ -6970,22 +7026,22 @@
         <v>10</v>
       </c>
       <c r="E37" s="5">
-        <v>600</v>
-      </c>
-      <c r="F37" s="5">
-        <v>400</v>
-      </c>
-      <c r="G37" s="5">
-        <v>300</v>
-      </c>
-      <c r="H37" s="5">
-        <v>500</v>
-      </c>
-      <c r="I37" s="5">
-        <v>250</v>
-      </c>
-      <c r="J37" s="5">
-        <v>480</v>
+        <v>1438</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1250</v>
+      </c>
+      <c r="G37" s="7">
+        <v>875</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1063</v>
+      </c>
+      <c r="I37" s="7">
+        <v>750</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1200</v>
       </c>
       <c r="K37" s="5">
         <v>87</v>
@@ -7050,21 +7106,21 @@
         <v>4</v>
       </c>
       <c r="E38" s="5">
+        <v>136</v>
+      </c>
+      <c r="F38" s="7">
+        <v>184</v>
+      </c>
+      <c r="G38" s="7">
         <v>160</v>
       </c>
-      <c r="F38" s="5">
-        <v>192</v>
-      </c>
-      <c r="G38" s="5">
-        <v>128</v>
-      </c>
-      <c r="H38" s="5">
-        <v>96</v>
-      </c>
-      <c r="I38" s="5">
-        <v>96</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="H38" s="7">
+        <v>112</v>
+      </c>
+      <c r="I38" s="7">
+        <v>120</v>
+      </c>
+      <c r="J38" s="7">
         <v>240</v>
       </c>
       <c r="K38" s="5">
@@ -7130,21 +7186,21 @@
         <v>6</v>
       </c>
       <c r="E39" s="5">
+        <v>204</v>
+      </c>
+      <c r="F39" s="7">
+        <v>276</v>
+      </c>
+      <c r="G39" s="7">
         <v>240</v>
       </c>
-      <c r="F39" s="5">
-        <v>288</v>
-      </c>
-      <c r="G39" s="5">
-        <v>192</v>
-      </c>
-      <c r="H39" s="5">
-        <v>144</v>
-      </c>
-      <c r="I39" s="5">
-        <v>144</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="H39" s="7">
+        <v>168</v>
+      </c>
+      <c r="I39" s="7">
+        <v>180</v>
+      </c>
+      <c r="J39" s="7">
         <v>360</v>
       </c>
       <c r="K39" s="5">
@@ -7210,21 +7266,21 @@
         <v>8</v>
       </c>
       <c r="E40" s="5">
+        <v>272</v>
+      </c>
+      <c r="F40" s="7">
+        <v>368</v>
+      </c>
+      <c r="G40" s="7">
         <v>320</v>
       </c>
-      <c r="F40" s="5">
-        <v>384</v>
-      </c>
-      <c r="G40" s="5">
-        <v>256</v>
-      </c>
-      <c r="H40" s="5">
-        <v>192</v>
-      </c>
-      <c r="I40" s="5">
-        <v>192</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="H40" s="7">
+        <v>224</v>
+      </c>
+      <c r="I40" s="7">
+        <v>240</v>
+      </c>
+      <c r="J40" s="7">
         <v>480</v>
       </c>
       <c r="K40" s="5">
@@ -7290,22 +7346,22 @@
         <v>10</v>
       </c>
       <c r="E41" s="5">
-        <v>400</v>
-      </c>
-      <c r="F41" s="5">
+        <v>408</v>
+      </c>
+      <c r="F41" s="7">
+        <v>552</v>
+      </c>
+      <c r="G41" s="7">
         <v>480</v>
       </c>
-      <c r="G41" s="5">
-        <v>320</v>
-      </c>
-      <c r="H41" s="5">
-        <v>240</v>
-      </c>
-      <c r="I41" s="5">
-        <v>240</v>
-      </c>
-      <c r="J41" s="5">
-        <v>600</v>
+      <c r="H41" s="7">
+        <v>336</v>
+      </c>
+      <c r="I41" s="7">
+        <v>360</v>
+      </c>
+      <c r="J41" s="7">
+        <v>720</v>
       </c>
       <c r="K41" s="5">
         <v>52</v>
@@ -7370,22 +7426,22 @@
         <v>12</v>
       </c>
       <c r="E42" s="5">
+        <v>544</v>
+      </c>
+      <c r="F42" s="7">
+        <v>736</v>
+      </c>
+      <c r="G42" s="7">
+        <v>640</v>
+      </c>
+      <c r="H42" s="7">
+        <v>448</v>
+      </c>
+      <c r="I42" s="7">
         <v>480</v>
       </c>
-      <c r="F42" s="5">
-        <v>576</v>
-      </c>
-      <c r="G42" s="5">
-        <v>384</v>
-      </c>
-      <c r="H42" s="5">
-        <v>288</v>
-      </c>
-      <c r="I42" s="5">
-        <v>288</v>
-      </c>
-      <c r="J42" s="5">
-        <v>720</v>
+      <c r="J42" s="7">
+        <v>960</v>
       </c>
       <c r="K42" s="5">
         <v>67</v>
@@ -7450,22 +7506,22 @@
         <v>14</v>
       </c>
       <c r="E43" s="5">
+        <v>680</v>
+      </c>
+      <c r="F43" s="7">
+        <v>920</v>
+      </c>
+      <c r="G43" s="7">
+        <v>800</v>
+      </c>
+      <c r="H43" s="7">
         <v>560</v>
       </c>
-      <c r="F43" s="5">
-        <v>672</v>
-      </c>
-      <c r="G43" s="5">
-        <v>448</v>
-      </c>
-      <c r="H43" s="5">
-        <v>336</v>
-      </c>
-      <c r="I43" s="5">
-        <v>336</v>
-      </c>
-      <c r="J43" s="5">
-        <v>840</v>
+      <c r="I43" s="7">
+        <v>600</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1200</v>
       </c>
       <c r="K43" s="5">
         <v>82</v>
@@ -7530,22 +7586,22 @@
         <v>16</v>
       </c>
       <c r="E44" s="5">
-        <v>640</v>
-      </c>
-      <c r="F44" s="5">
-        <v>768</v>
-      </c>
-      <c r="G44" s="5">
-        <v>512</v>
-      </c>
-      <c r="H44" s="5">
-        <v>384</v>
-      </c>
-      <c r="I44" s="5">
-        <v>384</v>
-      </c>
-      <c r="J44" s="5">
-        <v>960</v>
+        <v>1020</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1380</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1200</v>
+      </c>
+      <c r="H44" s="7">
+        <v>840</v>
+      </c>
+      <c r="I44" s="7">
+        <v>900</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1800</v>
       </c>
       <c r="K44" s="5">
         <v>74</v>
@@ -7610,22 +7666,22 @@
         <v>18</v>
       </c>
       <c r="E45" s="5">
-        <v>720</v>
-      </c>
-      <c r="F45" s="5">
-        <v>864</v>
-      </c>
-      <c r="G45" s="5">
-        <v>576</v>
-      </c>
-      <c r="H45" s="5">
-        <v>432</v>
-      </c>
-      <c r="I45" s="5">
-        <v>432</v>
-      </c>
-      <c r="J45" s="5">
-        <v>1080</v>
+        <v>1360</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1840</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1600</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1120</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1200</v>
+      </c>
+      <c r="J45" s="7">
+        <v>2400</v>
       </c>
       <c r="K45" s="5">
         <v>97</v>
@@ -7690,22 +7746,22 @@
         <v>20</v>
       </c>
       <c r="E46" s="5">
-        <v>800</v>
-      </c>
-      <c r="F46" s="5">
-        <v>960</v>
-      </c>
-      <c r="G46" s="5">
-        <v>640</v>
-      </c>
-      <c r="H46" s="5">
-        <v>480</v>
-      </c>
-      <c r="I46" s="5">
-        <v>480</v>
-      </c>
-      <c r="J46" s="5">
-        <v>1200</v>
+        <v>1700</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2300</v>
+      </c>
+      <c r="G46" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1400</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J46" s="7">
+        <v>3000</v>
       </c>
       <c r="K46" s="5">
         <v>119</v>
@@ -7772,19 +7828,19 @@
       <c r="E47" s="5">
         <v>192</v>
       </c>
-      <c r="F47" s="5">
-        <v>230</v>
-      </c>
-      <c r="G47" s="5">
-        <v>154</v>
-      </c>
-      <c r="H47" s="5">
-        <v>115</v>
-      </c>
-      <c r="I47" s="5">
-        <v>115</v>
-      </c>
-      <c r="J47" s="5">
+      <c r="F47" s="7">
+        <v>221</v>
+      </c>
+      <c r="G47" s="7">
+        <v>163</v>
+      </c>
+      <c r="H47" s="7">
+        <v>134</v>
+      </c>
+      <c r="I47" s="7">
+        <v>134</v>
+      </c>
+      <c r="J47" s="7">
         <v>200</v>
       </c>
       <c r="K47" s="5">
@@ -7852,19 +7908,19 @@
       <c r="E48" s="5">
         <v>288</v>
       </c>
-      <c r="F48" s="5">
-        <v>346</v>
-      </c>
-      <c r="G48" s="5">
-        <v>230</v>
-      </c>
-      <c r="H48" s="5">
-        <v>173</v>
-      </c>
-      <c r="I48" s="5">
-        <v>173</v>
-      </c>
-      <c r="J48" s="5">
+      <c r="F48" s="7">
+        <v>331</v>
+      </c>
+      <c r="G48" s="7">
+        <v>245</v>
+      </c>
+      <c r="H48" s="7">
+        <v>202</v>
+      </c>
+      <c r="I48" s="7">
+        <v>202</v>
+      </c>
+      <c r="J48" s="7">
         <v>300</v>
       </c>
       <c r="K48" s="5">
@@ -7932,19 +7988,19 @@
       <c r="E49" s="5">
         <v>384</v>
       </c>
-      <c r="F49" s="5">
-        <v>461</v>
-      </c>
-      <c r="G49" s="5">
-        <v>307</v>
-      </c>
-      <c r="H49" s="5">
-        <v>230</v>
-      </c>
-      <c r="I49" s="5">
-        <v>230</v>
-      </c>
-      <c r="J49" s="5">
+      <c r="F49" s="7">
+        <v>442</v>
+      </c>
+      <c r="G49" s="7">
+        <v>326</v>
+      </c>
+      <c r="H49" s="7">
+        <v>269</v>
+      </c>
+      <c r="I49" s="7">
+        <v>269</v>
+      </c>
+      <c r="J49" s="7">
         <v>400</v>
       </c>
       <c r="K49" s="5">
@@ -8010,22 +8066,22 @@
         <v>10</v>
       </c>
       <c r="E50" s="5">
-        <v>480</v>
-      </c>
-      <c r="F50" s="5">
         <v>576</v>
       </c>
-      <c r="G50" s="5">
-        <v>384</v>
-      </c>
-      <c r="H50" s="5">
-        <v>288</v>
-      </c>
-      <c r="I50" s="5">
-        <v>288</v>
-      </c>
-      <c r="J50" s="5">
-        <v>500</v>
+      <c r="F50" s="7">
+        <v>662</v>
+      </c>
+      <c r="G50" s="7">
+        <v>490</v>
+      </c>
+      <c r="H50" s="7">
+        <v>403</v>
+      </c>
+      <c r="I50" s="7">
+        <v>403</v>
+      </c>
+      <c r="J50" s="7">
+        <v>600</v>
       </c>
       <c r="K50" s="5">
         <v>51</v>
@@ -8090,22 +8146,22 @@
         <v>12</v>
       </c>
       <c r="E51" s="5">
-        <v>576</v>
-      </c>
-      <c r="F51" s="5">
-        <v>691</v>
-      </c>
-      <c r="G51" s="5">
-        <v>461</v>
-      </c>
-      <c r="H51" s="5">
-        <v>346</v>
-      </c>
-      <c r="I51" s="5">
-        <v>346</v>
-      </c>
-      <c r="J51" s="5">
-        <v>600</v>
+        <v>768</v>
+      </c>
+      <c r="F51" s="7">
+        <v>883</v>
+      </c>
+      <c r="G51" s="7">
+        <v>653</v>
+      </c>
+      <c r="H51" s="7">
+        <v>538</v>
+      </c>
+      <c r="I51" s="7">
+        <v>538</v>
+      </c>
+      <c r="J51" s="7">
+        <v>800</v>
       </c>
       <c r="K51" s="5">
         <v>65</v>
@@ -8170,22 +8226,22 @@
         <v>14</v>
       </c>
       <c r="E52" s="5">
+        <v>960</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1104</v>
+      </c>
+      <c r="G52" s="7">
+        <v>816</v>
+      </c>
+      <c r="H52" s="7">
         <v>672</v>
       </c>
-      <c r="F52" s="5">
-        <v>806</v>
-      </c>
-      <c r="G52" s="5">
-        <v>538</v>
-      </c>
-      <c r="H52" s="5">
-        <v>403</v>
-      </c>
-      <c r="I52" s="5">
-        <v>403</v>
-      </c>
-      <c r="J52" s="5">
-        <v>700</v>
+      <c r="I52" s="7">
+        <v>672</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1000</v>
       </c>
       <c r="K52" s="5">
         <v>80</v>
@@ -8250,22 +8306,22 @@
         <v>16</v>
       </c>
       <c r="E53" s="5">
-        <v>768</v>
-      </c>
-      <c r="F53" s="5">
-        <v>922</v>
-      </c>
-      <c r="G53" s="5">
-        <v>614</v>
-      </c>
-      <c r="H53" s="5">
-        <v>461</v>
-      </c>
-      <c r="I53" s="5">
-        <v>461</v>
-      </c>
-      <c r="J53" s="5">
-        <v>800</v>
+        <v>1440</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1656</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1224</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1008</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1008</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1500</v>
       </c>
       <c r="K53" s="5">
         <v>72</v>
@@ -8330,22 +8386,22 @@
         <v>18</v>
       </c>
       <c r="E54" s="5">
-        <v>864</v>
-      </c>
-      <c r="F54" s="5">
-        <v>1037</v>
-      </c>
-      <c r="G54" s="5">
-        <v>691</v>
-      </c>
-      <c r="H54" s="5">
-        <v>518</v>
-      </c>
-      <c r="I54" s="5">
-        <v>518</v>
-      </c>
-      <c r="J54" s="5">
-        <v>900</v>
+        <v>1920</v>
+      </c>
+      <c r="F54" s="7">
+        <v>2208</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1632</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1344</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1344</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2000</v>
       </c>
       <c r="K54" s="5">
         <v>94</v>
@@ -8410,22 +8466,22 @@
         <v>20</v>
       </c>
       <c r="E55" s="5">
-        <v>960</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1152</v>
-      </c>
-      <c r="G55" s="5">
-        <v>768</v>
-      </c>
-      <c r="H55" s="5">
-        <v>576</v>
-      </c>
-      <c r="I55" s="5">
-        <v>576</v>
-      </c>
-      <c r="J55" s="5">
-        <v>1000</v>
+        <v>2400</v>
+      </c>
+      <c r="F55" s="7">
+        <v>2760</v>
+      </c>
+      <c r="G55" s="7">
+        <v>2040</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1680</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1680</v>
+      </c>
+      <c r="J55" s="7">
+        <v>2500</v>
       </c>
       <c r="K55" s="5">
         <v>116</v>
@@ -8490,21 +8546,21 @@
         <v>4</v>
       </c>
       <c r="E56" s="5">
-        <v>77</v>
-      </c>
-      <c r="F56" s="5">
+        <v>90</v>
+      </c>
+      <c r="F56" s="7">
         <v>128</v>
       </c>
-      <c r="G56" s="5">
-        <v>154</v>
-      </c>
-      <c r="H56" s="5">
-        <v>102</v>
-      </c>
-      <c r="I56" s="5">
-        <v>102</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="G56" s="7">
+        <v>147</v>
+      </c>
+      <c r="H56" s="7">
+        <v>109</v>
+      </c>
+      <c r="I56" s="7">
+        <v>122</v>
+      </c>
+      <c r="J56" s="7">
         <v>300</v>
       </c>
       <c r="K56" s="5">
@@ -8570,21 +8626,21 @@
         <v>6</v>
       </c>
       <c r="E57" s="5">
-        <v>115</v>
-      </c>
-      <c r="F57" s="5">
+        <v>134</v>
+      </c>
+      <c r="F57" s="7">
         <v>192</v>
       </c>
-      <c r="G57" s="5">
-        <v>230</v>
-      </c>
-      <c r="H57" s="5">
-        <v>154</v>
-      </c>
-      <c r="I57" s="5">
-        <v>154</v>
-      </c>
-      <c r="J57" s="5">
+      <c r="G57" s="7">
+        <v>221</v>
+      </c>
+      <c r="H57" s="7">
+        <v>163</v>
+      </c>
+      <c r="I57" s="7">
+        <v>182</v>
+      </c>
+      <c r="J57" s="7">
         <v>450</v>
       </c>
       <c r="K57" s="5">
@@ -8650,21 +8706,21 @@
         <v>8</v>
       </c>
       <c r="E58" s="5">
-        <v>154</v>
-      </c>
-      <c r="F58" s="5">
+        <v>179</v>
+      </c>
+      <c r="F58" s="7">
         <v>256</v>
       </c>
-      <c r="G58" s="5">
-        <v>307</v>
-      </c>
-      <c r="H58" s="5">
-        <v>205</v>
-      </c>
-      <c r="I58" s="5">
-        <v>205</v>
-      </c>
-      <c r="J58" s="5">
+      <c r="G58" s="7">
+        <v>294</v>
+      </c>
+      <c r="H58" s="7">
+        <v>218</v>
+      </c>
+      <c r="I58" s="7">
+        <v>243</v>
+      </c>
+      <c r="J58" s="7">
         <v>600</v>
       </c>
       <c r="K58" s="5">
@@ -8730,22 +8786,22 @@
         <v>10</v>
       </c>
       <c r="E59" s="5">
-        <v>192</v>
-      </c>
-      <c r="F59" s="5">
-        <v>320</v>
-      </c>
-      <c r="G59" s="5">
+        <v>269</v>
+      </c>
+      <c r="F59" s="7">
         <v>384</v>
       </c>
-      <c r="H59" s="5">
-        <v>256</v>
-      </c>
-      <c r="I59" s="5">
-        <v>256</v>
-      </c>
-      <c r="J59" s="5">
-        <v>750</v>
+      <c r="G59" s="7">
+        <v>442</v>
+      </c>
+      <c r="H59" s="7">
+        <v>326</v>
+      </c>
+      <c r="I59" s="7">
+        <v>365</v>
+      </c>
+      <c r="J59" s="7">
+        <v>900</v>
       </c>
       <c r="K59" s="5">
         <v>68</v>
@@ -8810,22 +8866,22 @@
         <v>12</v>
       </c>
       <c r="E60" s="5">
-        <v>230</v>
-      </c>
-      <c r="F60" s="5">
-        <v>384</v>
-      </c>
-      <c r="G60" s="5">
-        <v>461</v>
-      </c>
-      <c r="H60" s="5">
-        <v>307</v>
-      </c>
-      <c r="I60" s="5">
-        <v>307</v>
-      </c>
-      <c r="J60" s="5">
-        <v>900</v>
+        <v>358</v>
+      </c>
+      <c r="F60" s="7">
+        <v>512</v>
+      </c>
+      <c r="G60" s="7">
+        <v>589</v>
+      </c>
+      <c r="H60" s="7">
+        <v>435</v>
+      </c>
+      <c r="I60" s="7">
+        <v>486</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1200</v>
       </c>
       <c r="K60" s="5">
         <v>87</v>
@@ -8890,22 +8946,22 @@
         <v>14</v>
       </c>
       <c r="E61" s="5">
-        <v>269</v>
-      </c>
-      <c r="F61" s="5">
         <v>448</v>
       </c>
-      <c r="G61" s="5">
-        <v>538</v>
-      </c>
-      <c r="H61" s="5">
-        <v>358</v>
-      </c>
-      <c r="I61" s="5">
-        <v>358</v>
-      </c>
-      <c r="J61" s="5">
-        <v>1050</v>
+      <c r="F61" s="7">
+        <v>640</v>
+      </c>
+      <c r="G61" s="7">
+        <v>736</v>
+      </c>
+      <c r="H61" s="7">
+        <v>544</v>
+      </c>
+      <c r="I61" s="7">
+        <v>608</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1500</v>
       </c>
       <c r="K61" s="5">
         <v>106</v>
@@ -8970,22 +9026,22 @@
         <v>16</v>
       </c>
       <c r="E62" s="5">
-        <v>307</v>
-      </c>
-      <c r="F62" s="5">
-        <v>512</v>
-      </c>
-      <c r="G62" s="5">
-        <v>614</v>
-      </c>
-      <c r="H62" s="5">
-        <v>410</v>
-      </c>
-      <c r="I62" s="5">
-        <v>410</v>
-      </c>
-      <c r="J62" s="5">
-        <v>1200</v>
+        <v>672</v>
+      </c>
+      <c r="F62" s="7">
+        <v>960</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1104</v>
+      </c>
+      <c r="H62" s="7">
+        <v>816</v>
+      </c>
+      <c r="I62" s="7">
+        <v>912</v>
+      </c>
+      <c r="J62" s="7">
+        <v>2250</v>
       </c>
       <c r="K62" s="5">
         <v>96</v>
@@ -9050,22 +9106,22 @@
         <v>18</v>
       </c>
       <c r="E63" s="5">
-        <v>346</v>
-      </c>
-      <c r="F63" s="5">
-        <v>576</v>
-      </c>
-      <c r="G63" s="5">
-        <v>691</v>
-      </c>
-      <c r="H63" s="5">
-        <v>461</v>
-      </c>
-      <c r="I63" s="5">
-        <v>461</v>
-      </c>
-      <c r="J63" s="5">
-        <v>1350</v>
+        <v>896</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1280</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1472</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1088</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1216</v>
+      </c>
+      <c r="J63" s="7">
+        <v>3000</v>
       </c>
       <c r="K63" s="5">
         <v>125</v>
@@ -9130,22 +9186,22 @@
         <v>20</v>
       </c>
       <c r="E64" s="5">
-        <v>384</v>
-      </c>
-      <c r="F64" s="5">
-        <v>640</v>
-      </c>
-      <c r="G64" s="5">
-        <v>768</v>
-      </c>
-      <c r="H64" s="5">
-        <v>512</v>
-      </c>
-      <c r="I64" s="5">
-        <v>512</v>
-      </c>
-      <c r="J64" s="5">
-        <v>1500</v>
+        <v>1120</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1600</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1840</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1360</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1520</v>
+      </c>
+      <c r="J64" s="7">
+        <v>3750</v>
       </c>
       <c r="K64" s="5">
         <v>154</v>
@@ -9210,21 +9266,21 @@
         <v>4</v>
       </c>
       <c r="E65" s="5">
-        <v>96</v>
-      </c>
-      <c r="F65" s="5">
+        <v>112</v>
+      </c>
+      <c r="F65" s="7">
+        <v>136</v>
+      </c>
+      <c r="G65" s="7">
+        <v>184</v>
+      </c>
+      <c r="H65" s="7">
         <v>160</v>
       </c>
-      <c r="G65" s="5">
-        <v>192</v>
-      </c>
-      <c r="H65" s="5">
-        <v>128</v>
-      </c>
-      <c r="I65" s="5">
-        <v>128</v>
-      </c>
-      <c r="J65" s="5">
+      <c r="I65" s="7">
+        <v>144</v>
+      </c>
+      <c r="J65" s="7">
         <v>240</v>
       </c>
       <c r="K65" s="5">
@@ -9290,21 +9346,21 @@
         <v>6</v>
       </c>
       <c r="E66" s="5">
-        <v>144</v>
-      </c>
-      <c r="F66" s="5">
+        <v>168</v>
+      </c>
+      <c r="F66" s="7">
+        <v>204</v>
+      </c>
+      <c r="G66" s="7">
+        <v>276</v>
+      </c>
+      <c r="H66" s="7">
         <v>240</v>
       </c>
-      <c r="G66" s="5">
-        <v>288</v>
-      </c>
-      <c r="H66" s="5">
-        <v>192</v>
-      </c>
-      <c r="I66" s="5">
-        <v>192</v>
-      </c>
-      <c r="J66" s="5">
+      <c r="I66" s="7">
+        <v>216</v>
+      </c>
+      <c r="J66" s="7">
         <v>360</v>
       </c>
       <c r="K66" s="5">
@@ -9370,21 +9426,21 @@
         <v>8</v>
       </c>
       <c r="E67" s="5">
-        <v>192</v>
-      </c>
-      <c r="F67" s="5">
+        <v>224</v>
+      </c>
+      <c r="F67" s="7">
+        <v>272</v>
+      </c>
+      <c r="G67" s="7">
+        <v>368</v>
+      </c>
+      <c r="H67" s="7">
         <v>320</v>
       </c>
-      <c r="G67" s="5">
-        <v>384</v>
-      </c>
-      <c r="H67" s="5">
-        <v>256</v>
-      </c>
-      <c r="I67" s="5">
-        <v>256</v>
-      </c>
-      <c r="J67" s="5">
+      <c r="I67" s="7">
+        <v>288</v>
+      </c>
+      <c r="J67" s="7">
         <v>480</v>
       </c>
       <c r="K67" s="5">
@@ -9450,22 +9506,22 @@
         <v>10</v>
       </c>
       <c r="E68" s="5">
-        <v>240</v>
-      </c>
-      <c r="F68" s="5">
-        <v>400</v>
-      </c>
-      <c r="G68" s="5">
+        <v>336</v>
+      </c>
+      <c r="F68" s="7">
+        <v>408</v>
+      </c>
+      <c r="G68" s="7">
+        <v>552</v>
+      </c>
+      <c r="H68" s="7">
         <v>480</v>
       </c>
-      <c r="H68" s="5">
-        <v>320</v>
-      </c>
-      <c r="I68" s="5">
-        <v>320</v>
-      </c>
-      <c r="J68" s="5">
-        <v>600</v>
+      <c r="I68" s="7">
+        <v>432</v>
+      </c>
+      <c r="J68" s="7">
+        <v>720</v>
       </c>
       <c r="K68" s="5">
         <v>66</v>
@@ -9530,22 +9586,22 @@
         <v>12</v>
       </c>
       <c r="E69" s="5">
-        <v>288</v>
-      </c>
-      <c r="F69" s="5">
-        <v>480</v>
-      </c>
-      <c r="G69" s="5">
+        <v>448</v>
+      </c>
+      <c r="F69" s="7">
+        <v>544</v>
+      </c>
+      <c r="G69" s="7">
+        <v>736</v>
+      </c>
+      <c r="H69" s="7">
+        <v>640</v>
+      </c>
+      <c r="I69" s="7">
         <v>576</v>
       </c>
-      <c r="H69" s="5">
-        <v>384</v>
-      </c>
-      <c r="I69" s="5">
-        <v>384</v>
-      </c>
-      <c r="J69" s="5">
-        <v>720</v>
+      <c r="J69" s="7">
+        <v>960</v>
       </c>
       <c r="K69" s="5">
         <v>85</v>
@@ -9610,22 +9666,22 @@
         <v>14</v>
       </c>
       <c r="E70" s="5">
-        <v>336</v>
-      </c>
-      <c r="F70" s="5">
         <v>560</v>
       </c>
-      <c r="G70" s="5">
-        <v>672</v>
-      </c>
-      <c r="H70" s="5">
-        <v>448</v>
-      </c>
-      <c r="I70" s="5">
-        <v>448</v>
-      </c>
-      <c r="J70" s="5">
-        <v>840</v>
+      <c r="F70" s="7">
+        <v>680</v>
+      </c>
+      <c r="G70" s="7">
+        <v>920</v>
+      </c>
+      <c r="H70" s="7">
+        <v>800</v>
+      </c>
+      <c r="I70" s="7">
+        <v>720</v>
+      </c>
+      <c r="J70" s="7">
+        <v>1200</v>
       </c>
       <c r="K70" s="5">
         <v>104</v>
@@ -9690,22 +9746,22 @@
         <v>16</v>
       </c>
       <c r="E71" s="5">
-        <v>384</v>
-      </c>
-      <c r="F71" s="5">
-        <v>640</v>
-      </c>
-      <c r="G71" s="5">
-        <v>768</v>
-      </c>
-      <c r="H71" s="5">
-        <v>512</v>
-      </c>
-      <c r="I71" s="5">
-        <v>512</v>
-      </c>
-      <c r="J71" s="5">
-        <v>960</v>
+        <v>840</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1020</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1380</v>
+      </c>
+      <c r="H71" s="7">
+        <v>1200</v>
+      </c>
+      <c r="I71" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J71" s="7">
+        <v>1800</v>
       </c>
       <c r="K71" s="5">
         <v>94</v>
@@ -9770,22 +9826,22 @@
         <v>18</v>
       </c>
       <c r="E72" s="5">
-        <v>432</v>
-      </c>
-      <c r="F72" s="5">
-        <v>720</v>
-      </c>
-      <c r="G72" s="5">
-        <v>864</v>
-      </c>
-      <c r="H72" s="5">
-        <v>576</v>
-      </c>
-      <c r="I72" s="5">
-        <v>576</v>
-      </c>
-      <c r="J72" s="5">
-        <v>1080</v>
+        <v>1120</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1360</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1840</v>
+      </c>
+      <c r="H72" s="7">
+        <v>1600</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1440</v>
+      </c>
+      <c r="J72" s="7">
+        <v>2400</v>
       </c>
       <c r="K72" s="5">
         <v>123</v>
@@ -9850,22 +9906,22 @@
         <v>20</v>
       </c>
       <c r="E73" s="5">
-        <v>480</v>
-      </c>
-      <c r="F73" s="5">
-        <v>800</v>
-      </c>
-      <c r="G73" s="5">
-        <v>960</v>
-      </c>
-      <c r="H73" s="5">
-        <v>640</v>
-      </c>
-      <c r="I73" s="5">
-        <v>640</v>
-      </c>
-      <c r="J73" s="5">
-        <v>1200</v>
+        <v>1400</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1700</v>
+      </c>
+      <c r="G73" s="7">
+        <v>2300</v>
+      </c>
+      <c r="H73" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1800</v>
+      </c>
+      <c r="J73" s="7">
+        <v>3000</v>
       </c>
       <c r="K73" s="5">
         <v>151</v>
@@ -9917,7 +9973,10 @@
       </c>
     </row>
     <row r="74" spans="1:39" ht="20" customHeight="1">
-      <c r="I74" s="5"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="P74" s="5"/>
@@ -9943,8 +10002,10 @@
       <c r="AM74" s="5"/>
     </row>
     <row r="75" spans="1:39" ht="20" customHeight="1">
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
@@ -9973,8 +10034,10 @@
       <c r="AM75" s="5"/>
     </row>
     <row r="76" spans="1:39" ht="20" customHeight="1">
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -10001,8 +10064,11 @@
       <c r="AM76" s="5"/>
     </row>
     <row r="77" spans="1:39" ht="20" customHeight="1">
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -10033,8 +10099,11 @@
       <c r="AM77" s="5"/>
     </row>
     <row r="78" spans="1:39" ht="20" customHeight="1">
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -10066,8 +10135,11 @@
       <c r="AM78" s="5"/>
     </row>
     <row r="79" spans="1:39" ht="20" customHeight="1">
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
@@ -10097,8 +10169,9 @@
       <c r="AM79" s="5"/>
     </row>
     <row r="80" spans="1:39" ht="20" customHeight="1">
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
+      <c r="F80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -10150,8 +10223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10247,22 +10320,22 @@
         <v>7</v>
       </c>
       <c r="F2" s="1">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="G2" s="1">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="H2" s="1">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="I2" s="1">
-        <v>252</v>
+        <v>483</v>
       </c>
       <c r="J2" s="1">
-        <v>147</v>
+        <v>357</v>
       </c>
       <c r="K2" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="L2" s="1">
         <v>55</v>
@@ -10309,22 +10382,22 @@
         <v>7</v>
       </c>
       <c r="F3" s="1">
-        <v>403</v>
+        <v>773</v>
       </c>
       <c r="G3" s="1">
-        <v>269</v>
+        <v>571</v>
       </c>
       <c r="H3" s="1">
-        <v>202</v>
+        <v>470</v>
       </c>
       <c r="I3" s="1">
-        <v>336</v>
+        <v>672</v>
       </c>
       <c r="J3" s="1">
-        <v>168</v>
+        <v>437</v>
       </c>
       <c r="K3" s="1">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L3" s="1">
         <v>50</v>
@@ -10371,22 +10444,22 @@
         <v>15</v>
       </c>
       <c r="F4" s="1">
-        <v>600</v>
+        <v>1120</v>
       </c>
       <c r="G4" s="1">
-        <v>720</v>
+        <v>1288</v>
       </c>
       <c r="H4" s="1">
-        <v>480</v>
+        <v>952</v>
       </c>
       <c r="I4" s="1">
-        <v>360</v>
+        <v>784</v>
       </c>
       <c r="J4" s="1">
-        <v>360</v>
+        <v>840</v>
       </c>
       <c r="K4" s="1">
-        <v>900</v>
+        <v>1680</v>
       </c>
       <c r="L4" s="1">
         <v>70</v>
@@ -10433,22 +10506,22 @@
         <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>288</v>
+        <v>627</v>
       </c>
       <c r="G5" s="1">
-        <v>480</v>
+        <v>896</v>
       </c>
       <c r="H5" s="1">
-        <v>576</v>
+        <v>1030</v>
       </c>
       <c r="I5" s="1">
-        <v>384</v>
+        <v>762</v>
       </c>
       <c r="J5" s="1">
-        <v>384</v>
+        <v>896</v>
       </c>
       <c r="K5" s="1">
-        <v>1125</v>
+        <v>2100</v>
       </c>
       <c r="L5" s="1">
         <v>88</v>
@@ -10492,25 +10565,25 @@
         <v>3</v>
       </c>
       <c r="E6" s="4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>256</v>
+        <v>960</v>
       </c>
       <c r="G6" s="1">
-        <v>205</v>
+        <v>768</v>
       </c>
       <c r="H6" s="1">
-        <v>384</v>
+        <v>1440</v>
       </c>
       <c r="I6" s="1">
-        <v>307</v>
+        <v>1152</v>
       </c>
       <c r="J6" s="1">
-        <v>128</v>
+        <v>576</v>
       </c>
       <c r="K6" s="1">
-        <v>600</v>
+        <v>2250</v>
       </c>
       <c r="L6" s="1">
         <v>80</v>
@@ -10554,25 +10627,25 @@
         <v>3</v>
       </c>
       <c r="E7" s="4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
-        <v>600</v>
+        <v>2250</v>
       </c>
       <c r="G7" s="1">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="H7" s="1">
-        <v>320</v>
+        <v>1200</v>
       </c>
       <c r="I7" s="1">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="J7" s="1">
-        <v>480</v>
+        <v>1950</v>
       </c>
       <c r="K7" s="1">
-        <v>384</v>
+        <v>1440</v>
       </c>
       <c r="L7" s="1">
         <v>75</v>
@@ -10616,25 +10689,25 @@
         <v>3</v>
       </c>
       <c r="E8" s="4">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="G8" s="1">
-        <v>720</v>
+        <v>2700</v>
       </c>
       <c r="H8" s="1">
-        <v>480</v>
+        <v>1800</v>
       </c>
       <c r="I8" s="1">
-        <v>576</v>
+        <v>2160</v>
       </c>
       <c r="J8" s="1">
-        <v>384</v>
+        <v>1620</v>
       </c>
       <c r="K8" s="1">
-        <v>1280</v>
+        <v>4800</v>
       </c>
       <c r="L8" s="1">
         <v>130</v>
@@ -10678,25 +10751,25 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1">
-        <v>320</v>
+        <v>1200</v>
       </c>
       <c r="G9" s="1">
-        <v>960</v>
+        <v>3600</v>
       </c>
       <c r="H9" s="1">
-        <v>512</v>
+        <v>1920</v>
       </c>
       <c r="I9" s="1">
-        <v>640</v>
+        <v>2400</v>
       </c>
       <c r="J9" s="1">
-        <v>768</v>
+        <v>3120</v>
       </c>
       <c r="K9" s="1">
-        <v>960</v>
+        <v>3600</v>
       </c>
       <c r="L9" s="1">
         <v>140</v>

--- a/Dragonfall/gameData/shared/Soldiers.xlsx
+++ b/Dragonfall/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="0" windowWidth="35800" windowHeight="15200" tabRatio="165" activeTab="1"/>
+    <workbookView xWindow="980" yWindow="0" windowWidth="35800" windowHeight="15200" tabRatio="165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1440">
+  <cellStyleXfs count="1452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2216,7 +2228,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1440">
+  <cellStyles count="1452">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2939,6 +2951,12 @@
     <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1450" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3654,6 +3672,12 @@
     <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1451" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -10224,7 +10248,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10317,25 +10341,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="G2" s="1">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="H2" s="1">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="I2" s="1">
-        <v>483</v>
+        <v>345</v>
       </c>
       <c r="J2" s="1">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="K2" s="1">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="L2" s="1">
         <v>55</v>
@@ -10379,25 +10403,25 @@
         <v>3</v>
       </c>
       <c r="E3" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>773</v>
+        <v>552</v>
       </c>
       <c r="G3" s="1">
-        <v>571</v>
+        <v>408</v>
       </c>
       <c r="H3" s="1">
-        <v>470</v>
+        <v>336</v>
       </c>
       <c r="I3" s="1">
-        <v>672</v>
+        <v>480</v>
       </c>
       <c r="J3" s="1">
-        <v>437</v>
+        <v>312</v>
       </c>
       <c r="K3" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L3" s="1">
         <v>50</v>
@@ -10441,25 +10465,25 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="G4" s="1">
-        <v>1288</v>
+        <v>920</v>
       </c>
       <c r="H4" s="1">
-        <v>952</v>
+        <v>680</v>
       </c>
       <c r="I4" s="1">
-        <v>784</v>
+        <v>560</v>
       </c>
       <c r="J4" s="1">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="K4" s="1">
-        <v>1680</v>
+        <v>1200</v>
       </c>
       <c r="L4" s="1">
         <v>70</v>
@@ -10471,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
@@ -10503,25 +10527,25 @@
         <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
-        <v>627</v>
+        <v>448</v>
       </c>
       <c r="G5" s="1">
-        <v>896</v>
+        <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>1030</v>
+        <v>736</v>
       </c>
       <c r="I5" s="1">
-        <v>762</v>
+        <v>544</v>
       </c>
       <c r="J5" s="1">
-        <v>896</v>
+        <v>640</v>
       </c>
       <c r="K5" s="1">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="L5" s="1">
         <v>88</v>
@@ -10533,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
@@ -10595,7 +10619,7 @@
         <v>1.2</v>
       </c>
       <c r="O6" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -10657,7 +10681,7 @@
         <v>1.2</v>
       </c>
       <c r="O7" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -10719,7 +10743,7 @@
         <v>2.4</v>
       </c>
       <c r="O8" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
@@ -10781,7 +10805,7 @@
         <v>2.4</v>
       </c>
       <c r="O9" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P9" s="1">
         <v>2</v>
